--- a/input/dynamic_data/season_16/forecasting_method/average/improved_hor_5/forecast_point_GW1.xlsx
+++ b/input/dynamic_data/season_16/forecasting_method/average/improved_hor_5/forecast_point_GW1.xlsx
@@ -141,37 +141,37 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="n">
-        <v>2.1528985699032335</v>
+        <v>2.174866922657348</v>
       </c>
       <c r="C2" t="n">
-        <v>2.3767372483347877</v>
+        <v>2.3995764209177732</v>
       </c>
       <c r="D2" t="n">
-        <v>2.3531407059758274</v>
+        <v>2.339155431115295</v>
       </c>
       <c r="E2" t="n">
-        <v>2.4715647086773966</v>
+        <v>2.4539064515722155</v>
       </c>
       <c r="F2" t="n">
-        <v>2.430080479364761</v>
+        <v>2.3995764209177732</v>
       </c>
       <c r="G2" t="n">
-        <v>2.1615949909952636</v>
+        <v>2.1640106810521704</v>
       </c>
       <c r="H2" t="n">
-        <v>2.1528985699032335</v>
+        <v>2.203111947899303</v>
       </c>
       <c r="I2" t="n">
-        <v>2.3767372483347877</v>
+        <v>2.423423142455532</v>
       </c>
       <c r="J2" t="n">
-        <v>2.3531407059758274</v>
+        <v>2.341963540798814</v>
       </c>
       <c r="K2" t="n">
-        <v>2.4715647086773966</v>
+        <v>2.383452204699445</v>
       </c>
       <c r="L2" t="n">
-        <v>2.430080479364761</v>
+        <v>2.260551134915543</v>
       </c>
     </row>
     <row r="3">
@@ -445,37 +445,37 @@
         <v>9.0</v>
       </c>
       <c r="B10" t="n">
-        <v>2.938729046400484</v>
+        <v>2.968116336864489</v>
       </c>
       <c r="C10" t="n">
-        <v>3.119708577233889</v>
+        <v>3.114266746758222</v>
       </c>
       <c r="D10" t="n">
-        <v>2.9893969188543545</v>
+        <v>2.9996596875185335</v>
       </c>
       <c r="E10" t="n">
-        <v>2.821284928030618</v>
+        <v>2.841358178708118</v>
       </c>
       <c r="F10" t="n">
-        <v>3.24749229523159</v>
+        <v>3.221992953643484</v>
       </c>
       <c r="G10" t="n">
-        <v>3.20960868704958</v>
+        <v>3.150657318241534</v>
       </c>
       <c r="H10" t="n">
-        <v>2.938729046400484</v>
+        <v>3.1294861317828193</v>
       </c>
       <c r="I10" t="n">
-        <v>3.119708577233889</v>
+        <v>2.7736701676345237</v>
       </c>
       <c r="J10" t="n">
-        <v>2.9893969188543545</v>
+        <v>2.8256860435743647</v>
       </c>
       <c r="K10" t="n">
-        <v>2.821284928030618</v>
+        <v>3.150657318241534</v>
       </c>
       <c r="L10" t="n">
-        <v>3.24749229523159</v>
+        <v>2.841358178708118</v>
       </c>
     </row>
     <row r="11">
@@ -562,34 +562,34 @@
         <v>3.4614967604493807</v>
       </c>
       <c r="C13" t="n">
-        <v>3.081110193415107</v>
+        <v>3.0829248361002324</v>
       </c>
       <c r="D13" t="n">
-        <v>3.2239187351355403</v>
+        <v>3.2316470871417997</v>
       </c>
       <c r="E13" t="n">
-        <v>3.3166674443178152</v>
+        <v>3.2990510833370656</v>
       </c>
       <c r="F13" t="n">
-        <v>3.2262010757591884</v>
+        <v>3.2152242637508732</v>
       </c>
       <c r="G13" t="n">
-        <v>3.527710137521213</v>
+        <v>3.4762894794268933</v>
       </c>
       <c r="H13" t="n">
-        <v>3.4614967604493807</v>
+        <v>3.4657103899869326</v>
       </c>
       <c r="I13" t="n">
-        <v>3.081110193415107</v>
+        <v>3.0223790698433466</v>
       </c>
       <c r="J13" t="n">
-        <v>3.2239187351355403</v>
+        <v>3.4784130544738137</v>
       </c>
       <c r="K13" t="n">
-        <v>3.3166674443178152</v>
+        <v>3.536746689784897</v>
       </c>
       <c r="L13" t="n">
-        <v>3.2262010757591884</v>
+        <v>3.4178644477763163</v>
       </c>
     </row>
     <row r="14">
@@ -787,37 +787,37 @@
         <v>18.0</v>
       </c>
       <c r="B19" t="n">
-        <v>1.6525245096713805</v>
+        <v>1.6359992645746668</v>
       </c>
       <c r="C19" t="n">
-        <v>1.7768200102200176</v>
+        <v>1.7692951022146304</v>
       </c>
       <c r="D19" t="n">
-        <v>1.7003976128413065</v>
+        <v>1.6759238156727385</v>
       </c>
       <c r="E19" t="n">
-        <v>1.7146440891403258</v>
+        <v>1.7062058955653487</v>
       </c>
       <c r="F19" t="n">
-        <v>1.742560589150005</v>
+        <v>1.714920907580946</v>
       </c>
       <c r="G19" t="n">
-        <v>1.8112688236364087</v>
+        <v>1.7506898264055575</v>
       </c>
       <c r="H19" t="n">
-        <v>1.6525245096713805</v>
+        <v>1.9004343645953157</v>
       </c>
       <c r="I19" t="n">
-        <v>1.7768200102200176</v>
+        <v>1.6759238156727385</v>
       </c>
       <c r="J19" t="n">
-        <v>1.7003976128413065</v>
+        <v>1.603869766018785</v>
       </c>
       <c r="K19" t="n">
-        <v>1.7146440891403258</v>
+        <v>1.8391300309544956</v>
       </c>
       <c r="L19" t="n">
-        <v>1.742560589150005</v>
+        <v>1.8583583281518452</v>
       </c>
     </row>
     <row r="20">
@@ -1053,37 +1053,37 @@
         <v>25.0</v>
       </c>
       <c r="B26" t="n">
-        <v>2.2316628527048077</v>
+        <v>2.2992889997564685</v>
       </c>
       <c r="C26" t="n">
-        <v>2.169992193791385</v>
+        <v>2.2599849129996716</v>
       </c>
       <c r="D26" t="n">
-        <v>1.9051522171543929</v>
+        <v>1.9648913416549059</v>
       </c>
       <c r="E26" t="n">
-        <v>2.1979663120895157</v>
+        <v>2.2766637703644323</v>
       </c>
       <c r="F26" t="n">
-        <v>2.1366238844609544</v>
+        <v>2.2220019743366923</v>
       </c>
       <c r="G26" t="n">
-        <v>1.955343775455431</v>
+        <v>2.063464486904808</v>
       </c>
       <c r="H26" t="n">
-        <v>2.2316628527048077</v>
+        <v>2.219337703457904</v>
       </c>
       <c r="I26" t="n">
-        <v>2.169992193791385</v>
+        <v>2.1009394368054366</v>
       </c>
       <c r="J26" t="n">
-        <v>1.9051522171543929</v>
+        <v>2.0902627272529077</v>
       </c>
       <c r="K26" t="n">
-        <v>2.1979663120895157</v>
+        <v>2.2503679573608286</v>
       </c>
       <c r="L26" t="n">
-        <v>2.1366238844609544</v>
+        <v>2.0042529998529237</v>
       </c>
     </row>
     <row r="27">
@@ -1243,37 +1243,37 @@
         <v>30.0</v>
       </c>
       <c r="B31" t="n">
-        <v>2.8211685829089004</v>
+        <v>2.7932362207018815</v>
       </c>
       <c r="C31" t="n">
-        <v>2.8676493685713136</v>
+        <v>2.822818990553267</v>
       </c>
       <c r="D31" t="n">
-        <v>3.1562253036010883</v>
+        <v>3.14542687527348</v>
       </c>
       <c r="E31" t="n">
-        <v>3.1008264459004455</v>
+        <v>3.0935475069348204</v>
       </c>
       <c r="F31" t="n">
-        <v>3.112129580578904</v>
+        <v>3.0785028994122743</v>
       </c>
       <c r="G31" t="n">
-        <v>2.8992183771221227</v>
+        <v>2.874084714252832</v>
       </c>
       <c r="H31" t="n">
-        <v>2.8211685829089004</v>
+        <v>3.1144755661529318</v>
       </c>
       <c r="I31" t="n">
-        <v>2.8676493685713136</v>
+        <v>3.0822503161068715</v>
       </c>
       <c r="J31" t="n">
-        <v>3.1562253036010883</v>
+        <v>3.184991992096509</v>
       </c>
       <c r="K31" t="n">
-        <v>3.1008264459004455</v>
+        <v>3.091658892733658</v>
       </c>
       <c r="L31" t="n">
-        <v>3.112129580578904</v>
+        <v>2.8087283790083153</v>
       </c>
     </row>
     <row r="32">
@@ -1281,37 +1281,37 @@
         <v>31.0</v>
       </c>
       <c r="B32" t="n">
-        <v>1.1975544961483655</v>
+        <v>1.2099004187890705</v>
       </c>
       <c r="C32" t="n">
-        <v>1.1901933698845566</v>
+        <v>1.216080386115891</v>
       </c>
       <c r="D32" t="n">
-        <v>1.176955382555927</v>
+        <v>1.1943888748107747</v>
       </c>
       <c r="E32" t="n">
-        <v>1.2786804081653076</v>
+        <v>1.3081401955097123</v>
       </c>
       <c r="F32" t="n">
-        <v>1.1543854305849677</v>
+        <v>1.1884268667171307</v>
       </c>
       <c r="G32" t="n">
-        <v>1.2853895131672424</v>
+        <v>1.3041592462216265</v>
       </c>
       <c r="H32" t="n">
-        <v>1.1975544961483655</v>
+        <v>1.3025736423184764</v>
       </c>
       <c r="I32" t="n">
-        <v>1.1901933698845566</v>
+        <v>1.3476312205820458</v>
       </c>
       <c r="J32" t="n">
-        <v>1.176955382555927</v>
+        <v>1.3177943678046316</v>
       </c>
       <c r="K32" t="n">
-        <v>1.2786804081653076</v>
+        <v>1.1373320808660476</v>
       </c>
       <c r="L32" t="n">
-        <v>1.1543854305849677</v>
+        <v>1.3308904605396341</v>
       </c>
     </row>
     <row r="33">
@@ -1360,34 +1360,34 @@
         <v>2.353392629308362</v>
       </c>
       <c r="C34" t="n">
-        <v>2.424486020779477</v>
+        <v>2.409617267557319</v>
       </c>
       <c r="D34" t="n">
-        <v>2.27160864654738</v>
+        <v>2.269475778054161</v>
       </c>
       <c r="E34" t="n">
-        <v>2.447856214287767</v>
+        <v>2.446282168401619</v>
       </c>
       <c r="F34" t="n">
-        <v>2.4713439040215315</v>
+        <v>2.453749450702434</v>
       </c>
       <c r="G34" t="n">
-        <v>2.461431952704605</v>
+        <v>2.443307965239189</v>
       </c>
       <c r="H34" t="n">
-        <v>2.353392629308362</v>
+        <v>2.2810678776514344</v>
       </c>
       <c r="I34" t="n">
-        <v>2.424486020779477</v>
+        <v>2.4718583048198743</v>
       </c>
       <c r="J34" t="n">
-        <v>2.27160864654738</v>
+        <v>2.4964233556188367</v>
       </c>
       <c r="K34" t="n">
-        <v>2.447856214287767</v>
+        <v>2.4125099652774433</v>
       </c>
       <c r="L34" t="n">
-        <v>2.4713439040215315</v>
+        <v>2.5278249063848865</v>
       </c>
     </row>
     <row r="35">
@@ -1509,37 +1509,37 @@
         <v>37.0</v>
       </c>
       <c r="B38" t="n">
-        <v>3.2352656688469046</v>
+        <v>3.2682785838351385</v>
       </c>
       <c r="C38" t="n">
-        <v>3.5911431203190536</v>
+        <v>3.599698404642967</v>
       </c>
       <c r="D38" t="n">
-        <v>3.214399935902667</v>
+        <v>3.2502516754346273</v>
       </c>
       <c r="E38" t="n">
-        <v>3.268176436335759</v>
+        <v>3.2846746313453523</v>
       </c>
       <c r="F38" t="n">
-        <v>3.5752381338552923</v>
+        <v>3.62405060909783</v>
       </c>
       <c r="G38" t="n">
-        <v>3.529990407439139</v>
+        <v>3.532797535018942</v>
       </c>
       <c r="H38" t="n">
-        <v>3.2352656688469046</v>
+        <v>3.1904202980927874</v>
       </c>
       <c r="I38" t="n">
-        <v>3.5911431203190536</v>
+        <v>3.537038588364965</v>
       </c>
       <c r="J38" t="n">
-        <v>3.214399935902667</v>
+        <v>3.414082438038841</v>
       </c>
       <c r="K38" t="n">
-        <v>3.268176436335759</v>
+        <v>3.2682785838351385</v>
       </c>
       <c r="L38" t="n">
-        <v>3.5752381338552923</v>
+        <v>3.59750078475458</v>
       </c>
     </row>
     <row r="39">
@@ -1775,37 +1775,37 @@
         <v>44.0</v>
       </c>
       <c r="B45" t="n">
-        <v>1.8497151193383543</v>
+        <v>1.8130870971732382</v>
       </c>
       <c r="C45" t="n">
-        <v>1.7285204917240984</v>
+        <v>1.6753206339935132</v>
       </c>
       <c r="D45" t="n">
-        <v>1.8997617696816178</v>
+        <v>1.8576894864739033</v>
       </c>
       <c r="E45" t="n">
-        <v>1.6616769372892841</v>
+        <v>1.6032925173099362</v>
       </c>
       <c r="F45" t="n">
-        <v>1.70756961336212</v>
+        <v>1.6837252531241034</v>
       </c>
       <c r="G45" t="n">
-        <v>1.8066337923640714</v>
+        <v>1.7686583152790794</v>
       </c>
       <c r="H45" t="n">
-        <v>1.8497151193383543</v>
+        <v>1.6660800350556315</v>
       </c>
       <c r="I45" t="n">
-        <v>1.7285204917240984</v>
+        <v>1.7500597356941425</v>
       </c>
       <c r="J45" t="n">
-        <v>1.8997617696816178</v>
+        <v>1.8440800381327658</v>
       </c>
       <c r="K45" t="n">
-        <v>1.6616769372892841</v>
+        <v>1.8997503793326356</v>
       </c>
       <c r="L45" t="n">
-        <v>1.70756961336212</v>
+        <v>1.8452065387814254</v>
       </c>
     </row>
     <row r="46">
@@ -2003,37 +2003,37 @@
         <v>50.0</v>
       </c>
       <c r="B51" t="n">
-        <v>2.660890407836691</v>
+        <v>2.58106369560159</v>
       </c>
       <c r="C51" t="n">
-        <v>2.7481375406241013</v>
+        <v>2.6821423077953668</v>
       </c>
       <c r="D51" t="n">
-        <v>2.6708103859825694</v>
+        <v>2.6327688178237763</v>
       </c>
       <c r="E51" t="n">
-        <v>3.0292319998399084</v>
+        <v>2.9560632251537817</v>
       </c>
       <c r="F51" t="n">
-        <v>2.991008102588142</v>
+        <v>2.970509471425878</v>
       </c>
       <c r="G51" t="n">
-        <v>2.8043061863749466</v>
+        <v>2.745750426605112</v>
       </c>
       <c r="H51" t="n">
-        <v>2.660890407836691</v>
+        <v>2.8173371984003786</v>
       </c>
       <c r="I51" t="n">
-        <v>2.7481375406241013</v>
+        <v>2.9686959720825365</v>
       </c>
       <c r="J51" t="n">
-        <v>2.6708103859825694</v>
+        <v>2.6970183046497636</v>
       </c>
       <c r="K51" t="n">
-        <v>3.0292319998399084</v>
+        <v>2.99060516996828</v>
       </c>
       <c r="L51" t="n">
-        <v>2.991008102588142</v>
+        <v>2.9596615978180862</v>
       </c>
     </row>
     <row r="52">
@@ -2307,37 +2307,37 @@
         <v>58.0</v>
       </c>
       <c r="B59" t="n">
-        <v>1.012062126885198</v>
+        <v>0.97157964180979</v>
       </c>
       <c r="C59" t="n">
-        <v>1.01023461675398</v>
+        <v>0.9812350913999855</v>
       </c>
       <c r="D59" t="n">
-        <v>1.0273758091176342</v>
+        <v>0.9935776708213306</v>
       </c>
       <c r="E59" t="n">
-        <v>0.992524226782103</v>
+        <v>0.9471154059061748</v>
       </c>
       <c r="F59" t="n">
-        <v>0.962678470601821</v>
+        <v>0.9250159539334262</v>
       </c>
       <c r="G59" t="n">
-        <v>0.900990655635438</v>
+        <v>0.8713670694009887</v>
       </c>
       <c r="H59" t="n">
-        <v>1.012062126885198</v>
+        <v>0.8761999426403244</v>
       </c>
       <c r="I59" t="n">
-        <v>1.01023461675398</v>
+        <v>0.9650510061383845</v>
       </c>
       <c r="J59" t="n">
-        <v>1.0273758091176342</v>
+        <v>0.9615267785806665</v>
       </c>
       <c r="K59" t="n">
-        <v>0.992524226782103</v>
+        <v>0.91528881631281</v>
       </c>
       <c r="L59" t="n">
-        <v>0.962678470601821</v>
+        <v>0.8385289258653437</v>
       </c>
     </row>
     <row r="60">
@@ -2424,34 +2424,34 @@
         <v>2.5715215740931185</v>
       </c>
       <c r="C62" t="n">
-        <v>2.606414486776646</v>
+        <v>2.5889180923824386</v>
       </c>
       <c r="D62" t="n">
-        <v>2.3074569081097325</v>
+        <v>2.334764734078368</v>
       </c>
       <c r="E62" t="n">
-        <v>2.3203937826167134</v>
+        <v>2.3218868263607875</v>
       </c>
       <c r="F62" t="n">
-        <v>2.2701029399320234</v>
+        <v>2.234384721272086</v>
       </c>
       <c r="G62" t="n">
-        <v>2.344685813509097</v>
+        <v>2.334764734078368</v>
       </c>
       <c r="H62" t="n">
-        <v>2.5715215740931185</v>
+        <v>2.5889180923824386</v>
       </c>
       <c r="I62" t="n">
-        <v>2.606414486776646</v>
+        <v>2.46484223817185</v>
       </c>
       <c r="J62" t="n">
-        <v>2.3074569081097325</v>
+        <v>2.5590156944415967</v>
       </c>
       <c r="K62" t="n">
-        <v>2.3203937826167134</v>
+        <v>2.3464776014252515</v>
       </c>
       <c r="L62" t="n">
-        <v>2.2701029399320234</v>
+        <v>2.5237295064738214</v>
       </c>
     </row>
     <row r="63">
@@ -2535,37 +2535,37 @@
         <v>64.0</v>
       </c>
       <c r="B65" t="n">
-        <v>1.7656080354561932</v>
+        <v>1.7838101801516177</v>
       </c>
       <c r="C65" t="n">
-        <v>1.9472091680921826</v>
+        <v>1.976775810061715</v>
       </c>
       <c r="D65" t="n">
-        <v>1.8684774254195842</v>
+        <v>1.9188483133658363</v>
       </c>
       <c r="E65" t="n">
-        <v>1.9276596092300615</v>
+        <v>1.9330095571596109</v>
       </c>
       <c r="F65" t="n">
-        <v>1.8193271223657828</v>
+        <v>1.821015955211158</v>
       </c>
       <c r="G65" t="n">
-        <v>1.8539377168199227</v>
+        <v>1.9200204880138927</v>
       </c>
       <c r="H65" t="n">
-        <v>1.7656080354561932</v>
+        <v>1.743246554602091</v>
       </c>
       <c r="I65" t="n">
-        <v>1.9472091680921826</v>
+        <v>1.7747450815311254</v>
       </c>
       <c r="J65" t="n">
-        <v>1.8684774254195842</v>
+        <v>1.701718213340462</v>
       </c>
       <c r="K65" t="n">
-        <v>1.9276596092300615</v>
+        <v>1.7336312953292894</v>
       </c>
       <c r="L65" t="n">
-        <v>1.8193271223657828</v>
+        <v>1.9330095571596109</v>
       </c>
     </row>
     <row r="66">
@@ -2690,34 +2690,34 @@
         <v>2.9230087616657543</v>
       </c>
       <c r="C69" t="n">
-        <v>3.2269164456606045</v>
+        <v>3.2250170479668756</v>
       </c>
       <c r="D69" t="n">
-        <v>3.1948792187217814</v>
+        <v>3.1438115816731633</v>
       </c>
       <c r="E69" t="n">
-        <v>3.35566449784609</v>
+        <v>3.29803629984389</v>
       </c>
       <c r="F69" t="n">
-        <v>3.2993410056728214</v>
+        <v>3.2250170479668756</v>
       </c>
       <c r="G69" t="n">
-        <v>2.934815966799567</v>
+        <v>2.9084180347573136</v>
       </c>
       <c r="H69" t="n">
-        <v>2.9230087616657543</v>
+        <v>2.960969914780736</v>
       </c>
       <c r="I69" t="n">
-        <v>3.2269164456606045</v>
+        <v>3.2570669059447166</v>
       </c>
       <c r="J69" t="n">
-        <v>3.1948792187217814</v>
+        <v>3.1475856651001233</v>
       </c>
       <c r="K69" t="n">
-        <v>3.35566449784609</v>
+        <v>3.203346193171043</v>
       </c>
       <c r="L69" t="n">
-        <v>3.2993410056728214</v>
+        <v>3.0381678551063382</v>
       </c>
     </row>
     <row r="70">
@@ -2953,37 +2953,37 @@
         <v>75.0</v>
       </c>
       <c r="B76" t="n">
-        <v>4.390544318145163</v>
+        <v>4.434449761326615</v>
       </c>
       <c r="C76" t="n">
-        <v>4.847032910551519</v>
+        <v>4.892621693847086</v>
       </c>
       <c r="D76" t="n">
-        <v>4.798910966289806</v>
+        <v>4.769426181966596</v>
       </c>
       <c r="E76" t="n">
-        <v>5.04042064048535</v>
+        <v>5.00339803099147</v>
       </c>
       <c r="F76" t="n">
-        <v>4.955819187426923</v>
+        <v>4.892621693847086</v>
       </c>
       <c r="G76" t="n">
-        <v>4.408279488184097</v>
+        <v>4.4123144032992085</v>
       </c>
       <c r="H76" t="n">
-        <v>4.390544318145163</v>
+        <v>4.492040018522588</v>
       </c>
       <c r="I76" t="n">
-        <v>4.847032910551519</v>
+        <v>4.941244019898341</v>
       </c>
       <c r="J76" t="n">
-        <v>4.798910966289806</v>
+        <v>4.775151783467145</v>
       </c>
       <c r="K76" t="n">
-        <v>5.04042064048535</v>
+        <v>4.8597451872360145</v>
       </c>
       <c r="L76" t="n">
-        <v>4.955819187426923</v>
+        <v>4.60915577696345</v>
       </c>
     </row>
     <row r="77">
@@ -3067,37 +3067,37 @@
         <v>78.0</v>
       </c>
       <c r="B79" t="n">
-        <v>2.67841950225252</v>
+        <v>2.651635307229995</v>
       </c>
       <c r="C79" t="n">
-        <v>2.956897034845453</v>
+        <v>2.9256050077435543</v>
       </c>
       <c r="D79" t="n">
-        <v>2.9275405941271107</v>
+        <v>2.851938693639941</v>
       </c>
       <c r="E79" t="n">
-        <v>3.074871807406214</v>
+        <v>2.9918451192765323</v>
       </c>
       <c r="F79" t="n">
-        <v>3.023261308713805</v>
+        <v>2.9256050077435543</v>
       </c>
       <c r="G79" t="n">
-        <v>2.689238713235479</v>
+        <v>2.6383991900017576</v>
       </c>
       <c r="H79" t="n">
-        <v>2.67841950225252</v>
+        <v>2.686072129733902</v>
       </c>
       <c r="I79" t="n">
-        <v>2.956897034845453</v>
+        <v>2.9546793424223594</v>
       </c>
       <c r="J79" t="n">
-        <v>2.9275405941271107</v>
+        <v>2.8553623894559115</v>
       </c>
       <c r="K79" t="n">
-        <v>3.074871807406214</v>
+        <v>2.905946084900731</v>
       </c>
       <c r="L79" t="n">
-        <v>3.023261308713805</v>
+        <v>2.7561029783914157</v>
       </c>
     </row>
     <row r="80">
@@ -3485,37 +3485,37 @@
         <v>89.0</v>
       </c>
       <c r="B90" t="n">
-        <v>4.324928836994905</v>
+        <v>4.412301136732176</v>
       </c>
       <c r="C90" t="n">
-        <v>4.591276492545499</v>
+        <v>4.629563382048754</v>
       </c>
       <c r="D90" t="n">
-        <v>4.399496767288899</v>
+        <v>4.4591924125957805</v>
       </c>
       <c r="E90" t="n">
-        <v>4.152086276060128</v>
+        <v>4.223866755513053</v>
       </c>
       <c r="F90" t="n">
-        <v>4.779335846824385</v>
+        <v>4.789705509630523</v>
       </c>
       <c r="G90" t="n">
-        <v>4.723582523912063</v>
+        <v>4.683660372091864</v>
       </c>
       <c r="H90" t="n">
-        <v>4.324928836994905</v>
+        <v>4.652188003937845</v>
       </c>
       <c r="I90" t="n">
-        <v>4.591276492545499</v>
+        <v>4.123244052658129</v>
       </c>
       <c r="J90" t="n">
-        <v>4.399496767288899</v>
+        <v>4.20056909065847</v>
       </c>
       <c r="K90" t="n">
-        <v>4.152086276060128</v>
+        <v>4.683660372091864</v>
       </c>
       <c r="L90" t="n">
-        <v>4.779335846824385</v>
+        <v>4.223866755513053</v>
       </c>
     </row>
     <row r="91">
@@ -3599,37 +3599,37 @@
         <v>92.0</v>
       </c>
       <c r="B93" t="n">
-        <v>2.6065986917775246</v>
+        <v>2.6592572512073738</v>
       </c>
       <c r="C93" t="n">
-        <v>2.767124211776273</v>
+        <v>2.790199402109522</v>
       </c>
       <c r="D93" t="n">
-        <v>2.6515401640834444</v>
+        <v>2.6875182337410832</v>
       </c>
       <c r="E93" t="n">
-        <v>2.5024279157494242</v>
+        <v>2.5456894145830478</v>
       </c>
       <c r="F93" t="n">
-        <v>2.8804660227782946</v>
+        <v>2.886715732432115</v>
       </c>
       <c r="G93" t="n">
-        <v>2.846863958087101</v>
+        <v>2.8228032087361874</v>
       </c>
       <c r="H93" t="n">
-        <v>2.6065986917775246</v>
+        <v>2.8038350738259252</v>
       </c>
       <c r="I93" t="n">
-        <v>2.767124211776273</v>
+        <v>2.485044947238007</v>
       </c>
       <c r="J93" t="n">
-        <v>2.6515401640834444</v>
+        <v>2.5316481054609254</v>
       </c>
       <c r="K93" t="n">
-        <v>2.5024279157494242</v>
+        <v>2.8228032087361874</v>
       </c>
       <c r="L93" t="n">
-        <v>2.8804660227782946</v>
+        <v>2.5456894145830478</v>
       </c>
     </row>
     <row r="94">
@@ -3637,37 +3637,37 @@
         <v>93.0</v>
       </c>
       <c r="B94" t="n">
-        <v>2.6065986917775246</v>
+        <v>2.6592572512073738</v>
       </c>
       <c r="C94" t="n">
-        <v>2.767124211776273</v>
+        <v>2.790199402109522</v>
       </c>
       <c r="D94" t="n">
-        <v>2.6515401640834444</v>
+        <v>2.6875182337410832</v>
       </c>
       <c r="E94" t="n">
-        <v>2.5024279157494242</v>
+        <v>2.5456894145830478</v>
       </c>
       <c r="F94" t="n">
-        <v>2.8804660227782946</v>
+        <v>2.886715732432115</v>
       </c>
       <c r="G94" t="n">
-        <v>2.846863958087101</v>
+        <v>2.8228032087361874</v>
       </c>
       <c r="H94" t="n">
-        <v>2.6065986917775246</v>
+        <v>2.8038350738259252</v>
       </c>
       <c r="I94" t="n">
-        <v>2.767124211776273</v>
+        <v>2.485044947238007</v>
       </c>
       <c r="J94" t="n">
-        <v>2.6515401640834444</v>
+        <v>2.5316481054609254</v>
       </c>
       <c r="K94" t="n">
-        <v>2.5024279157494242</v>
+        <v>2.8228032087361874</v>
       </c>
       <c r="L94" t="n">
-        <v>2.8804660227782946</v>
+        <v>2.5456894145830478</v>
       </c>
     </row>
     <row r="95">
@@ -3751,37 +3751,37 @@
         <v>96.0</v>
       </c>
       <c r="B97" t="n">
-        <v>2.362396644839385</v>
+        <v>2.4101218295836153</v>
       </c>
       <c r="C97" t="n">
-        <v>2.507883156074275</v>
+        <v>2.5287965219845154</v>
       </c>
       <c r="D97" t="n">
-        <v>2.403127726200147</v>
+        <v>2.4357351510849665</v>
       </c>
       <c r="E97" t="n">
-        <v>2.2679852218016174</v>
+        <v>2.3071937198407153</v>
       </c>
       <c r="F97" t="n">
-        <v>2.6106064156522972</v>
+        <v>2.616270614427498</v>
       </c>
       <c r="G97" t="n">
-        <v>2.5801523971121365</v>
+        <v>2.558345805357823</v>
       </c>
       <c r="H97" t="n">
-        <v>2.362396644839385</v>
+        <v>2.5411547208950642</v>
       </c>
       <c r="I97" t="n">
-        <v>2.507883156074275</v>
+        <v>2.252230795691353</v>
       </c>
       <c r="J97" t="n">
-        <v>2.403127726200147</v>
+        <v>2.2944678861080847</v>
       </c>
       <c r="K97" t="n">
-        <v>2.2679852218016174</v>
+        <v>2.558345805357823</v>
       </c>
       <c r="L97" t="n">
-        <v>2.6106064156522972</v>
+        <v>2.3071937198407153</v>
       </c>
     </row>
     <row r="98">
@@ -3865,37 +3865,37 @@
         <v>99.0</v>
       </c>
       <c r="B100" t="n">
-        <v>2.6422563451646073</v>
+        <v>2.668945803196573</v>
       </c>
       <c r="C100" t="n">
-        <v>2.3518967435478744</v>
+        <v>2.3770524349160436</v>
       </c>
       <c r="D100" t="n">
-        <v>2.460906458598289</v>
+        <v>2.491722953257886</v>
       </c>
       <c r="E100" t="n">
-        <v>2.5317041170398005</v>
+        <v>2.5436940008172884</v>
       </c>
       <c r="F100" t="n">
-        <v>2.4626486324069043</v>
+        <v>2.479060331103601</v>
       </c>
       <c r="G100" t="n">
-        <v>2.6927988496966964</v>
+        <v>2.680351552779818</v>
       </c>
       <c r="H100" t="n">
-        <v>2.6422563451646073</v>
+        <v>2.6721946720093275</v>
       </c>
       <c r="I100" t="n">
-        <v>2.3518967435478744</v>
+        <v>2.3303693437749566</v>
       </c>
       <c r="J100" t="n">
-        <v>2.460906458598289</v>
+        <v>2.6819889099988132</v>
       </c>
       <c r="K100" t="n">
-        <v>2.5317041170398005</v>
+        <v>2.726966363950988</v>
       </c>
       <c r="L100" t="n">
-        <v>2.4626486324069043</v>
+        <v>2.635303628769861</v>
       </c>
     </row>
     <row r="101">
@@ -3903,37 +3903,37 @@
         <v>100.0</v>
       </c>
       <c r="B101" t="n">
-        <v>2.3238488186634116</v>
+        <v>2.3478060229795292</v>
       </c>
       <c r="C101" t="n">
-        <v>2.068479267393553</v>
+        <v>2.0910346013582957</v>
       </c>
       <c r="D101" t="n">
-        <v>2.1643526666594215</v>
+        <v>2.191907437853782</v>
       </c>
       <c r="E101" t="n">
-        <v>2.226618788277228</v>
+        <v>2.237625090993977</v>
       </c>
       <c r="F101" t="n">
-        <v>2.16588489821389</v>
+        <v>2.180768440379597</v>
       </c>
       <c r="G101" t="n">
-        <v>2.3683006522881573</v>
+        <v>2.357839380545676</v>
       </c>
       <c r="H101" t="n">
-        <v>2.3238488186634116</v>
+        <v>2.3506639730200733</v>
       </c>
       <c r="I101" t="n">
-        <v>2.068479267393553</v>
+        <v>2.049968633506466</v>
       </c>
       <c r="J101" t="n">
-        <v>2.1643526666594215</v>
+        <v>2.359279723446578</v>
       </c>
       <c r="K101" t="n">
-        <v>2.226618788277228</v>
+        <v>2.398845284186226</v>
       </c>
       <c r="L101" t="n">
-        <v>2.16588489821389</v>
+        <v>2.318211829028284</v>
       </c>
     </row>
     <row r="102">
@@ -4017,37 +4017,37 @@
         <v>103.0</v>
       </c>
       <c r="B104" t="n">
-        <v>2.909446606932616</v>
+        <v>2.938834956497592</v>
       </c>
       <c r="C104" t="n">
-        <v>2.5897252599633536</v>
+        <v>2.6174247453028823</v>
       </c>
       <c r="D104" t="n">
-        <v>2.709758256064026</v>
+        <v>2.743690976478909</v>
       </c>
       <c r="E104" t="n">
-        <v>2.787715115741317</v>
+        <v>2.8009174406170874</v>
       </c>
       <c r="F104" t="n">
-        <v>2.711676601982823</v>
+        <v>2.729747884572223</v>
       </c>
       <c r="G104" t="n">
-        <v>2.965100070907022</v>
+        <v>2.951394078357673</v>
       </c>
       <c r="H104" t="n">
-        <v>2.909446606932616</v>
+        <v>2.942412357441651</v>
       </c>
       <c r="I104" t="n">
-        <v>2.5897252599633536</v>
+        <v>2.566020966343237</v>
       </c>
       <c r="J104" t="n">
-        <v>2.709758256064026</v>
+        <v>2.9531970084230545</v>
       </c>
       <c r="K104" t="n">
-        <v>2.787715115741317</v>
+        <v>3.0027226727398797</v>
       </c>
       <c r="L104" t="n">
-        <v>2.711676601982823</v>
+        <v>2.9017908179094665</v>
       </c>
     </row>
     <row r="105">
@@ -4093,37 +4093,37 @@
         <v>105.0</v>
       </c>
       <c r="B106" t="n">
-        <v>1.4703687913423735</v>
+        <v>1.4853725545193368</v>
       </c>
       <c r="C106" t="n">
-        <v>1.5809633536870726</v>
+        <v>1.606395823385868</v>
       </c>
       <c r="D106" t="n">
-        <v>1.512964901980255</v>
+        <v>1.5216212459073482</v>
       </c>
       <c r="E106" t="n">
-        <v>1.525641006942137</v>
+        <v>1.54911524993304</v>
       </c>
       <c r="F106" t="n">
-        <v>1.5504803059283307</v>
+        <v>1.5570278694192352</v>
       </c>
       <c r="G106" t="n">
-        <v>1.6116149173097571</v>
+        <v>1.5895035382519598</v>
       </c>
       <c r="H106" t="n">
-        <v>1.4703687913423735</v>
+        <v>1.7254610732170301</v>
       </c>
       <c r="I106" t="n">
-        <v>1.5809633536870726</v>
+        <v>1.5216212459073482</v>
       </c>
       <c r="J106" t="n">
-        <v>1.512964901980255</v>
+        <v>1.4562012239577775</v>
       </c>
       <c r="K106" t="n">
-        <v>1.525641006942137</v>
+        <v>1.6698010392335523</v>
       </c>
       <c r="L106" t="n">
-        <v>1.5504803059283307</v>
+        <v>1.6872589840783563</v>
       </c>
     </row>
     <row r="107">
@@ -4131,37 +4131,37 @@
         <v>106.0</v>
       </c>
       <c r="B107" t="n">
-        <v>1.4774653058215959</v>
+        <v>1.4925414824116123</v>
       </c>
       <c r="C107" t="n">
-        <v>1.5885936362370154</v>
+        <v>1.6141488519370335</v>
       </c>
       <c r="D107" t="n">
-        <v>1.5202670001998833</v>
+        <v>1.5289651226728604</v>
       </c>
       <c r="E107" t="n">
-        <v>1.5330042844814922</v>
+        <v>1.5565918223860622</v>
       </c>
       <c r="F107" t="n">
-        <v>1.5579634666194144</v>
+        <v>1.5645426309436543</v>
       </c>
       <c r="G107" t="n">
-        <v>1.6193931350351063</v>
+        <v>1.597175038722044</v>
       </c>
       <c r="H107" t="n">
-        <v>1.4774653058215959</v>
+        <v>1.73378875234183</v>
       </c>
       <c r="I107" t="n">
-        <v>1.5885936362370154</v>
+        <v>1.5289651226728604</v>
       </c>
       <c r="J107" t="n">
-        <v>1.5202670001998833</v>
+        <v>1.4632293607975448</v>
       </c>
       <c r="K107" t="n">
-        <v>1.5330042844814922</v>
+        <v>1.6778600835509463</v>
       </c>
       <c r="L107" t="n">
-        <v>1.5579634666194144</v>
+        <v>1.6954022865486016</v>
       </c>
     </row>
     <row r="108">
@@ -4283,37 +4283,37 @@
         <v>110.0</v>
       </c>
       <c r="B111" t="n">
-        <v>1.339267592505291</v>
+        <v>1.3529335883471818</v>
       </c>
       <c r="C111" t="n">
-        <v>1.4400013091943804</v>
+        <v>1.4631661659742046</v>
       </c>
       <c r="D111" t="n">
-        <v>1.3780657436085955</v>
+        <v>1.3859502695584094</v>
       </c>
       <c r="E111" t="n">
-        <v>1.389611620176844</v>
+        <v>1.4109928498937843</v>
       </c>
       <c r="F111" t="n">
-        <v>1.4122361946024127</v>
+        <v>1.4181999634506575</v>
       </c>
       <c r="G111" t="n">
-        <v>1.4679199144185828</v>
+        <v>1.447780032796998</v>
       </c>
       <c r="H111" t="n">
-        <v>1.339267592505291</v>
+        <v>1.5716153056943438</v>
       </c>
       <c r="I111" t="n">
-        <v>1.4400013091943804</v>
+        <v>1.3859502695584094</v>
       </c>
       <c r="J111" t="n">
-        <v>1.3780657436085955</v>
+        <v>1.32636323546606</v>
       </c>
       <c r="K111" t="n">
-        <v>1.389611620176844</v>
+        <v>1.5209180383484013</v>
       </c>
       <c r="L111" t="n">
-        <v>1.4122361946024127</v>
+        <v>1.5368193958173972</v>
       </c>
     </row>
     <row r="112">
@@ -4473,37 +4473,37 @@
         <v>115.0</v>
       </c>
       <c r="B116" t="n">
-        <v>2.353233581851789</v>
+        <v>2.329934239457217</v>
       </c>
       <c r="C116" t="n">
-        <v>2.2409242601995323</v>
+        <v>2.194943842325778</v>
       </c>
       <c r="D116" t="n">
-        <v>2.3345814453671703</v>
+        <v>2.273993440550898</v>
       </c>
       <c r="E116" t="n">
-        <v>2.14895731791657</v>
+        <v>2.1012052528863214</v>
       </c>
       <c r="F116" t="n">
-        <v>2.0954862001052366</v>
+        <v>2.0896155937881646</v>
       </c>
       <c r="G116" t="n">
-        <v>2.318932345437423</v>
+        <v>2.329934239457217</v>
       </c>
       <c r="H116" t="n">
-        <v>2.353233581851789</v>
+        <v>2.010866810166689</v>
       </c>
       <c r="I116" t="n">
-        <v>2.2409242601995323</v>
+        <v>2.271266829786286</v>
       </c>
       <c r="J116" t="n">
-        <v>2.3345814453671703</v>
+        <v>2.15009822379498</v>
       </c>
       <c r="K116" t="n">
-        <v>2.14895731791657</v>
+        <v>2.218270381930879</v>
       </c>
       <c r="L116" t="n">
-        <v>2.0954862001052366</v>
+        <v>2.1391716954797366</v>
       </c>
     </row>
     <row r="117">
@@ -4511,37 +4511,37 @@
         <v>116.0</v>
       </c>
       <c r="B117" t="n">
-        <v>1.2470939932715601</v>
+        <v>1.2596909022945053</v>
       </c>
       <c r="C117" t="n">
-        <v>1.187575770558319</v>
+        <v>1.1867076514010337</v>
       </c>
       <c r="D117" t="n">
-        <v>1.2372093105307398</v>
+        <v>1.2294462223134117</v>
       </c>
       <c r="E117" t="n">
-        <v>1.1388379732630831</v>
+        <v>1.136027402014119</v>
       </c>
       <c r="F117" t="n">
-        <v>1.1105010030828615</v>
+        <v>1.1297613933519846</v>
       </c>
       <c r="G117" t="n">
-        <v>1.228916084276873</v>
+        <v>1.2596909022945053</v>
       </c>
       <c r="H117" t="n">
-        <v>1.2470939932715601</v>
+        <v>1.087185459398655</v>
       </c>
       <c r="I117" t="n">
-        <v>1.187575770558319</v>
+        <v>1.2279720662123021</v>
       </c>
       <c r="J117" t="n">
-        <v>1.2372093105307398</v>
+        <v>1.1624616376233332</v>
       </c>
       <c r="K117" t="n">
-        <v>1.1388379732630831</v>
+        <v>1.19931926473541</v>
       </c>
       <c r="L117" t="n">
-        <v>1.1105010030828615</v>
+        <v>1.1565541540217437</v>
       </c>
     </row>
     <row r="118">
@@ -4853,37 +4853,37 @@
         <v>125.0</v>
       </c>
       <c r="B126" t="n">
-        <v>2.6717141974213545</v>
+        <v>2.6989765871909603</v>
       </c>
       <c r="C126" t="n">
-        <v>2.6620328390912804</v>
+        <v>2.690763026473065</v>
       </c>
       <c r="D126" t="n">
-        <v>2.6676525398361544</v>
+        <v>2.7006253219602305</v>
       </c>
       <c r="E126" t="n">
-        <v>2.6371421225660905</v>
+        <v>2.6536156374012454</v>
       </c>
       <c r="F126" t="n">
-        <v>2.3513574068763163</v>
+        <v>2.3935699261949344</v>
       </c>
       <c r="G126" t="n">
-        <v>2.6908796872460283</v>
+        <v>2.745915312014887</v>
       </c>
       <c r="H126" t="n">
-        <v>2.6717141974213545</v>
+        <v>2.5885901289362403</v>
       </c>
       <c r="I126" t="n">
-        <v>2.6620328390912804</v>
+        <v>2.438457612476851</v>
       </c>
       <c r="J126" t="n">
-        <v>2.6676525398361544</v>
+        <v>2.451982058091596</v>
       </c>
       <c r="K126" t="n">
-        <v>2.6371421225660905</v>
+        <v>2.6504338441589885</v>
       </c>
       <c r="L126" t="n">
-        <v>2.3513574068763163</v>
+        <v>2.464282972254025</v>
       </c>
     </row>
     <row r="127">
@@ -4891,37 +4891,37 @@
         <v>126.0</v>
       </c>
       <c r="B127" t="n">
-        <v>1.414789104153461</v>
+        <v>1.4006412131119264</v>
       </c>
       <c r="C127" t="n">
-        <v>1.3472675432706507</v>
+        <v>1.3194916637406593</v>
       </c>
       <c r="D127" t="n">
-        <v>1.403575240952148</v>
+        <v>1.367012371955942</v>
       </c>
       <c r="E127" t="n">
-        <v>1.291976037621706</v>
+        <v>1.263140660607426</v>
       </c>
       <c r="F127" t="n">
-        <v>1.2598286318351324</v>
+        <v>1.2561735308473272</v>
       </c>
       <c r="G127" t="n">
-        <v>1.394166835326306</v>
+        <v>1.4006412131119264</v>
       </c>
       <c r="H127" t="n">
-        <v>1.414789104153461</v>
+        <v>1.2088336574917737</v>
       </c>
       <c r="I127" t="n">
-        <v>1.3472675432706507</v>
+        <v>1.3653732684377586</v>
       </c>
       <c r="J127" t="n">
-        <v>1.403575240952148</v>
+        <v>1.2925326961964234</v>
       </c>
       <c r="K127" t="n">
-        <v>1.291976037621706</v>
+        <v>1.3335144254894216</v>
       </c>
       <c r="L127" t="n">
-        <v>1.2598286318351324</v>
+        <v>1.285964207860834</v>
       </c>
     </row>
     <row r="128">
@@ -4929,37 +4929,37 @@
         <v>127.0</v>
       </c>
       <c r="B128" t="n">
-        <v>2.8670420298078767</v>
+        <v>2.924382870404034</v>
       </c>
       <c r="C128" t="n">
-        <v>2.7878130499929243</v>
+        <v>2.8743934179860804</v>
       </c>
       <c r="D128" t="n">
-        <v>2.4475701932947</v>
+        <v>2.499074532322562</v>
       </c>
       <c r="E128" t="n">
-        <v>2.823751710176451</v>
+        <v>2.89560665598295</v>
       </c>
       <c r="F128" t="n">
-        <v>2.7449444127352747</v>
+        <v>2.826084286247796</v>
       </c>
       <c r="G128" t="n">
-        <v>2.5120518451787284</v>
+        <v>2.6244461656758267</v>
       </c>
       <c r="H128" t="n">
-        <v>2.8670420298078767</v>
+        <v>2.822695696070193</v>
       </c>
       <c r="I128" t="n">
-        <v>2.7878130499929243</v>
+        <v>2.6721092048023807</v>
       </c>
       <c r="J128" t="n">
-        <v>2.4475701932947</v>
+        <v>2.658529882441859</v>
       </c>
       <c r="K128" t="n">
-        <v>2.823751710176451</v>
+        <v>2.8621619584615727</v>
       </c>
       <c r="L128" t="n">
-        <v>2.7449444127352747</v>
+        <v>2.549137207783182</v>
       </c>
     </row>
     <row r="129">
@@ -5081,37 +5081,37 @@
         <v>131.0</v>
       </c>
       <c r="B132" t="n">
-        <v>2.8670420298078767</v>
+        <v>2.924382870404034</v>
       </c>
       <c r="C132" t="n">
-        <v>2.7878130499929243</v>
+        <v>2.8743934179860804</v>
       </c>
       <c r="D132" t="n">
-        <v>2.4475701932947</v>
+        <v>2.499074532322562</v>
       </c>
       <c r="E132" t="n">
-        <v>2.823751710176451</v>
+        <v>2.89560665598295</v>
       </c>
       <c r="F132" t="n">
-        <v>2.7449444127352747</v>
+        <v>2.826084286247796</v>
       </c>
       <c r="G132" t="n">
-        <v>2.5120518451787284</v>
+        <v>2.6244461656758267</v>
       </c>
       <c r="H132" t="n">
-        <v>2.8670420298078767</v>
+        <v>2.822695696070193</v>
       </c>
       <c r="I132" t="n">
-        <v>2.7878130499929243</v>
+        <v>2.6721092048023807</v>
       </c>
       <c r="J132" t="n">
-        <v>2.4475701932947</v>
+        <v>2.658529882441859</v>
       </c>
       <c r="K132" t="n">
-        <v>2.823751710176451</v>
+        <v>2.8621619584615727</v>
       </c>
       <c r="L132" t="n">
-        <v>2.7449444127352747</v>
+        <v>2.549137207783182</v>
       </c>
     </row>
     <row r="133">
@@ -5119,37 +5119,37 @@
         <v>132.0</v>
       </c>
       <c r="B133" t="n">
-        <v>2.9278582915029894</v>
+        <v>2.957432617679787</v>
       </c>
       <c r="C133" t="n">
-        <v>2.6061136702186776</v>
+        <v>2.6339884446271373</v>
       </c>
       <c r="D133" t="n">
-        <v>2.7269062642638446</v>
+        <v>2.761053719172705</v>
       </c>
       <c r="E133" t="n">
-        <v>2.805356453877851</v>
+        <v>2.818642326271087</v>
       </c>
       <c r="F133" t="n">
-        <v>2.728836749941409</v>
+        <v>2.7470223919949164</v>
       </c>
       <c r="G133" t="n">
-        <v>2.983863944110623</v>
+        <v>2.9700712167124745</v>
       </c>
       <c r="H133" t="n">
-        <v>2.9278582915029894</v>
+        <v>2.9610326572856476</v>
       </c>
       <c r="I133" t="n">
-        <v>2.6061136702186776</v>
+        <v>2.5822593700729017</v>
       </c>
       <c r="J133" t="n">
-        <v>2.7269062642638446</v>
+        <v>2.971885556157079</v>
       </c>
       <c r="K133" t="n">
-        <v>2.805356453877851</v>
+        <v>3.02172463090301</v>
       </c>
       <c r="L133" t="n">
-        <v>2.728836749941409</v>
+        <v>2.920154054788002</v>
       </c>
     </row>
     <row r="134">
@@ -5309,37 +5309,37 @@
         <v>137.0</v>
       </c>
       <c r="B138" t="n">
-        <v>2.3612601945644642</v>
+        <v>2.4084853984557535</v>
       </c>
       <c r="C138" t="n">
-        <v>2.2960081911588723</v>
+        <v>2.36731470653168</v>
       </c>
       <c r="D138" t="n">
-        <v>2.015788401684682</v>
+        <v>2.0582067353991667</v>
       </c>
       <c r="E138" t="n">
-        <v>2.3256068251708846</v>
+        <v>2.3847856657848268</v>
       </c>
       <c r="F138" t="n">
-        <v>2.260702114129198</v>
+        <v>2.3275279058424605</v>
       </c>
       <c r="G138" t="n">
-        <v>2.0688946890325943</v>
+        <v>2.1614612549656034</v>
       </c>
       <c r="H138" t="n">
-        <v>2.3612601945644642</v>
+        <v>2.3247371050732784</v>
       </c>
       <c r="I138" t="n">
-        <v>2.2960081911588723</v>
+        <v>2.2007159418070943</v>
       </c>
       <c r="J138" t="n">
-        <v>2.015788401684682</v>
+        <v>2.1895321806254673</v>
       </c>
       <c r="K138" t="n">
-        <v>2.3256068251708846</v>
+        <v>2.3572410284354506</v>
       </c>
       <c r="L138" t="n">
-        <v>2.260702114129198</v>
+        <v>2.0994377329114293</v>
       </c>
     </row>
     <row r="139">
@@ -5879,37 +5879,37 @@
         <v>152.0</v>
       </c>
       <c r="B153" t="n">
-        <v>2.948559985442069</v>
+        <v>2.8901726589976717</v>
       </c>
       <c r="C153" t="n">
-        <v>2.9304357811415036</v>
+        <v>2.904935173601437</v>
       </c>
       <c r="D153" t="n">
-        <v>2.8978418575659783</v>
+        <v>2.8531191630167543</v>
       </c>
       <c r="E153" t="n">
-        <v>3.148304229837619</v>
+        <v>3.124844795889901</v>
       </c>
       <c r="F153" t="n">
-        <v>2.842271228029738</v>
+        <v>2.838877302680663</v>
       </c>
       <c r="G153" t="n">
-        <v>3.1648230593443007</v>
+        <v>3.115335227490216</v>
       </c>
       <c r="H153" t="n">
-        <v>2.948559985442069</v>
+        <v>3.1115475859804542</v>
       </c>
       <c r="I153" t="n">
-        <v>2.9304357811415036</v>
+        <v>3.2191797338462687</v>
       </c>
       <c r="J153" t="n">
-        <v>2.8978418575659783</v>
+        <v>3.1479063837517804</v>
       </c>
       <c r="K153" t="n">
-        <v>3.148304229837619</v>
+        <v>2.7168236602561566</v>
       </c>
       <c r="L153" t="n">
-        <v>2.842271228029738</v>
+        <v>3.1791899245908555</v>
       </c>
     </row>
     <row r="154">
@@ -5917,37 +5917,37 @@
         <v>153.0</v>
       </c>
       <c r="B154" t="n">
-        <v>2.2327010550886612</v>
+        <v>2.1884891530076978</v>
       </c>
       <c r="C154" t="n">
-        <v>2.2189770914371474</v>
+        <v>2.1996675865801274</v>
       </c>
       <c r="D154" t="n">
-        <v>2.1942964039436403</v>
+        <v>2.160431599496907</v>
       </c>
       <c r="E154" t="n">
-        <v>2.383950881245062</v>
+        <v>2.366186988638007</v>
       </c>
       <c r="F154" t="n">
-        <v>2.1522173538954514</v>
+        <v>2.1496474144181525</v>
       </c>
       <c r="G154" t="n">
-        <v>2.396459227098798</v>
+        <v>2.358986177562688</v>
       </c>
       <c r="H154" t="n">
-        <v>2.2327010550886612</v>
+        <v>2.3561181093406076</v>
       </c>
       <c r="I154" t="n">
-        <v>2.2189770914371474</v>
+        <v>2.437619049219039</v>
       </c>
       <c r="J154" t="n">
-        <v>2.1942964039436403</v>
+        <v>2.3836496252489145</v>
       </c>
       <c r="K154" t="n">
-        <v>2.383950881245062</v>
+        <v>2.057226267294109</v>
       </c>
       <c r="L154" t="n">
-        <v>2.1522173538954514</v>
+        <v>2.4073380680763172</v>
       </c>
     </row>
     <row r="155">
@@ -5993,37 +5993,37 @@
         <v>155.0</v>
       </c>
       <c r="B156" t="n">
-        <v>3.1195279814554815</v>
+        <v>3.0577551501395313</v>
       </c>
       <c r="C156" t="n">
-        <v>3.1003528713215927</v>
+        <v>3.0733736478504357</v>
       </c>
       <c r="D156" t="n">
-        <v>3.0658690361202443</v>
+        <v>3.0185531606619835</v>
       </c>
       <c r="E156" t="n">
-        <v>3.330854107633369</v>
+        <v>3.3060344122599203</v>
       </c>
       <c r="F156" t="n">
-        <v>3.007076223818206</v>
+        <v>3.003485506605165</v>
       </c>
       <c r="G156" t="n">
-        <v>3.34833075763249</v>
+        <v>3.295973445258791</v>
       </c>
       <c r="H156" t="n">
-        <v>3.1195279814554815</v>
+        <v>3.2919661828216142</v>
       </c>
       <c r="I156" t="n">
-        <v>3.1003528713215927</v>
+        <v>3.4058392254693195</v>
       </c>
       <c r="J156" t="n">
-        <v>3.0658690361202443</v>
+        <v>3.3304331930163307</v>
       </c>
       <c r="K156" t="n">
-        <v>3.330854107633369</v>
+        <v>2.8743547598468537</v>
       </c>
       <c r="L156" t="n">
-        <v>3.007076223818206</v>
+        <v>3.3635306648291246</v>
       </c>
     </row>
     <row r="157">
@@ -6031,37 +6031,37 @@
         <v>156.0</v>
       </c>
       <c r="B157" t="n">
-        <v>2.092931185466386</v>
+        <v>2.030764912630751</v>
       </c>
       <c r="C157" t="n">
-        <v>2.080066359049524</v>
+        <v>2.041137717378659</v>
       </c>
       <c r="D157" t="n">
-        <v>2.0569307133632457</v>
+        <v>2.0047294647850684</v>
       </c>
       <c r="E157" t="n">
-        <v>2.234712583937813</v>
+        <v>2.195656079284474</v>
       </c>
       <c r="F157" t="n">
-        <v>2.017485864309256</v>
+        <v>1.99472249507304</v>
       </c>
       <c r="G157" t="n">
-        <v>2.2464378917465844</v>
+        <v>2.188974230094523</v>
       </c>
       <c r="H157" t="n">
-        <v>2.092931185466386</v>
+        <v>2.1863128633226445</v>
       </c>
       <c r="I157" t="n">
-        <v>2.080066359049524</v>
+        <v>2.261940036902227</v>
       </c>
       <c r="J157" t="n">
-        <v>2.0569307133632457</v>
+        <v>2.2118601850542996</v>
       </c>
       <c r="K157" t="n">
-        <v>2.234712583937813</v>
+        <v>1.9089621327213917</v>
       </c>
       <c r="L157" t="n">
-        <v>2.017485864309256</v>
+        <v>2.2338414036784067</v>
       </c>
     </row>
     <row r="158">
@@ -6110,34 +6110,34 @@
         <v>2.8976277175961958</v>
       </c>
       <c r="C159" t="n">
-        <v>2.985161849852386</v>
+        <v>2.966854615043341</v>
       </c>
       <c r="D159" t="n">
-        <v>2.7969307355659274</v>
+        <v>2.7943046294130602</v>
       </c>
       <c r="E159" t="n">
-        <v>3.0139365301296452</v>
+        <v>3.0119984774087905</v>
       </c>
       <c r="F159" t="n">
-        <v>3.042855878285698</v>
+        <v>3.021192610126168</v>
       </c>
       <c r="G159" t="n">
-        <v>3.0306517332936096</v>
+        <v>3.0083364732816884</v>
       </c>
       <c r="H159" t="n">
-        <v>2.8976277175961958</v>
+        <v>2.808577466286891</v>
       </c>
       <c r="I159" t="n">
-        <v>2.985161849852386</v>
+        <v>3.043489237119523</v>
       </c>
       <c r="J159" t="n">
-        <v>2.7969307355659274</v>
+        <v>3.0737350920579534</v>
       </c>
       <c r="K159" t="n">
-        <v>3.0139365301296452</v>
+        <v>2.9704162651428927</v>
       </c>
       <c r="L159" t="n">
-        <v>3.042855878285698</v>
+        <v>3.112398425469493</v>
       </c>
     </row>
     <row r="160">
@@ -6338,34 +6338,34 @@
         <v>3.382414728426242</v>
       </c>
       <c r="C165" t="n">
-        <v>3.4845937407215017</v>
+        <v>3.463223617748547</v>
       </c>
       <c r="D165" t="n">
-        <v>3.2648706584758735</v>
+        <v>3.261805192171859</v>
       </c>
       <c r="E165" t="n">
-        <v>3.5181825629792827</v>
+        <v>3.515920264745566</v>
       </c>
       <c r="F165" t="n">
-        <v>3.551940256745639</v>
+        <v>3.5266526199510033</v>
       </c>
       <c r="G165" t="n">
-        <v>3.5376942997793894</v>
+        <v>3.511645589769257</v>
       </c>
       <c r="H165" t="n">
-        <v>3.382414728426242</v>
+        <v>3.278465943090725</v>
       </c>
       <c r="I165" t="n">
-        <v>3.4845937407215017</v>
+        <v>3.5526795795492205</v>
       </c>
       <c r="J165" t="n">
-        <v>3.2648706584758735</v>
+        <v>3.587985711043041</v>
       </c>
       <c r="K165" t="n">
-        <v>3.5181825629792827</v>
+        <v>3.467381148987315</v>
       </c>
       <c r="L165" t="n">
-        <v>3.551940256745639</v>
+        <v>3.633117605519028</v>
       </c>
     </row>
     <row r="166">
@@ -6411,37 +6411,37 @@
         <v>166.0</v>
       </c>
       <c r="B167" t="n">
-        <v>1.717373925419588</v>
+        <v>1.7347211367874629</v>
       </c>
       <c r="C167" t="n">
-        <v>1.7456688985783129</v>
+        <v>1.7530933230585624</v>
       </c>
       <c r="D167" t="n">
-        <v>1.9213382255820568</v>
+        <v>1.9534468457469594</v>
       </c>
       <c r="E167" t="n">
-        <v>1.8876144154242762</v>
+        <v>1.9212275024084857</v>
       </c>
       <c r="F167" t="n">
-        <v>1.89449514878062</v>
+        <v>1.9118841470307315</v>
       </c>
       <c r="G167" t="n">
-        <v>1.7648863932239558</v>
+        <v>1.7849315663962473</v>
       </c>
       <c r="H167" t="n">
-        <v>1.717373925419588</v>
+        <v>1.9342247370886498</v>
       </c>
       <c r="I167" t="n">
-        <v>1.7456688985783129</v>
+        <v>1.9142114557274643</v>
       </c>
       <c r="J167" t="n">
-        <v>1.9213382255820568</v>
+        <v>1.9780185034978128</v>
       </c>
       <c r="K167" t="n">
-        <v>1.8876144154242762</v>
+        <v>1.9200545908767963</v>
       </c>
       <c r="L167" t="n">
-        <v>1.89449514878062</v>
+        <v>1.7443424406605292</v>
       </c>
     </row>
     <row r="168">
@@ -6449,37 +6449,37 @@
         <v>167.0</v>
       </c>
       <c r="B168" t="n">
-        <v>1.721137089396347</v>
+        <v>1.687055166834043</v>
       </c>
       <c r="C168" t="n">
-        <v>1.6083669841830164</v>
+        <v>1.5588651731563152</v>
       </c>
       <c r="D168" t="n">
-        <v>1.7677048798659696</v>
+        <v>1.7285571395964912</v>
       </c>
       <c r="E168" t="n">
-        <v>1.546169881763269</v>
+        <v>1.4918438995518606</v>
       </c>
       <c r="F168" t="n">
-        <v>1.5888724504425285</v>
+        <v>1.5666855675276836</v>
       </c>
       <c r="G168" t="n">
-        <v>1.6810504463556755</v>
+        <v>1.6457147336206892</v>
       </c>
       <c r="H168" t="n">
-        <v>1.721137089396347</v>
+        <v>1.5502669098919084</v>
       </c>
       <c r="I168" t="n">
-        <v>1.6083669841830164</v>
+        <v>1.6284089848602128</v>
       </c>
       <c r="J168" t="n">
-        <v>1.7677048798659696</v>
+        <v>1.7158937158826093</v>
       </c>
       <c r="K168" t="n">
-        <v>1.546169881763269</v>
+        <v>1.7676942812868208</v>
       </c>
       <c r="L168" t="n">
-        <v>1.5888724504425285</v>
+        <v>1.7169419108329378</v>
       </c>
     </row>
     <row r="169">
@@ -6563,37 +6563,37 @@
         <v>170.0</v>
       </c>
       <c r="B171" t="n">
-        <v>1.8618821690427905</v>
+        <v>1.8434476921215748</v>
       </c>
       <c r="C171" t="n">
-        <v>1.709101489147243</v>
+        <v>1.7054191622529402</v>
       </c>
       <c r="D171" t="n">
-        <v>1.801155999131505</v>
+        <v>1.781501014062997</v>
       </c>
       <c r="E171" t="n">
-        <v>1.73498085731388</v>
+        <v>1.7451025817439982</v>
       </c>
       <c r="F171" t="n">
-        <v>1.8604717398031623</v>
+        <v>1.8714977180544516</v>
       </c>
       <c r="G171" t="n">
-        <v>1.9377405489829527</v>
+        <v>1.9338809745858558</v>
       </c>
       <c r="H171" t="n">
-        <v>1.8618821690427905</v>
+        <v>1.877210469415091</v>
       </c>
       <c r="I171" t="n">
-        <v>1.709101489147243</v>
+        <v>1.8910644228122637</v>
       </c>
       <c r="J171" t="n">
-        <v>1.801155999131505</v>
+        <v>1.713974777354856</v>
       </c>
       <c r="K171" t="n">
-        <v>1.73498085731388</v>
+        <v>1.7054191622529402</v>
       </c>
       <c r="L171" t="n">
-        <v>1.8604717398031623</v>
+        <v>1.869222340952245</v>
       </c>
     </row>
     <row r="172">
@@ -6715,37 +6715,37 @@
         <v>174.0</v>
       </c>
       <c r="B175" t="n">
-        <v>0.9475265485119708</v>
+        <v>0.9570975237494656</v>
       </c>
       <c r="C175" t="n">
-        <v>0.8697752532325468</v>
+        <v>0.8854346473311978</v>
       </c>
       <c r="D175" t="n">
-        <v>0.9166225207828833</v>
+        <v>0.9249354979823357</v>
       </c>
       <c r="E175" t="n">
-        <v>0.8829454681926111</v>
+        <v>0.906037837045299</v>
       </c>
       <c r="F175" t="n">
-        <v>0.9468087699266416</v>
+        <v>0.9716607850105257</v>
       </c>
       <c r="G175" t="n">
-        <v>0.9861314775002347</v>
+        <v>1.0040494774615274</v>
       </c>
       <c r="H175" t="n">
-        <v>0.9475265485119708</v>
+        <v>0.974626781932723</v>
       </c>
       <c r="I175" t="n">
-        <v>0.8697752532325468</v>
+        <v>0.9818196003388229</v>
       </c>
       <c r="J175" t="n">
-        <v>0.9166225207828833</v>
+        <v>0.8898766274661335</v>
       </c>
       <c r="K175" t="n">
-        <v>0.8829454681926111</v>
+        <v>0.8854346473311978</v>
       </c>
       <c r="L175" t="n">
-        <v>0.9468087699266416</v>
+        <v>0.9704794345445344</v>
       </c>
     </row>
     <row r="176">
@@ -6753,37 +6753,37 @@
         <v>175.0</v>
       </c>
       <c r="B176" t="n">
-        <v>1.2543745688752683</v>
+        <v>1.2670450190659277</v>
       </c>
       <c r="C176" t="n">
-        <v>1.151444210196892</v>
+        <v>1.1721747593853984</v>
       </c>
       <c r="D176" t="n">
-        <v>1.213462547444247</v>
+        <v>1.2244676081541646</v>
       </c>
       <c r="E176" t="n">
-        <v>1.1688794817874024</v>
+        <v>1.1994501082984896</v>
       </c>
       <c r="F176" t="n">
-        <v>1.2534243440979953</v>
+        <v>1.2863244625753982</v>
       </c>
       <c r="G176" t="n">
-        <v>1.3054813597426718</v>
+        <v>1.329201944154634</v>
       </c>
       <c r="H176" t="n">
-        <v>1.2543745688752683</v>
+        <v>1.2902509711427934</v>
       </c>
       <c r="I176" t="n">
-        <v>1.151444210196892</v>
+        <v>1.2997731196264628</v>
       </c>
       <c r="J176" t="n">
-        <v>1.213462547444247</v>
+        <v>1.1780552351625286</v>
       </c>
       <c r="K176" t="n">
-        <v>1.1688794817874024</v>
+        <v>1.1721747593853984</v>
       </c>
       <c r="L176" t="n">
-        <v>1.2534243440979953</v>
+        <v>1.2847605422991848</v>
       </c>
     </row>
     <row r="177">
@@ -6791,37 +6791,37 @@
         <v>176.0</v>
       </c>
       <c r="B177" t="n">
-        <v>4.535409045594619</v>
+        <v>4.4909442510299655</v>
       </c>
       <c r="C177" t="n">
-        <v>3.8576013706220267</v>
+        <v>3.7901281092844497</v>
       </c>
       <c r="D177" t="n">
-        <v>4.441048831204896</v>
+        <v>4.346075083298361</v>
       </c>
       <c r="E177" t="n">
-        <v>4.46627408986996</v>
+        <v>4.435156125226625</v>
       </c>
       <c r="F177" t="n">
-        <v>4.075539835969706</v>
+        <v>3.960400088198995</v>
       </c>
       <c r="G177" t="n">
-        <v>3.869213076634547</v>
+        <v>3.866053797388253</v>
       </c>
       <c r="H177" t="n">
-        <v>4.535409045594619</v>
+        <v>4.286075246647476</v>
       </c>
       <c r="I177" t="n">
-        <v>3.8576013706220267</v>
+        <v>3.9802683174028126</v>
       </c>
       <c r="J177" t="n">
-        <v>4.441048831204896</v>
+        <v>4.280936067836735</v>
       </c>
       <c r="K177" t="n">
-        <v>4.46627408986996</v>
+        <v>4.031960114231206</v>
       </c>
       <c r="L177" t="n">
-        <v>4.075539835969706</v>
+        <v>4.181047141482455</v>
       </c>
     </row>
     <row r="178">
@@ -6829,37 +6829,37 @@
         <v>177.0</v>
       </c>
       <c r="B178" t="n">
-        <v>2.988731617523066</v>
+        <v>3.0192288789263633</v>
       </c>
       <c r="C178" t="n">
-        <v>3.3174904583874185</v>
+        <v>3.3253938120445836</v>
       </c>
       <c r="D178" t="n">
-        <v>2.969455897332995</v>
+        <v>3.0025756588765846</v>
       </c>
       <c r="E178" t="n">
-        <v>3.019134515281366</v>
+        <v>3.0343755131171966</v>
       </c>
       <c r="F178" t="n">
-        <v>3.3027974653580507</v>
+        <v>3.347890327280247</v>
       </c>
       <c r="G178" t="n">
-        <v>3.260997710901042</v>
+        <v>3.2635909294527568</v>
       </c>
       <c r="H178" t="n">
-        <v>2.988731617523066</v>
+        <v>2.9473035583800455</v>
       </c>
       <c r="I178" t="n">
-        <v>3.3174904583874185</v>
+        <v>3.2675088056101664</v>
       </c>
       <c r="J178" t="n">
-        <v>2.969455897332995</v>
+        <v>3.153922172652267</v>
       </c>
       <c r="K178" t="n">
-        <v>3.019134515281366</v>
+        <v>3.0192288789263633</v>
       </c>
       <c r="L178" t="n">
-        <v>3.3027974653580507</v>
+        <v>3.323363655415727</v>
       </c>
     </row>
     <row r="179">
@@ -6867,37 +6867,37 @@
         <v>178.0</v>
       </c>
       <c r="B179" t="n">
-        <v>3.0188327139828117</v>
+        <v>3.049637129431616</v>
       </c>
       <c r="C179" t="n">
-        <v>3.350902658970007</v>
+        <v>3.3588856114808774</v>
       </c>
       <c r="D179" t="n">
-        <v>2.999362857822361</v>
+        <v>3.0328161859970595</v>
       </c>
       <c r="E179" t="n">
-        <v>3.049541815400454</v>
+        <v>3.0649363133844103</v>
       </c>
       <c r="F179" t="n">
-        <v>3.3360616850386853</v>
+        <v>3.381608701016872</v>
       </c>
       <c r="G179" t="n">
-        <v>3.293840943152251</v>
+        <v>3.2964602793792053</v>
       </c>
       <c r="H179" t="n">
-        <v>3.0188327139828117</v>
+        <v>2.976987410950412</v>
       </c>
       <c r="I179" t="n">
-        <v>3.350902658970007</v>
+        <v>3.300417614539036</v>
       </c>
       <c r="J179" t="n">
-        <v>2.999362857822361</v>
+        <v>3.185686990539868</v>
       </c>
       <c r="K179" t="n">
-        <v>3.049541815400454</v>
+        <v>3.049637129431616</v>
       </c>
       <c r="L179" t="n">
-        <v>3.3360616850386853</v>
+        <v>3.356835008071134</v>
       </c>
     </row>
     <row r="180">
@@ -7057,37 +7057,37 @@
         <v>183.0</v>
       </c>
       <c r="B184" t="n">
-        <v>3.2352656688469046</v>
+        <v>3.2682785838351385</v>
       </c>
       <c r="C184" t="n">
-        <v>3.5911431203190536</v>
+        <v>3.599698404642967</v>
       </c>
       <c r="D184" t="n">
-        <v>3.214399935902667</v>
+        <v>3.2502516754346273</v>
       </c>
       <c r="E184" t="n">
-        <v>3.268176436335759</v>
+        <v>3.2846746313453523</v>
       </c>
       <c r="F184" t="n">
-        <v>3.5752381338552923</v>
+        <v>3.62405060909783</v>
       </c>
       <c r="G184" t="n">
-        <v>3.529990407439139</v>
+        <v>3.532797535018942</v>
       </c>
       <c r="H184" t="n">
-        <v>3.2352656688469046</v>
+        <v>3.1904202980927874</v>
       </c>
       <c r="I184" t="n">
-        <v>3.5911431203190536</v>
+        <v>3.537038588364965</v>
       </c>
       <c r="J184" t="n">
-        <v>3.214399935902667</v>
+        <v>3.414082438038841</v>
       </c>
       <c r="K184" t="n">
-        <v>3.268176436335759</v>
+        <v>3.2682785838351385</v>
       </c>
       <c r="L184" t="n">
-        <v>3.5752381338552923</v>
+        <v>3.59750078475458</v>
       </c>
     </row>
     <row r="185">
@@ -7171,37 +7171,37 @@
         <v>186.0</v>
       </c>
       <c r="B187" t="n">
-        <v>3.522141452766325</v>
+        <v>3.486920038238661</v>
       </c>
       <c r="C187" t="n">
-        <v>3.9095750833347966</v>
+        <v>3.840511197805057</v>
       </c>
       <c r="D187" t="n">
-        <v>3.499425524472422</v>
+        <v>3.4676871648721947</v>
       </c>
       <c r="E187" t="n">
-        <v>3.5579704666031273</v>
+        <v>3.5044129493062943</v>
       </c>
       <c r="F187" t="n">
-        <v>3.892259778236632</v>
+        <v>3.866492517178788</v>
       </c>
       <c r="G187" t="n">
-        <v>3.8429998691081915</v>
+        <v>3.7691347906586787</v>
       </c>
       <c r="H187" t="n">
-        <v>3.522141452766325</v>
+        <v>3.403853185235163</v>
       </c>
       <c r="I187" t="n">
-        <v>3.9095750833347966</v>
+        <v>3.773659562190894</v>
       </c>
       <c r="J187" t="n">
-        <v>3.499425524472422</v>
+        <v>3.642477885537814</v>
       </c>
       <c r="K187" t="n">
-        <v>3.5579704666031273</v>
+        <v>3.486920038238661</v>
       </c>
       <c r="L187" t="n">
-        <v>3.892259778236632</v>
+        <v>3.838166561438026</v>
       </c>
     </row>
     <row r="188">
@@ -7665,37 +7665,37 @@
         <v>199.0</v>
       </c>
       <c r="B200" t="n">
-        <v>2.329669892927196</v>
+        <v>2.283537815839529</v>
       </c>
       <c r="C200" t="n">
-        <v>2.177028293047508</v>
+        <v>2.110024403871705</v>
       </c>
       <c r="D200" t="n">
-        <v>2.392702396326023</v>
+        <v>2.339713408729501</v>
       </c>
       <c r="E200" t="n">
-        <v>2.092840509385595</v>
+        <v>2.019306793831301</v>
       </c>
       <c r="F200" t="n">
-        <v>2.150641186168185</v>
+        <v>2.1206098112922054</v>
       </c>
       <c r="G200" t="n">
-        <v>2.275410039963871</v>
+        <v>2.2275808771325165</v>
       </c>
       <c r="H200" t="n">
-        <v>2.329669892927196</v>
+        <v>2.0983861008091784</v>
       </c>
       <c r="I200" t="n">
-        <v>2.177028293047508</v>
+        <v>2.204156431682919</v>
       </c>
       <c r="J200" t="n">
-        <v>2.392702396326023</v>
+        <v>2.322572649199441</v>
       </c>
       <c r="K200" t="n">
-        <v>2.092840509385595</v>
+        <v>2.3926880504665897</v>
       </c>
       <c r="L200" t="n">
-        <v>2.150641186168185</v>
+        <v>2.3239914485691964</v>
       </c>
     </row>
     <row r="201">
@@ -8159,37 +8159,37 @@
         <v>212.0</v>
       </c>
       <c r="B213" t="n">
-        <v>0.724961314174311</v>
+        <v>0.7325129945302934</v>
       </c>
       <c r="C213" t="n">
-        <v>0.6673568419317119</v>
+        <v>0.6795702146178146</v>
       </c>
       <c r="D213" t="n">
-        <v>0.7388540873032228</v>
+        <v>0.7401714946486558</v>
       </c>
       <c r="E213" t="n">
-        <v>0.7027540798934245</v>
+        <v>0.7046982169381405</v>
       </c>
       <c r="F213" t="n">
-        <v>0.7311356606717957</v>
+        <v>0.7215340826702756</v>
       </c>
       <c r="G213" t="n">
-        <v>0.7328815355081121</v>
+        <v>0.7224002700204551</v>
       </c>
       <c r="H213" t="n">
-        <v>0.724961314174311</v>
+        <v>0.7475272360075089</v>
       </c>
       <c r="I213" t="n">
-        <v>0.6673568419317119</v>
+        <v>0.7316224012483761</v>
       </c>
       <c r="J213" t="n">
-        <v>0.7388540873032228</v>
+        <v>0.7401714946486558</v>
       </c>
       <c r="K213" t="n">
-        <v>0.7027540798934245</v>
+        <v>0.6516073905448603</v>
       </c>
       <c r="L213" t="n">
-        <v>0.7311356606717957</v>
+        <v>0.6830413446855452</v>
       </c>
     </row>
     <row r="214">
@@ -8197,37 +8197,37 @@
         <v>213.0</v>
       </c>
       <c r="B214" t="n">
-        <v>0.4732531159944477</v>
+        <v>0.47808222942296247</v>
       </c>
       <c r="C214" t="n">
-        <v>0.4356490460240728</v>
+        <v>0.4435285731173332</v>
       </c>
       <c r="D214" t="n">
-        <v>0.4823222870584923</v>
+        <v>0.4830806292301502</v>
       </c>
       <c r="E214" t="n">
-        <v>0.45875628338343016</v>
+        <v>0.4599286253484202</v>
       </c>
       <c r="F214" t="n">
-        <v>0.4772837155064948</v>
+        <v>0.47091672833578907</v>
       </c>
       <c r="G214" t="n">
-        <v>0.47842341867446875</v>
+        <v>0.47148205452462655</v>
       </c>
       <c r="H214" t="n">
-        <v>0.4732531159944477</v>
+        <v>0.487881430382018</v>
       </c>
       <c r="I214" t="n">
-        <v>0.4356490460240728</v>
+        <v>0.4775009744487744</v>
       </c>
       <c r="J214" t="n">
-        <v>0.4823222870584923</v>
+        <v>0.4830806292301502</v>
       </c>
       <c r="K214" t="n">
-        <v>0.45875628338343016</v>
+        <v>0.42527834496631944</v>
       </c>
       <c r="L214" t="n">
-        <v>0.4772837155064948</v>
+        <v>0.4457940422814151</v>
       </c>
     </row>
     <row r="215">
@@ -8463,37 +8463,37 @@
         <v>220.0</v>
       </c>
       <c r="B221" t="n">
-        <v>1.7456541813750006</v>
+        <v>1.6932845559337506</v>
       </c>
       <c r="C221" t="n">
-        <v>1.8028919096612799</v>
+        <v>1.7595963068814724</v>
       </c>
       <c r="D221" t="n">
-        <v>1.7521620974013432</v>
+        <v>1.7272052550124646</v>
       </c>
       <c r="E221" t="n">
-        <v>1.9873015030238086</v>
+        <v>1.9392997600355415</v>
       </c>
       <c r="F221" t="n">
-        <v>1.9622250452074785</v>
+        <v>1.9487770951921444</v>
       </c>
       <c r="G221" t="n">
-        <v>1.8397408648186815</v>
+        <v>1.8013258641163767</v>
       </c>
       <c r="H221" t="n">
-        <v>1.7456541813750006</v>
+        <v>1.8482897477650622</v>
       </c>
       <c r="I221" t="n">
-        <v>1.8028919096612799</v>
+        <v>1.947587364603353</v>
       </c>
       <c r="J221" t="n">
-        <v>1.7521620974013432</v>
+        <v>1.7693555761976827</v>
       </c>
       <c r="K221" t="n">
-        <v>1.9873015030238086</v>
+        <v>1.9619607047406171</v>
       </c>
       <c r="L221" t="n">
-        <v>1.9622250452074785</v>
+        <v>1.941660441358263</v>
       </c>
     </row>
     <row r="222">
@@ -8501,37 +8501,37 @@
         <v>221.0</v>
       </c>
       <c r="B222" t="n">
-        <v>2.113506821437296</v>
+        <v>2.1355225174939347</v>
       </c>
       <c r="C222" t="n">
-        <v>2.1828059589568127</v>
+        <v>2.219153019424084</v>
       </c>
       <c r="D222" t="n">
-        <v>2.121386116810783</v>
+        <v>2.1783023423248435</v>
       </c>
       <c r="E222" t="n">
-        <v>2.4060752282477025</v>
+        <v>2.445789924211956</v>
       </c>
       <c r="F222" t="n">
-        <v>2.3757145387034813</v>
+        <v>2.4577424708538294</v>
       </c>
       <c r="G222" t="n">
-        <v>2.227419903069536</v>
+        <v>2.2717811549656903</v>
       </c>
       <c r="H222" t="n">
-        <v>2.113506821437296</v>
+        <v>2.3310106747113704</v>
       </c>
       <c r="I222" t="n">
-        <v>2.1828059589568127</v>
+        <v>2.4562420163358856</v>
       </c>
       <c r="J222" t="n">
-        <v>2.121386116810783</v>
+        <v>2.231461133441909</v>
       </c>
       <c r="K222" t="n">
-        <v>2.4060752282477025</v>
+        <v>2.474369265773769</v>
       </c>
       <c r="L222" t="n">
-        <v>2.3757145387034813</v>
+        <v>2.448767148626856</v>
       </c>
     </row>
     <row r="223">
@@ -8577,37 +8577,37 @@
         <v>223.0</v>
       </c>
       <c r="B224" t="n">
-        <v>2.113506821437296</v>
+        <v>2.1355225174939347</v>
       </c>
       <c r="C224" t="n">
-        <v>2.1828059589568127</v>
+        <v>2.219153019424084</v>
       </c>
       <c r="D224" t="n">
-        <v>2.121386116810783</v>
+        <v>2.1783023423248435</v>
       </c>
       <c r="E224" t="n">
-        <v>2.4060752282477025</v>
+        <v>2.445789924211956</v>
       </c>
       <c r="F224" t="n">
-        <v>2.3757145387034813</v>
+        <v>2.4577424708538294</v>
       </c>
       <c r="G224" t="n">
-        <v>2.227419903069536</v>
+        <v>2.2717811549656903</v>
       </c>
       <c r="H224" t="n">
-        <v>2.113506821437296</v>
+        <v>2.3310106747113704</v>
       </c>
       <c r="I224" t="n">
-        <v>2.1828059589568127</v>
+        <v>2.4562420163358856</v>
       </c>
       <c r="J224" t="n">
-        <v>2.121386116810783</v>
+        <v>2.231461133441909</v>
       </c>
       <c r="K224" t="n">
-        <v>2.4060752282477025</v>
+        <v>2.474369265773769</v>
       </c>
       <c r="L224" t="n">
-        <v>2.3757145387034813</v>
+        <v>2.448767148626856</v>
       </c>
     </row>
     <row r="225">
@@ -8805,37 +8805,37 @@
         <v>229.0</v>
       </c>
       <c r="B230" t="n">
-        <v>3.5592702743556273</v>
+        <v>3.5243754677442976</v>
       </c>
       <c r="C230" t="n">
-        <v>3.0273445571805944</v>
+        <v>2.974393308246182</v>
       </c>
       <c r="D230" t="n">
-        <v>3.485218848611484</v>
+        <v>3.4106859378266847</v>
       </c>
       <c r="E230" t="n">
-        <v>3.5050149711721827</v>
+        <v>3.480594407240677</v>
       </c>
       <c r="F230" t="n">
-        <v>3.198376958790355</v>
+        <v>3.1080182992919</v>
       </c>
       <c r="G230" t="n">
-        <v>3.0364571200452524</v>
+        <v>3.0339778004079987</v>
       </c>
       <c r="H230" t="n">
-        <v>3.5592702743556273</v>
+        <v>3.3635996369195773</v>
       </c>
       <c r="I230" t="n">
-        <v>3.0273445571805944</v>
+        <v>3.1236103653874427</v>
       </c>
       <c r="J230" t="n">
-        <v>3.485218848611484</v>
+        <v>3.3595665439412405</v>
       </c>
       <c r="K230" t="n">
-        <v>3.5050149711721827</v>
+        <v>3.1641767341602964</v>
       </c>
       <c r="L230" t="n">
-        <v>3.198376958790355</v>
+        <v>3.281176329798279</v>
       </c>
     </row>
     <row r="231">
@@ -9109,37 +9109,37 @@
         <v>237.0</v>
       </c>
       <c r="B238" t="n">
-        <v>3.3851988479624775</v>
+        <v>3.3520106239628453</v>
       </c>
       <c r="C238" t="n">
-        <v>2.879287752096477</v>
+        <v>2.8289261630419906</v>
       </c>
       <c r="D238" t="n">
-        <v>3.314769017745542</v>
+        <v>3.2438812502326715</v>
       </c>
       <c r="E238" t="n">
-        <v>3.333596981378827</v>
+        <v>3.310370741583792</v>
       </c>
       <c r="F238" t="n">
-        <v>3.041955558771663</v>
+        <v>2.9560160244121994</v>
       </c>
       <c r="G238" t="n">
-        <v>2.887954651470116</v>
+        <v>2.8855965866610926</v>
       </c>
       <c r="H238" t="n">
-        <v>3.3851988479624775</v>
+        <v>3.199097775166448</v>
       </c>
       <c r="I238" t="n">
-        <v>2.879287752096477</v>
+        <v>2.9708455372379823</v>
       </c>
       <c r="J238" t="n">
-        <v>3.314769017745542</v>
+        <v>3.1952619266212117</v>
       </c>
       <c r="K238" t="n">
-        <v>3.333596981378827</v>
+        <v>3.0094279471845686</v>
       </c>
       <c r="L238" t="n">
-        <v>3.041955558771663</v>
+        <v>3.1207055029294684</v>
       </c>
     </row>
     <row r="239">
@@ -9261,37 +9261,37 @@
         <v>241.0</v>
       </c>
       <c r="B242" t="n">
-        <v>1.61982454634242</v>
+        <v>1.6525482745513576</v>
       </c>
       <c r="C242" t="n">
-        <v>1.616899581865835</v>
+        <v>1.6689711140939538</v>
       </c>
       <c r="D242" t="n">
-        <v>1.6443343839462943</v>
+        <v>1.6899644608547644</v>
       </c>
       <c r="E242" t="n">
-        <v>1.5885537682644162</v>
+        <v>1.6109373462331917</v>
       </c>
       <c r="F242" t="n">
-        <v>1.5407850718764171</v>
+        <v>1.5733486508195365</v>
       </c>
       <c r="G242" t="n">
-        <v>1.4420525590806772</v>
+        <v>1.4820979002371757</v>
       </c>
       <c r="H242" t="n">
-        <v>1.61982454634242</v>
+        <v>1.4903180769361366</v>
       </c>
       <c r="I242" t="n">
-        <v>1.616899581865835</v>
+        <v>1.6414437956700805</v>
       </c>
       <c r="J242" t="n">
-        <v>1.6443343839462943</v>
+        <v>1.6354494788698801</v>
       </c>
       <c r="K242" t="n">
-        <v>1.5885537682644162</v>
+        <v>1.5568038779573443</v>
       </c>
       <c r="L242" t="n">
-        <v>1.5407850718764171</v>
+        <v>1.4262438918738305</v>
       </c>
     </row>
     <row r="243">
@@ -9565,37 +9565,37 @@
         <v>249.0</v>
       </c>
       <c r="B250" t="n">
-        <v>1.0070659263009907</v>
+        <v>0.9768539485119611</v>
       </c>
       <c r="C250" t="n">
-        <v>1.0052474379550396</v>
+        <v>0.9865618135710431</v>
       </c>
       <c r="D250" t="n">
-        <v>1.0223040101822156</v>
+        <v>0.9989713957851215</v>
       </c>
       <c r="E250" t="n">
-        <v>0.9876244780513108</v>
+        <v>0.9522569063227494</v>
       </c>
       <c r="F250" t="n">
-        <v>0.9579260600437584</v>
+        <v>0.9300374855047941</v>
       </c>
       <c r="G250" t="n">
-        <v>0.8965427764781522</v>
+        <v>0.8760973632198588</v>
       </c>
       <c r="H250" t="n">
-        <v>1.0070659263009907</v>
+        <v>0.8809564721424262</v>
       </c>
       <c r="I250" t="n">
-        <v>1.0052474379550396</v>
+        <v>0.9702898715597835</v>
       </c>
       <c r="J250" t="n">
-        <v>1.0223040101822156</v>
+        <v>0.9667465124185826</v>
       </c>
       <c r="K250" t="n">
-        <v>0.9876244780513108</v>
+        <v>0.9202575432504273</v>
       </c>
       <c r="L250" t="n">
-        <v>0.9579260600437584</v>
+        <v>0.8430809548945004</v>
       </c>
     </row>
     <row r="251">
@@ -9679,37 +9679,37 @@
         <v>252.0</v>
       </c>
       <c r="B253" t="n">
-        <v>2.085402908301683</v>
+        <v>2.1064675841431137</v>
       </c>
       <c r="C253" t="n">
-        <v>2.113699688823545</v>
+        <v>2.1207179805708902</v>
       </c>
       <c r="D253" t="n">
-        <v>1.8712568447534235</v>
+        <v>1.9125276950752537</v>
       </c>
       <c r="E253" t="n">
-        <v>1.8817481414211197</v>
+        <v>1.9019787284898821</v>
       </c>
       <c r="F253" t="n">
-        <v>1.8409642449715704</v>
+        <v>1.8303011856022102</v>
       </c>
       <c r="G253" t="n">
-        <v>1.901448023538343</v>
+        <v>1.9125276950752537</v>
       </c>
       <c r="H253" t="n">
-        <v>2.085402908301683</v>
+        <v>2.1207179805708902</v>
       </c>
       <c r="I253" t="n">
-        <v>2.113699688823545</v>
+        <v>2.019080970209955</v>
       </c>
       <c r="J253" t="n">
-        <v>1.8712568447534235</v>
+        <v>2.0962233651707667</v>
       </c>
       <c r="K253" t="n">
-        <v>1.8817481414211197</v>
+        <v>1.92212231626457</v>
       </c>
       <c r="L253" t="n">
-        <v>1.8409642449715704</v>
+        <v>2.0673186062642377</v>
       </c>
     </row>
     <row r="254">
@@ -9717,37 +9717,37 @@
         <v>253.0</v>
       </c>
       <c r="B254" t="n">
-        <v>1.9182611000191374</v>
+        <v>1.9378351928764754</v>
       </c>
       <c r="C254" t="n">
-        <v>1.944289937475335</v>
+        <v>1.9509447797118311</v>
       </c>
       <c r="D254" t="n">
-        <v>1.721278511286972</v>
+        <v>1.7594210814192892</v>
       </c>
       <c r="E254" t="n">
-        <v>1.730928946800554</v>
+        <v>1.7497166079911228</v>
       </c>
       <c r="F254" t="n">
-        <v>1.693413816388613</v>
+        <v>1.6837771811552968</v>
       </c>
       <c r="G254" t="n">
-        <v>1.7490499139239801</v>
+        <v>1.7594210814192892</v>
       </c>
       <c r="H254" t="n">
-        <v>1.9182611000191374</v>
+        <v>1.9509447797118311</v>
       </c>
       <c r="I254" t="n">
-        <v>1.944289937475335</v>
+        <v>1.8574442781808327</v>
       </c>
       <c r="J254" t="n">
-        <v>1.721278511286972</v>
+        <v>1.9284110706172084</v>
       </c>
       <c r="K254" t="n">
-        <v>1.730928946800554</v>
+        <v>1.7682476091773887</v>
       </c>
       <c r="L254" t="n">
-        <v>1.693413816388613</v>
+        <v>1.9018202702306612</v>
       </c>
     </row>
     <row r="255">
@@ -9945,37 +9945,37 @@
         <v>259.0</v>
       </c>
       <c r="B260" t="n">
-        <v>3.3197877722152813</v>
+        <v>3.3533209820356378</v>
       </c>
       <c r="C260" t="n">
-        <v>3.364833890447675</v>
+        <v>3.3760064264750906</v>
       </c>
       <c r="D260" t="n">
-        <v>2.9788850716361837</v>
+        <v>3.0445848286001356</v>
       </c>
       <c r="E260" t="n">
-        <v>2.995586342289184</v>
+        <v>3.027791752240544</v>
       </c>
       <c r="F260" t="n">
-        <v>2.9306617753397832</v>
+        <v>2.9136870727689326</v>
       </c>
       <c r="G260" t="n">
-        <v>3.0269469141510985</v>
+        <v>3.0445848286001356</v>
       </c>
       <c r="H260" t="n">
-        <v>3.3197877722152813</v>
+        <v>3.3760064264750906</v>
       </c>
       <c r="I260" t="n">
-        <v>3.364833890447675</v>
+        <v>3.2142087696014197</v>
       </c>
       <c r="J260" t="n">
-        <v>2.9788850716361837</v>
+        <v>3.337013038498726</v>
       </c>
       <c r="K260" t="n">
-        <v>2.995586342289184</v>
+        <v>3.0598586665604315</v>
       </c>
       <c r="L260" t="n">
-        <v>2.9306617753397832</v>
+        <v>3.290999069306139</v>
       </c>
     </row>
     <row r="261">
@@ -10135,37 +10135,37 @@
         <v>264.0</v>
       </c>
       <c r="B265" t="n">
-        <v>1.335596954753526</v>
+        <v>1.3493659955241812</v>
       </c>
       <c r="C265" t="n">
-        <v>1.4729694150378667</v>
+        <v>1.4953351475129075</v>
       </c>
       <c r="D265" t="n">
-        <v>1.4134126653831842</v>
+        <v>1.4515158022053176</v>
       </c>
       <c r="E265" t="n">
-        <v>1.458181120717334</v>
+        <v>1.4622280971805728</v>
       </c>
       <c r="F265" t="n">
-        <v>1.376232841908429</v>
+        <v>1.3775103621507905</v>
       </c>
       <c r="G265" t="n">
-        <v>1.4024140801146854</v>
+        <v>1.4524024955477495</v>
       </c>
       <c r="H265" t="n">
-        <v>1.335596954753526</v>
+        <v>1.318681577652401</v>
       </c>
       <c r="I265" t="n">
-        <v>1.4729694150378667</v>
+        <v>1.3425086875209686</v>
       </c>
       <c r="J265" t="n">
-        <v>1.4134126653831842</v>
+        <v>1.2872673990741608</v>
       </c>
       <c r="K265" t="n">
-        <v>1.458181120717334</v>
+        <v>1.3114080997648805</v>
       </c>
       <c r="L265" t="n">
-        <v>1.376232841908429</v>
+        <v>1.4622280971805728</v>
       </c>
     </row>
     <row r="266">
@@ -10173,37 +10173,37 @@
         <v>265.0</v>
       </c>
       <c r="B266" t="n">
-        <v>2.9483923057207546</v>
+        <v>2.978788102686948</v>
       </c>
       <c r="C266" t="n">
-        <v>3.2516483916819756</v>
+        <v>3.3010217848351426</v>
       </c>
       <c r="D266" t="n">
-        <v>3.1201741008709365</v>
+        <v>3.2042885450004794</v>
       </c>
       <c r="E266" t="n">
-        <v>3.2190025451680184</v>
+        <v>3.2279364336612333</v>
       </c>
       <c r="F266" t="n">
-        <v>3.038097913836463</v>
+        <v>3.0409180991023654</v>
       </c>
       <c r="G266" t="n">
-        <v>3.095894213091887</v>
+        <v>3.2062459617339147</v>
       </c>
       <c r="H266" t="n">
-        <v>2.9483923057207546</v>
+        <v>2.9110508251821696</v>
       </c>
       <c r="I266" t="n">
-        <v>3.2516483916819756</v>
+        <v>2.9636502768011743</v>
       </c>
       <c r="J266" t="n">
-        <v>3.1201741008709365</v>
+        <v>2.841702567026165</v>
       </c>
       <c r="K266" t="n">
-        <v>3.2190025451680184</v>
+        <v>2.8949942849489276</v>
       </c>
       <c r="L266" t="n">
-        <v>3.038097913836463</v>
+        <v>3.2279364336612333</v>
       </c>
     </row>
     <row r="267">
@@ -10249,37 +10249,37 @@
         <v>267.0</v>
       </c>
       <c r="B268" t="n">
-        <v>1.7083393112603604</v>
+        <v>1.6745108100472839</v>
       </c>
       <c r="C268" t="n">
-        <v>1.5964077254164533</v>
+        <v>1.547273992678665</v>
       </c>
       <c r="D268" t="n">
-        <v>1.754560839799783</v>
+        <v>1.7157041885420867</v>
       </c>
       <c r="E268" t="n">
-        <v>1.5346730990669581</v>
+        <v>1.480751066007331</v>
       </c>
       <c r="F268" t="n">
-        <v>1.5770581462639597</v>
+        <v>1.5550362373112838</v>
       </c>
       <c r="G268" t="n">
-        <v>1.668550738586664</v>
+        <v>1.633477769949545</v>
       </c>
       <c r="H268" t="n">
-        <v>1.7083393112603604</v>
+        <v>1.538739663116164</v>
       </c>
       <c r="I268" t="n">
-        <v>1.5964077254164533</v>
+        <v>1.6163007007314933</v>
       </c>
       <c r="J268" t="n">
-        <v>1.754560839799783</v>
+        <v>1.7031349256525405</v>
       </c>
       <c r="K268" t="n">
-        <v>1.5346730990669581</v>
+        <v>1.7545503200279908</v>
       </c>
       <c r="L268" t="n">
-        <v>1.5770581462639597</v>
+        <v>1.704175326588958</v>
       </c>
     </row>
     <row r="269">
@@ -10287,37 +10287,37 @@
         <v>268.0</v>
       </c>
       <c r="B269" t="n">
-        <v>2.2873069706350266</v>
+        <v>2.310646837682323</v>
       </c>
       <c r="C269" t="n">
-        <v>2.5225673048723425</v>
+        <v>2.56060360297853</v>
       </c>
       <c r="D269" t="n">
-        <v>2.420572037401356</v>
+        <v>2.485567599403414</v>
       </c>
       <c r="E269" t="n">
-        <v>2.4972412747681494</v>
+        <v>2.5039112738334777</v>
       </c>
       <c r="F269" t="n">
-        <v>2.356898884285729</v>
+        <v>2.358841094807562</v>
       </c>
       <c r="G269" t="n">
-        <v>2.4017361598095244</v>
+        <v>2.487085968159171</v>
       </c>
       <c r="H269" t="n">
-        <v>2.2873069706350266</v>
+        <v>2.258103010909803</v>
       </c>
       <c r="I269" t="n">
-        <v>2.5225673048723425</v>
+        <v>2.298904421536375</v>
       </c>
       <c r="J269" t="n">
-        <v>2.420572037401356</v>
+        <v>2.2043095459559146</v>
       </c>
       <c r="K269" t="n">
-        <v>2.4972412747681494</v>
+        <v>2.2456479477649642</v>
       </c>
       <c r="L269" t="n">
-        <v>2.356898884285729</v>
+        <v>2.5039112738334777</v>
       </c>
     </row>
     <row r="270">
@@ -10401,37 +10401,37 @@
         <v>271.0</v>
       </c>
       <c r="B272" t="n">
-        <v>1.5522960942332744</v>
+        <v>1.5682991467511433</v>
       </c>
       <c r="C272" t="n">
-        <v>1.7119570853695936</v>
+        <v>1.7379516333820806</v>
       </c>
       <c r="D272" t="n">
-        <v>1.6427373184742329</v>
+        <v>1.6870226474101233</v>
       </c>
       <c r="E272" t="n">
-        <v>1.6947694065324768</v>
+        <v>1.6994730004834666</v>
       </c>
       <c r="F272" t="n">
-        <v>1.5995251094625738</v>
+        <v>1.6010099059615948</v>
       </c>
       <c r="G272" t="n">
-        <v>1.629954224821902</v>
+        <v>1.6880532057738131</v>
       </c>
       <c r="H272" t="n">
-        <v>1.5522960942332744</v>
+        <v>1.532636215769861</v>
       </c>
       <c r="I272" t="n">
-        <v>1.7119570853695936</v>
+        <v>1.560329248053444</v>
       </c>
       <c r="J272" t="n">
-        <v>1.6427373184742329</v>
+        <v>1.4961251212087416</v>
       </c>
       <c r="K272" t="n">
-        <v>1.6947694065324768</v>
+        <v>1.5241826240810614</v>
       </c>
       <c r="L272" t="n">
-        <v>1.5995251094625738</v>
+        <v>1.6994730004834666</v>
       </c>
     </row>
     <row r="273">
@@ -10477,37 +10477,37 @@
         <v>273.0</v>
       </c>
       <c r="B274" t="n">
-        <v>0.6225577835321617</v>
+        <v>0.6289104139763675</v>
       </c>
       <c r="C274" t="n">
-        <v>0.5714724876827427</v>
+        <v>0.5818206157514296</v>
       </c>
       <c r="D274" t="n">
-        <v>0.60225276618415</v>
+        <v>0.6077766920330862</v>
       </c>
       <c r="E274" t="n">
-        <v>0.5801257753896213</v>
+        <v>0.5953590068252748</v>
       </c>
       <c r="F274" t="n">
-        <v>0.6220861781234782</v>
+        <v>0.6384799577702523</v>
       </c>
       <c r="G274" t="n">
-        <v>0.6479225599197929</v>
+        <v>0.6597626227777995</v>
       </c>
       <c r="H274" t="n">
-        <v>0.6225577835321617</v>
+        <v>0.6404289194025887</v>
       </c>
       <c r="I274" t="n">
-        <v>0.5714724876827427</v>
+        <v>0.645155332635501</v>
       </c>
       <c r="J274" t="n">
-        <v>0.60225276618415</v>
+        <v>0.5847394484682809</v>
       </c>
       <c r="K274" t="n">
-        <v>0.5801257753896213</v>
+        <v>0.5818206157514296</v>
       </c>
       <c r="L274" t="n">
-        <v>0.6220861781234782</v>
+        <v>0.6377036903657489</v>
       </c>
     </row>
     <row r="275">
@@ -10515,37 +10515,37 @@
         <v>274.0</v>
       </c>
       <c r="B275" t="n">
-        <v>6.028820568559857</v>
+        <v>6.149396979931054</v>
       </c>
       <c r="C275" t="n">
-        <v>6.655642123199129</v>
+        <v>6.784759031543896</v>
       </c>
       <c r="D275" t="n">
-        <v>6.589564082222499</v>
+        <v>6.613919773129949</v>
       </c>
       <c r="E275" t="n">
-        <v>6.921190046064585</v>
+        <v>6.938376212873673</v>
       </c>
       <c r="F275" t="n">
-        <v>6.8050206275665674</v>
+        <v>6.784759031543896</v>
       </c>
       <c r="G275" t="n">
-        <v>6.053173393669888</v>
+        <v>6.118701152685352</v>
       </c>
       <c r="H275" t="n">
-        <v>6.028820568559857</v>
+        <v>6.229259279141863</v>
       </c>
       <c r="I275" t="n">
-        <v>6.655642123199129</v>
+        <v>6.852185206395263</v>
       </c>
       <c r="J275" t="n">
-        <v>6.589564082222499</v>
+        <v>6.621859652589814</v>
       </c>
       <c r="K275" t="n">
-        <v>6.921190046064585</v>
+        <v>6.739168101136259</v>
       </c>
       <c r="L275" t="n">
-        <v>6.8050206275665674</v>
+        <v>6.391667543982172</v>
       </c>
     </row>
     <row r="276">
@@ -10705,37 +10705,37 @@
         <v>279.0</v>
       </c>
       <c r="B280" t="n">
-        <v>0.6868924867469226</v>
+        <v>0.6941229339758376</v>
       </c>
       <c r="C280" t="n">
-        <v>0.7624502840470704</v>
+        <v>0.7645104766824726</v>
       </c>
       <c r="D280" t="n">
-        <v>0.6824623976423784</v>
+        <v>0.6902943464706705</v>
       </c>
       <c r="E280" t="n">
-        <v>0.6938799064011565</v>
+        <v>0.6976051562868996</v>
       </c>
       <c r="F280" t="n">
-        <v>0.7590734313177974</v>
+        <v>0.7696824420371375</v>
       </c>
       <c r="G280" t="n">
-        <v>0.7494667014541836</v>
+        <v>0.7503019486400216</v>
       </c>
       <c r="H280" t="n">
-        <v>0.6868924867469226</v>
+        <v>0.6775872500224847</v>
       </c>
       <c r="I280" t="n">
-        <v>0.7624502840470704</v>
+        <v>0.7512026712425103</v>
       </c>
       <c r="J280" t="n">
-        <v>0.6824623976423784</v>
+        <v>0.7250890210056954</v>
       </c>
       <c r="K280" t="n">
-        <v>0.6938799064011565</v>
+        <v>0.6941229339758376</v>
       </c>
       <c r="L280" t="n">
-        <v>0.7590734313177974</v>
+        <v>0.7640437421843073</v>
       </c>
     </row>
     <row r="281">
@@ -10784,34 +10784,34 @@
         <v>2.7997445815079325</v>
       </c>
       <c r="C282" t="n">
-        <v>3.0908363848244305</v>
+        <v>3.0890170853167147</v>
       </c>
       <c r="D282" t="n">
-        <v>3.060150177617376</v>
+        <v>3.011236078558773</v>
       </c>
       <c r="E282" t="n">
-        <v>3.2141550919776014</v>
+        <v>3.1589570928423614</v>
       </c>
       <c r="F282" t="n">
-        <v>3.1602067788244623</v>
+        <v>3.0890170853167147</v>
       </c>
       <c r="G282" t="n">
-        <v>2.811053873163051</v>
+        <v>2.78576915004912</v>
       </c>
       <c r="H282" t="n">
-        <v>2.7997445815079325</v>
+        <v>2.836104901098934</v>
       </c>
       <c r="I282" t="n">
-        <v>3.0908363848244305</v>
+        <v>3.119715390907979</v>
       </c>
       <c r="J282" t="n">
-        <v>3.060150177617376</v>
+        <v>3.014851007724695</v>
       </c>
       <c r="K282" t="n">
-        <v>3.2141550919776014</v>
+        <v>3.0682600971451497</v>
       </c>
       <c r="L282" t="n">
-        <v>3.1602067788244623</v>
+        <v>2.910047380493695</v>
       </c>
     </row>
     <row r="283">
@@ -10857,37 +10857,37 @@
         <v>283.0</v>
       </c>
       <c r="B284" t="n">
-        <v>1.2554143158247137</v>
+        <v>1.2051977431917253</v>
       </c>
       <c r="C284" t="n">
-        <v>1.3327281104250663</v>
+        <v>1.2645418268392508</v>
       </c>
       <c r="D284" t="n">
-        <v>1.2770594458882976</v>
+        <v>1.2180058580721278</v>
       </c>
       <c r="E284" t="n">
-        <v>1.2052426173853712</v>
+        <v>1.1537278448444852</v>
       </c>
       <c r="F284" t="n">
-        <v>1.3873168480632352</v>
+        <v>1.3082838391748846</v>
       </c>
       <c r="G284" t="n">
-        <v>1.371133109006025</v>
+        <v>1.2793181461096321</v>
       </c>
       <c r="H284" t="n">
-        <v>1.2554143158247137</v>
+        <v>1.2707216278991336</v>
       </c>
       <c r="I284" t="n">
-        <v>1.3327281104250663</v>
+        <v>1.1262432623927034</v>
       </c>
       <c r="J284" t="n">
-        <v>1.2770594458882976</v>
+        <v>1.14736420550205</v>
       </c>
       <c r="K284" t="n">
-        <v>1.2052426173853712</v>
+        <v>1.2793181461096321</v>
       </c>
       <c r="L284" t="n">
-        <v>1.3873168480632352</v>
+        <v>1.1537278448444852</v>
       </c>
     </row>
     <row r="285">
@@ -11430,34 +11430,34 @@
         <v>2.6788966645527887</v>
       </c>
       <c r="C299" t="n">
-        <v>2.8438746036029294</v>
+        <v>2.810805862559814</v>
       </c>
       <c r="D299" t="n">
-        <v>2.725084656835682</v>
+        <v>2.707366362928967</v>
       </c>
       <c r="E299" t="n">
-        <v>2.5718365538706753</v>
+        <v>2.564490095351839</v>
       </c>
       <c r="F299" t="n">
-        <v>2.960360121839967</v>
+        <v>2.908034994964616</v>
       </c>
       <c r="G299" t="n">
-        <v>2.925826052860618</v>
+        <v>2.8436504580889768</v>
       </c>
       <c r="H299" t="n">
-        <v>2.6788966645527887</v>
+        <v>2.824542237806483</v>
       </c>
       <c r="I299" t="n">
-        <v>2.8438746036029294</v>
+        <v>2.503397750404599</v>
       </c>
       <c r="J299" t="n">
-        <v>2.725084656835682</v>
+        <v>2.5503450869454016</v>
       </c>
       <c r="K299" t="n">
-        <v>2.5718365538706753</v>
+        <v>2.8436504580889768</v>
       </c>
       <c r="L299" t="n">
-        <v>2.960360121839967</v>
+        <v>2.564490095351839</v>
       </c>
     </row>
     <row r="300">
@@ -11541,37 +11541,37 @@
         <v>301.0</v>
       </c>
       <c r="B302" t="n">
-        <v>0.9365448473547399</v>
+        <v>0.9464032141690003</v>
       </c>
       <c r="C302" t="n">
-        <v>0.9942212933293393</v>
+        <v>0.9930042236906366</v>
       </c>
       <c r="D302" t="n">
-        <v>0.9526922138263859</v>
+        <v>0.9564610168480503</v>
       </c>
       <c r="E302" t="n">
-        <v>0.8991165298151756</v>
+        <v>0.9059855503425003</v>
       </c>
       <c r="F302" t="n">
-        <v>1.0349447424044294</v>
+        <v>1.0273534259709451</v>
       </c>
       <c r="G302" t="n">
-        <v>1.0228715987148045</v>
+        <v>1.0046075942827863</v>
       </c>
       <c r="H302" t="n">
-        <v>0.9365448473547399</v>
+        <v>0.9978570236722473</v>
       </c>
       <c r="I302" t="n">
-        <v>0.9942212933293393</v>
+        <v>0.8844027874146733</v>
       </c>
       <c r="J302" t="n">
-        <v>0.9526922138263859</v>
+        <v>0.9009883880415294</v>
       </c>
       <c r="K302" t="n">
-        <v>0.8991165298151756</v>
+        <v>1.0046075942827863</v>
       </c>
       <c r="L302" t="n">
-        <v>1.0349447424044294</v>
+        <v>0.9059855503425003</v>
       </c>
     </row>
     <row r="303">
@@ -11655,37 +11655,37 @@
         <v>304.0</v>
       </c>
       <c r="B305" t="n">
-        <v>2.193749372865333</v>
+        <v>2.21590845743973</v>
       </c>
       <c r="C305" t="n">
-        <v>2.3288498622260447</v>
+        <v>2.3250200597443507</v>
       </c>
       <c r="D305" t="n">
-        <v>2.2315727351641623</v>
+        <v>2.2394577963325992</v>
       </c>
       <c r="E305" t="n">
-        <v>2.106077812489193</v>
+        <v>2.1212745405613536</v>
       </c>
       <c r="F305" t="n">
-        <v>2.4242398919952795</v>
+        <v>2.405445280939396</v>
       </c>
       <c r="G305" t="n">
-        <v>2.395959931380008</v>
+        <v>2.352188191302874</v>
       </c>
       <c r="H305" t="n">
-        <v>2.193749372865333</v>
+        <v>2.3363824054766154</v>
       </c>
       <c r="I305" t="n">
-        <v>2.3288498622260447</v>
+        <v>2.0707406600855967</v>
       </c>
       <c r="J305" t="n">
-        <v>2.2315727351641623</v>
+        <v>2.109574184898843</v>
       </c>
       <c r="K305" t="n">
-        <v>2.106077812489193</v>
+        <v>2.352188191302874</v>
       </c>
       <c r="L305" t="n">
-        <v>2.4242398919952795</v>
+        <v>2.1212745405613536</v>
       </c>
     </row>
     <row r="306">
@@ -11848,34 +11848,34 @@
         <v>2.71884028572771</v>
       </c>
       <c r="C310" t="n">
-        <v>2.8862781241785385</v>
+        <v>2.8527163125058483</v>
       </c>
       <c r="D310" t="n">
-        <v>2.765716962905019</v>
+        <v>2.747734480823732</v>
       </c>
       <c r="E310" t="n">
-        <v>2.6101838579645325</v>
+        <v>2.602727860261174</v>
       </c>
       <c r="F310" t="n">
-        <v>3.0045004967983493</v>
+        <v>2.9513951774379747</v>
       </c>
       <c r="G310" t="n">
-        <v>2.969451508454177</v>
+        <v>2.8860506365485517</v>
       </c>
       <c r="H310" t="n">
-        <v>2.71884028572771</v>
+        <v>2.866657503629303</v>
       </c>
       <c r="I310" t="n">
-        <v>2.8862781241785385</v>
+        <v>2.540724599444894</v>
       </c>
       <c r="J310" t="n">
-        <v>2.765716962905019</v>
+        <v>2.588371943063525</v>
       </c>
       <c r="K310" t="n">
-        <v>2.6101838579645325</v>
+        <v>2.8860506365485517</v>
       </c>
       <c r="L310" t="n">
-        <v>3.0045004967983493</v>
+        <v>2.602727860261174</v>
       </c>
     </row>
     <row r="311">
@@ -11921,37 +11921,37 @@
         <v>311.0</v>
       </c>
       <c r="B312" t="n">
-        <v>2.051203651517488</v>
+        <v>2.072350080914576</v>
       </c>
       <c r="C312" t="n">
-        <v>1.8257952893881502</v>
+        <v>1.845704322634249</v>
       </c>
       <c r="D312" t="n">
-        <v>1.9104203584021717</v>
+        <v>1.9347422707557949</v>
       </c>
       <c r="E312" t="n">
-        <v>1.9653811178984533</v>
+        <v>1.97509610802216</v>
       </c>
       <c r="F312" t="n">
-        <v>1.9117728211502882</v>
+        <v>1.9249101542644842</v>
       </c>
       <c r="G312" t="n">
-        <v>2.09044018132762</v>
+        <v>2.0812062765118857</v>
       </c>
       <c r="H312" t="n">
-        <v>2.051203651517488</v>
+        <v>2.074872722453017</v>
       </c>
       <c r="I312" t="n">
-        <v>1.8257952893881502</v>
+        <v>1.809456412471478</v>
       </c>
       <c r="J312" t="n">
-        <v>1.9104203584021717</v>
+        <v>2.0824776314270768</v>
       </c>
       <c r="K312" t="n">
-        <v>1.9653811178984533</v>
+        <v>2.1174011694867425</v>
       </c>
       <c r="L312" t="n">
-        <v>1.9117728211502882</v>
+        <v>2.0462280207319234</v>
       </c>
     </row>
     <row r="313">
@@ -12000,34 +12000,34 @@
         <v>2.506643302637657</v>
       </c>
       <c r="C314" t="n">
-        <v>2.5888328736293094</v>
+        <v>2.6048074923580447</v>
       </c>
       <c r="D314" t="n">
-        <v>2.5159882372161144</v>
+        <v>2.5568575993832847</v>
       </c>
       <c r="E314" t="n">
-        <v>2.853632784789386</v>
+        <v>2.870830385988648</v>
       </c>
       <c r="F314" t="n">
-        <v>2.8176246591767473</v>
+        <v>2.8848601003765233</v>
       </c>
       <c r="G314" t="n">
-        <v>2.6417455224460076</v>
+        <v>2.6665815839000455</v>
       </c>
       <c r="H314" t="n">
-        <v>2.506643302637657</v>
+        <v>2.7361042781225264</v>
       </c>
       <c r="I314" t="n">
-        <v>2.5888328736293094</v>
+        <v>2.8830988900696752</v>
       </c>
       <c r="J314" t="n">
-        <v>2.5159882372161144</v>
+        <v>2.6192545662325393</v>
       </c>
       <c r="K314" t="n">
-        <v>2.853632784789386</v>
+        <v>2.9043763751003815</v>
       </c>
       <c r="L314" t="n">
-        <v>2.8176246591767473</v>
+        <v>2.8743250059605394</v>
       </c>
     </row>
     <row r="315">
@@ -12035,37 +12035,37 @@
         <v>314.0</v>
       </c>
       <c r="B315" t="n">
-        <v>3.1792650124706765</v>
+        <v>3.2110576625953833</v>
       </c>
       <c r="C315" t="n">
-        <v>2.8298931113891053</v>
+        <v>2.8598753958909073</v>
       </c>
       <c r="D315" t="n">
-        <v>2.9610578160224823</v>
+        <v>2.9978376003516916</v>
       </c>
       <c r="E315" t="n">
-        <v>3.046244296456092</v>
+        <v>3.060364921175837</v>
       </c>
       <c r="F315" t="n">
-        <v>2.9631540669201324</v>
+        <v>2.9826029673185412</v>
       </c>
       <c r="G315" t="n">
-        <v>3.2400797084389823</v>
+        <v>3.2247801291786526</v>
       </c>
       <c r="H315" t="n">
-        <v>3.1792650124706765</v>
+        <v>3.2149664362705423</v>
       </c>
       <c r="I315" t="n">
-        <v>2.8298931113891053</v>
+        <v>2.803710112451023</v>
       </c>
       <c r="J315" t="n">
-        <v>2.9610578160224823</v>
+        <v>3.2267500636891864</v>
       </c>
       <c r="K315" t="n">
-        <v>3.046244296456092</v>
+        <v>3.2808632637340076</v>
       </c>
       <c r="L315" t="n">
-        <v>2.9631540669201324</v>
+        <v>3.1705821453144103</v>
       </c>
     </row>
     <row r="316">
@@ -12073,37 +12073,37 @@
         <v>315.0</v>
       </c>
       <c r="B316" t="n">
-        <v>1.5605392995675325</v>
+        <v>1.5763023227954873</v>
       </c>
       <c r="C316" t="n">
-        <v>1.3890504240998285</v>
+        <v>1.4039075915581107</v>
       </c>
       <c r="D316" t="n">
-        <v>1.4534324984137548</v>
+        <v>1.4716329849332477</v>
       </c>
       <c r="E316" t="n">
-        <v>1.4952462037786876</v>
+        <v>1.5023275321540581</v>
       </c>
       <c r="F316" t="n">
-        <v>1.454461441233779</v>
+        <v>1.4641543314924117</v>
       </c>
       <c r="G316" t="n">
-        <v>1.590390137002453</v>
+        <v>1.5830386564968906</v>
       </c>
       <c r="H316" t="n">
-        <v>1.5605392995675325</v>
+        <v>1.5782211326303923</v>
       </c>
       <c r="I316" t="n">
-        <v>1.3890504240998285</v>
+        <v>1.3763361568317725</v>
       </c>
       <c r="J316" t="n">
-        <v>1.4534324984137548</v>
+        <v>1.5840056937385079</v>
       </c>
       <c r="K316" t="n">
-        <v>1.4952462037786876</v>
+        <v>1.6105697644863388</v>
       </c>
       <c r="L316" t="n">
-        <v>1.454461441233779</v>
+        <v>1.5564329655274591</v>
       </c>
     </row>
     <row r="317">
@@ -12187,37 +12187,37 @@
         <v>318.0</v>
       </c>
       <c r="B319" t="n">
-        <v>3.6812200412659544</v>
+        <v>3.718032241678614</v>
       </c>
       <c r="C319" t="n">
-        <v>3.276687912276431</v>
+        <v>3.311403919327759</v>
       </c>
       <c r="D319" t="n">
-        <v>3.4285614231379515</v>
+        <v>3.4711481463758824</v>
       </c>
       <c r="E319" t="n">
-        <v>3.527197484550591</v>
+        <v>3.5435475297684715</v>
       </c>
       <c r="F319" t="n">
-        <v>3.4309886384803914</v>
+        <v>3.453508208773014</v>
       </c>
       <c r="G319" t="n">
-        <v>3.7516364037660552</v>
+        <v>3.733921265966865</v>
       </c>
       <c r="H319" t="n">
-        <v>3.6812200412659544</v>
+        <v>3.7225581481171552</v>
       </c>
       <c r="I319" t="n">
-        <v>3.276687912276431</v>
+        <v>3.246371037132886</v>
       </c>
       <c r="J319" t="n">
-        <v>3.4285614231379515</v>
+        <v>3.7362022215876496</v>
       </c>
       <c r="K319" t="n">
-        <v>3.527197484550591</v>
+        <v>3.798859029283975</v>
       </c>
       <c r="L319" t="n">
-        <v>3.4309886384803914</v>
+        <v>3.671166288443865</v>
       </c>
     </row>
     <row r="320">
@@ -12342,34 +12342,34 @@
         <v>1.7945977000472013</v>
       </c>
       <c r="C323" t="n">
-        <v>1.652001327830097</v>
+        <v>1.664892163388479</v>
       </c>
       <c r="D323" t="n">
-        <v>1.8289884160991587</v>
+        <v>1.8133604070583411</v>
       </c>
       <c r="E323" t="n">
-        <v>1.7396250404229032</v>
+        <v>1.7264537404629627</v>
       </c>
       <c r="F323" t="n">
-        <v>1.8098819197800853</v>
+        <v>1.7677002523293726</v>
       </c>
       <c r="G323" t="n">
-        <v>1.8142037268952582</v>
+        <v>1.7698223414090877</v>
       </c>
       <c r="H323" t="n">
-        <v>1.7945977000472013</v>
+        <v>1.831381379550719</v>
       </c>
       <c r="I323" t="n">
-        <v>1.652001327830097</v>
+        <v>1.7924158184050454</v>
       </c>
       <c r="J323" t="n">
-        <v>1.8289884160991587</v>
+        <v>1.8133604070583411</v>
       </c>
       <c r="K323" t="n">
-        <v>1.7396250404229032</v>
+        <v>1.596385501878226</v>
       </c>
       <c r="L323" t="n">
-        <v>1.8098819197800853</v>
+        <v>1.673396151826402</v>
       </c>
     </row>
     <row r="324">
@@ -12491,37 +12491,37 @@
         <v>326.0</v>
       </c>
       <c r="B327" t="n">
-        <v>2.726128354263735</v>
+        <v>2.6988670707210978</v>
       </c>
       <c r="C327" t="n">
-        <v>2.65079343900705</v>
+        <v>2.6527325893645046</v>
       </c>
       <c r="D327" t="n">
-        <v>2.327273347799012</v>
+        <v>2.3063566781292364</v>
       </c>
       <c r="E327" t="n">
-        <v>2.68496573209587</v>
+        <v>2.6723099538992696</v>
       </c>
       <c r="F327" t="n">
-        <v>2.6100317737361167</v>
+        <v>2.6081488496007816</v>
       </c>
       <c r="G327" t="n">
-        <v>2.3885857588844512</v>
+        <v>2.4220601916069016</v>
       </c>
       <c r="H327" t="n">
-        <v>2.726128354263735</v>
+        <v>2.6050215728891524</v>
       </c>
       <c r="I327" t="n">
-        <v>2.65079343900705</v>
+        <v>2.4660476626357464</v>
       </c>
       <c r="J327" t="n">
-        <v>2.327273347799012</v>
+        <v>2.4535155190739646</v>
       </c>
       <c r="K327" t="n">
-        <v>2.68496573209587</v>
+        <v>2.641444367267584</v>
       </c>
       <c r="L327" t="n">
-        <v>2.6100317737361167</v>
+        <v>2.352558735883117</v>
       </c>
     </row>
     <row r="328">
@@ -12570,34 +12570,34 @@
         <v>2.2165565519788184</v>
       </c>
       <c r="C329" t="n">
-        <v>2.2029318253359254</v>
+        <v>2.2278783490924927</v>
       </c>
       <c r="D329" t="n">
-        <v>2.1784296021446967</v>
+        <v>2.1881391600162545</v>
       </c>
       <c r="E329" t="n">
-        <v>2.366712701360543</v>
+        <v>2.3965333644284033</v>
       </c>
       <c r="F329" t="n">
-        <v>2.1366548227254905</v>
+        <v>2.177216667637796</v>
       </c>
       <c r="G329" t="n">
-        <v>2.3791306002518104</v>
+        <v>2.3892402028668647</v>
       </c>
       <c r="H329" t="n">
-        <v>2.2165565519788184</v>
+        <v>2.386335351636308</v>
       </c>
       <c r="I329" t="n">
-        <v>2.2029318253359254</v>
+        <v>2.46888154202144</v>
       </c>
       <c r="J329" t="n">
-        <v>2.1784296021446967</v>
+        <v>2.414219959557987</v>
       </c>
       <c r="K329" t="n">
-        <v>2.366712701360543</v>
+        <v>2.083610218221468</v>
       </c>
       <c r="L329" t="n">
-        <v>2.1366548227254905</v>
+        <v>2.438212206941573</v>
       </c>
     </row>
     <row r="330">
@@ -12643,37 +12643,37 @@
         <v>330.0</v>
       </c>
       <c r="B331" t="n">
-        <v>2.7706111144187</v>
+        <v>2.742905003274513</v>
       </c>
       <c r="C331" t="n">
-        <v>2.979004087277403</v>
+        <v>2.96638787878386</v>
       </c>
       <c r="D331" t="n">
-        <v>2.8508748266650534</v>
+        <v>2.8098422283281326</v>
       </c>
       <c r="E331" t="n">
-        <v>2.874760369871438</v>
+        <v>2.8606129531356363</v>
       </c>
       <c r="F331" t="n">
-        <v>2.921564979878625</v>
+        <v>2.875224481746191</v>
       </c>
       <c r="G331" t="n">
-        <v>3.0367607285685927</v>
+        <v>2.935194402595302</v>
       </c>
       <c r="H331" t="n">
-        <v>2.7706111144187</v>
+        <v>3.1862550551931523</v>
       </c>
       <c r="I331" t="n">
-        <v>2.979004087277403</v>
+        <v>2.8098422283281326</v>
       </c>
       <c r="J331" t="n">
-        <v>2.8508748266650534</v>
+        <v>2.6890369091684065</v>
       </c>
       <c r="K331" t="n">
-        <v>2.874760369871438</v>
+        <v>3.083472635233121</v>
       </c>
       <c r="L331" t="n">
-        <v>2.921564979878625</v>
+        <v>3.1157106647537347</v>
       </c>
     </row>
     <row r="332">
@@ -12722,34 +12722,34 @@
         <v>1.3809391337980523</v>
       </c>
       <c r="C333" t="n">
-        <v>1.4848071973929236</v>
+        <v>1.4934535111301677</v>
       </c>
       <c r="D333" t="n">
-        <v>1.4209444960403643</v>
+        <v>1.4146392559218732</v>
       </c>
       <c r="E333" t="n">
-        <v>1.4328496245421827</v>
+        <v>1.4402002143416048</v>
       </c>
       <c r="F333" t="n">
-        <v>1.456178166489016</v>
+        <v>1.4475565141911573</v>
       </c>
       <c r="G333" t="n">
-        <v>1.5135944948164648</v>
+        <v>1.4777488870412718</v>
       </c>
       <c r="H333" t="n">
-        <v>1.3809391337980523</v>
+        <v>1.6041475336277762</v>
       </c>
       <c r="I333" t="n">
-        <v>1.4848071973929236</v>
+        <v>1.4146392559218732</v>
       </c>
       <c r="J333" t="n">
-        <v>1.4209444960403643</v>
+        <v>1.3538187781439437</v>
       </c>
       <c r="K333" t="n">
-        <v>1.4328496245421827</v>
+        <v>1.5524008395863027</v>
       </c>
       <c r="L333" t="n">
-        <v>1.456178166489016</v>
+        <v>1.5686313530413456</v>
       </c>
     </row>
     <row r="334">
@@ -13023,37 +13023,37 @@
         <v>340.0</v>
       </c>
       <c r="B341" t="n">
-        <v>1.074292305561214</v>
+        <v>1.0853674839690615</v>
       </c>
       <c r="C341" t="n">
-        <v>1.023021135106951</v>
+        <v>1.0224840835651658</v>
       </c>
       <c r="D341" t="n">
-        <v>1.0657772788922781</v>
+        <v>1.059308240265121</v>
       </c>
       <c r="E341" t="n">
-        <v>0.9810366167733174</v>
+        <v>0.978817264455965</v>
       </c>
       <c r="F341" t="n">
-        <v>0.9566261158874385</v>
+        <v>0.9734183828384495</v>
       </c>
       <c r="G341" t="n">
-        <v>1.058633190955943</v>
+        <v>1.0853674839690615</v>
       </c>
       <c r="H341" t="n">
-        <v>1.074292305561214</v>
+        <v>0.9367343564408733</v>
       </c>
       <c r="I341" t="n">
-        <v>1.023021135106951</v>
+        <v>1.0580380865349286</v>
       </c>
       <c r="J341" t="n">
-        <v>1.0657772788922781</v>
+        <v>1.0015933754380784</v>
       </c>
       <c r="K341" t="n">
-        <v>0.9810366167733174</v>
+        <v>1.033350427847394</v>
       </c>
       <c r="L341" t="n">
-        <v>0.9566261158874385</v>
+        <v>0.9965034040795753</v>
       </c>
     </row>
     <row r="342">
@@ -13289,37 +13289,37 @@
         <v>347.0</v>
       </c>
       <c r="B348" t="n">
-        <v>2.5248166028282615</v>
+        <v>2.499818418641843</v>
       </c>
       <c r="C348" t="n">
-        <v>2.4043183904336973</v>
+        <v>2.354985369118711</v>
       </c>
       <c r="D348" t="n">
-        <v>2.5048044696351233</v>
+        <v>2.4397987678331003</v>
       </c>
       <c r="E348" t="n">
-        <v>2.3056457960180383</v>
+        <v>2.25441195015696</v>
       </c>
       <c r="F348" t="n">
-        <v>2.248275899946946</v>
+        <v>2.2419772458684384</v>
       </c>
       <c r="G348" t="n">
-        <v>2.488014335571656</v>
+        <v>2.499818418641843</v>
       </c>
       <c r="H348" t="n">
-        <v>2.5248166028282615</v>
+        <v>2.1574865952703055</v>
       </c>
       <c r="I348" t="n">
-        <v>2.4043183904336973</v>
+        <v>2.4368733497271235</v>
       </c>
       <c r="J348" t="n">
-        <v>2.5048044696351233</v>
+        <v>2.3068698895913617</v>
       </c>
       <c r="K348" t="n">
-        <v>2.3056457960180383</v>
+        <v>2.380012733565527</v>
       </c>
       <c r="L348" t="n">
-        <v>2.248275899946946</v>
+        <v>2.2951466674198118</v>
       </c>
     </row>
     <row r="349">
@@ -13403,37 +13403,37 @@
         <v>350.0</v>
       </c>
       <c r="B351" t="n">
-        <v>3.295418397360209</v>
+        <v>3.26279049243585</v>
       </c>
       <c r="C351" t="n">
-        <v>3.138142805331367</v>
+        <v>3.0737528033578934</v>
       </c>
       <c r="D351" t="n">
-        <v>3.269298341027715</v>
+        <v>3.184452184118048</v>
       </c>
       <c r="E351" t="n">
-        <v>3.009354249921688</v>
+        <v>2.942483270845827</v>
       </c>
       <c r="F351" t="n">
-        <v>2.934474430628856</v>
+        <v>2.9262533580544483</v>
       </c>
       <c r="G351" t="n">
-        <v>3.247383673394068</v>
+        <v>3.26279049243585</v>
       </c>
       <c r="H351" t="n">
-        <v>3.295418397360209</v>
+        <v>2.815975231685141</v>
       </c>
       <c r="I351" t="n">
-        <v>3.138142805331367</v>
+        <v>3.180633896233056</v>
       </c>
       <c r="J351" t="n">
-        <v>3.269298341027715</v>
+        <v>3.0109519503158872</v>
       </c>
       <c r="K351" t="n">
-        <v>3.009354249921688</v>
+        <v>3.1064187946790405</v>
       </c>
       <c r="L351" t="n">
-        <v>2.934474430628856</v>
+        <v>2.9956506718082956</v>
       </c>
     </row>
     <row r="352">
@@ -13479,37 +13479,37 @@
         <v>352.0</v>
       </c>
       <c r="B353" t="n">
-        <v>2.1563416170726986</v>
+        <v>2.1779050332434258</v>
       </c>
       <c r="C353" t="n">
-        <v>2.053429068938232</v>
+        <v>2.051722817293597</v>
       </c>
       <c r="D353" t="n">
-        <v>2.139250080363685</v>
+        <v>2.1256143954054614</v>
       </c>
       <c r="E353" t="n">
-        <v>1.9691568799940222</v>
+        <v>1.9641007109302473</v>
       </c>
       <c r="F353" t="n">
-        <v>1.9201596204201368</v>
+        <v>1.9532672820480095</v>
       </c>
       <c r="G353" t="n">
-        <v>2.1249103200829866</v>
+        <v>2.1779050332434258</v>
       </c>
       <c r="H353" t="n">
-        <v>2.1563416170726986</v>
+        <v>1.8796568902581692</v>
       </c>
       <c r="I353" t="n">
-        <v>2.053429068938232</v>
+        <v>2.1230656971600865</v>
       </c>
       <c r="J353" t="n">
-        <v>2.139250080363685</v>
+        <v>2.009803394563498</v>
       </c>
       <c r="K353" t="n">
-        <v>1.9691568799940222</v>
+        <v>2.073527290206935</v>
       </c>
       <c r="L353" t="n">
-        <v>1.9201596204201368</v>
+        <v>1.999589826896803</v>
       </c>
     </row>
     <row r="354">
@@ -13593,37 +13593,37 @@
         <v>355.0</v>
       </c>
       <c r="B356" t="n">
-        <v>2.5334947996798705</v>
+        <v>2.5086566153692833</v>
       </c>
       <c r="C356" t="n">
-        <v>2.463483196690369</v>
+        <v>2.4657735948947233</v>
       </c>
       <c r="D356" t="n">
-        <v>2.162823667073728</v>
+        <v>2.143809526878305</v>
       </c>
       <c r="E356" t="n">
-        <v>2.4952408087992253</v>
+        <v>2.483971188093899</v>
       </c>
       <c r="F356" t="n">
-        <v>2.4256018303091107</v>
+        <v>2.4243320230183123</v>
       </c>
       <c r="G356" t="n">
-        <v>2.219803623427525</v>
+        <v>2.251358500911198</v>
       </c>
       <c r="H356" t="n">
-        <v>2.5334947996798705</v>
+        <v>2.4214251501693944</v>
       </c>
       <c r="I356" t="n">
-        <v>2.463483196690369</v>
+        <v>2.292245827814776</v>
       </c>
       <c r="J356" t="n">
-        <v>2.162823667073728</v>
+        <v>2.2805969232829124</v>
       </c>
       <c r="K356" t="n">
-        <v>2.4952408087992253</v>
+        <v>2.4552809428680966</v>
       </c>
       <c r="L356" t="n">
-        <v>2.4256018303091107</v>
+        <v>2.186755361108287</v>
       </c>
     </row>
     <row r="357">
@@ -13821,37 +13821,37 @@
         <v>361.0</v>
       </c>
       <c r="B362" t="n">
-        <v>3.182287233284168</v>
+        <v>3.21411010561701</v>
       </c>
       <c r="C362" t="n">
-        <v>3.094346642127872</v>
+        <v>3.1591680507250635</v>
       </c>
       <c r="D362" t="n">
-        <v>2.7166924299364132</v>
+        <v>2.7466652162130543</v>
       </c>
       <c r="E362" t="n">
-        <v>3.1342369326413455</v>
+        <v>3.182482946769841</v>
       </c>
       <c r="F362" t="n">
-        <v>3.046764389884974</v>
+        <v>3.1060727908379233</v>
       </c>
       <c r="G362" t="n">
-        <v>2.7882641527916125</v>
+        <v>2.884457787013733</v>
       </c>
       <c r="H362" t="n">
-        <v>3.182287233284168</v>
+        <v>3.1023484830381984</v>
       </c>
       <c r="I362" t="n">
-        <v>3.094346642127872</v>
+        <v>2.936842943988719</v>
       </c>
       <c r="J362" t="n">
-        <v>2.7166924299364132</v>
+        <v>2.9219182781154185</v>
       </c>
       <c r="K362" t="n">
-        <v>3.1342369326413455</v>
+        <v>3.145724784433898</v>
       </c>
       <c r="L362" t="n">
-        <v>3.046764389884974</v>
+        <v>2.8016877485704446</v>
       </c>
     </row>
     <row r="363">
@@ -13897,37 +13897,37 @@
         <v>363.0</v>
       </c>
       <c r="B364" t="n">
-        <v>3.0339170754719427</v>
+        <v>3.064256246226662</v>
       </c>
       <c r="C364" t="n">
-        <v>3.1333952671216676</v>
+        <v>3.1842574570850064</v>
       </c>
       <c r="D364" t="n">
-        <v>3.0452277220872457</v>
+        <v>3.1256409164311374</v>
       </c>
       <c r="E364" t="n">
-        <v>3.4538959826429543</v>
+        <v>3.509458219630319</v>
       </c>
       <c r="F364" t="n">
-        <v>3.410313528355594</v>
+        <v>3.52660890074262</v>
       </c>
       <c r="G364" t="n">
-        <v>3.1974381202011255</v>
+        <v>3.2597734452048033</v>
       </c>
       <c r="H364" t="n">
-        <v>3.0339170754719427</v>
+        <v>3.3447617440192268</v>
       </c>
       <c r="I364" t="n">
-        <v>3.1333952671216676</v>
+        <v>3.524455902077832</v>
       </c>
       <c r="J364" t="n">
-        <v>3.0452277220872457</v>
+        <v>3.2019183409902015</v>
       </c>
       <c r="K364" t="n">
-        <v>3.4538959826429543</v>
+        <v>3.5504666497341613</v>
       </c>
       <c r="L364" t="n">
-        <v>3.410313528355594</v>
+        <v>3.5137302319528496</v>
       </c>
     </row>
     <row r="365">
@@ -13973,37 +13973,37 @@
         <v>365.0</v>
       </c>
       <c r="B366" t="n">
-        <v>7.2803958826100414</v>
+        <v>7.208312755059446</v>
       </c>
       <c r="C366" t="n">
-        <v>8.037344777278689</v>
+        <v>7.953083078990126</v>
       </c>
       <c r="D366" t="n">
-        <v>7.957549020880498</v>
+        <v>7.752825588782694</v>
       </c>
       <c r="E366" t="n">
-        <v>8.358020103784074</v>
+        <v>8.133152879523337</v>
       </c>
       <c r="F366" t="n">
-        <v>8.217734064997519</v>
+        <v>7.953083078990126</v>
       </c>
       <c r="G366" t="n">
-        <v>7.309804322560237</v>
+        <v>7.172331158199722</v>
       </c>
       <c r="H366" t="n">
-        <v>7.2803958826100414</v>
+        <v>7.30192720732662</v>
       </c>
       <c r="I366" t="n">
-        <v>8.037344777278689</v>
+        <v>8.03211992728471</v>
       </c>
       <c r="J366" t="n">
-        <v>7.957549020880498</v>
+        <v>7.762132702077049</v>
       </c>
       <c r="K366" t="n">
-        <v>8.358020103784074</v>
+        <v>7.899641467358137</v>
       </c>
       <c r="L366" t="n">
-        <v>8.217734064997519</v>
+        <v>7.492301901104902</v>
       </c>
     </row>
     <row r="367">
@@ -14546,34 +14546,34 @@
         <v>1.6352617861498706</v>
       </c>
       <c r="C381" t="n">
-        <v>1.625210161342026</v>
+        <v>1.6436144276171072</v>
       </c>
       <c r="D381" t="n">
-        <v>1.6071336772457543</v>
+        <v>1.61429689125606</v>
       </c>
       <c r="E381" t="n">
-        <v>1.7460392949935486</v>
+        <v>1.7680394513662738</v>
       </c>
       <c r="F381" t="n">
-        <v>1.5763143866898321</v>
+        <v>1.6062388363510043</v>
       </c>
       <c r="G381" t="n">
-        <v>1.755200584157605</v>
+        <v>1.7626589306702625</v>
       </c>
       <c r="H381" t="n">
-        <v>1.6352617861498706</v>
+        <v>1.7605158803575875</v>
       </c>
       <c r="I381" t="n">
-        <v>1.625210161342026</v>
+        <v>1.8214142276650591</v>
       </c>
       <c r="J381" t="n">
-        <v>1.6071336772457543</v>
+        <v>1.7810877145006803</v>
       </c>
       <c r="K381" t="n">
-        <v>1.7460392949935486</v>
+        <v>1.5371807969650755</v>
       </c>
       <c r="L381" t="n">
-        <v>1.5763143866898321</v>
+        <v>1.7987879645913927</v>
       </c>
     </row>
     <row r="382">
@@ -14771,37 +14771,37 @@
         <v>386.0</v>
       </c>
       <c r="B387" t="n">
-        <v>2.9656991951586797</v>
+        <v>2.936335836790772</v>
       </c>
       <c r="C387" t="n">
-        <v>2.947469639588346</v>
+        <v>2.9513341451227095</v>
       </c>
       <c r="D387" t="n">
-        <v>2.9146862560410356</v>
+        <v>2.8986905051914884</v>
       </c>
       <c r="E387" t="n">
-        <v>3.166604500720115</v>
+        <v>3.1747562658636492</v>
       </c>
       <c r="F387" t="n">
-        <v>2.8587926089374376</v>
+        <v>2.884221167258599</v>
       </c>
       <c r="G387" t="n">
-        <v>3.183219349871839</v>
+        <v>3.165094806228192</v>
       </c>
       <c r="H387" t="n">
-        <v>2.9656991951586797</v>
+        <v>3.1612466667520236</v>
       </c>
       <c r="I387" t="n">
-        <v>2.947469639588346</v>
+        <v>3.270597965189246</v>
       </c>
       <c r="J387" t="n">
-        <v>2.9146862560410356</v>
+        <v>3.1981862040998026</v>
       </c>
       <c r="K387" t="n">
-        <v>3.166604500720115</v>
+        <v>2.760218027464793</v>
       </c>
       <c r="L387" t="n">
-        <v>2.8587926089374376</v>
+        <v>3.229969420158369</v>
       </c>
     </row>
     <row r="388">
@@ -14847,37 +14847,37 @@
         <v>388.0</v>
       </c>
       <c r="B389" t="n">
-        <v>0.7185205798973499</v>
+        <v>0.7260051692712806</v>
       </c>
       <c r="C389" t="n">
-        <v>0.714103978624689</v>
+        <v>0.7297134812575594</v>
       </c>
       <c r="D389" t="n">
-        <v>0.7061613201798056</v>
+        <v>0.7166974106022717</v>
       </c>
       <c r="E389" t="n">
-        <v>0.7671953062121787</v>
+        <v>0.7849543064231014</v>
       </c>
       <c r="F389" t="n">
-        <v>0.6926195773776311</v>
+        <v>0.7131198858506438</v>
       </c>
       <c r="G389" t="n">
-        <v>0.7712207013253756</v>
+        <v>0.7825655232498135</v>
       </c>
       <c r="H389" t="n">
-        <v>0.7185205798973499</v>
+        <v>0.7816140758313097</v>
       </c>
       <c r="I389" t="n">
-        <v>0.714103978624689</v>
+        <v>0.8086510403832656</v>
       </c>
       <c r="J389" t="n">
-        <v>0.7061613201798056</v>
+        <v>0.790747327800978</v>
       </c>
       <c r="K389" t="n">
-        <v>0.7671953062121787</v>
+        <v>0.6824602728158603</v>
       </c>
       <c r="L389" t="n">
-        <v>0.6926195773776311</v>
+        <v>0.7986056861213956</v>
       </c>
     </row>
     <row r="390">
@@ -15037,37 +15037,37 @@
         <v>393.0</v>
       </c>
       <c r="B394" t="n">
-        <v>3.1952734605078827</v>
+        <v>3.227548950007962</v>
       </c>
       <c r="C394" t="n">
-        <v>3.5274887346625086</v>
+        <v>3.561022643322998</v>
       </c>
       <c r="D394" t="n">
-        <v>3.4924673887368964</v>
+        <v>3.4713566043742072</v>
       </c>
       <c r="E394" t="n">
-        <v>3.6682290703178575</v>
+        <v>3.6416495688446715</v>
       </c>
       <c r="F394" t="n">
-        <v>3.606659306277257</v>
+        <v>3.561022643322998</v>
       </c>
       <c r="G394" t="n">
-        <v>3.2081804519961135</v>
+        <v>3.2114380556682702</v>
       </c>
       <c r="H394" t="n">
-        <v>3.1952734605078827</v>
+        <v>3.2694651705421522</v>
       </c>
       <c r="I394" t="n">
-        <v>3.5274887346625086</v>
+        <v>3.5964116872495495</v>
       </c>
       <c r="J394" t="n">
-        <v>3.4924673887368964</v>
+        <v>3.4755238991020496</v>
       </c>
       <c r="K394" t="n">
-        <v>3.6682290703178575</v>
+        <v>3.5370939621779556</v>
       </c>
       <c r="L394" t="n">
-        <v>3.606659306277257</v>
+        <v>3.3547061504900477</v>
       </c>
     </row>
     <row r="395">
@@ -15075,37 +15075,37 @@
         <v>394.0</v>
       </c>
       <c r="B395" t="n">
-        <v>6.402263154381945</v>
+        <v>6.275485666176362</v>
       </c>
       <c r="C395" t="n">
-        <v>6.595668451512216</v>
+        <v>6.425412587431731</v>
       </c>
       <c r="D395" t="n">
-        <v>6.179774746400858</v>
+        <v>6.051715526575322</v>
       </c>
       <c r="E395" t="n">
-        <v>6.659245657859152</v>
+        <v>6.523182104015882</v>
       </c>
       <c r="F395" t="n">
-        <v>6.723142505623239</v>
+        <v>6.5430941333391965</v>
       </c>
       <c r="G395" t="n">
-        <v>6.696177638004428</v>
+        <v>6.515251183742876</v>
       </c>
       <c r="H395" t="n">
-        <v>6.402263154381945</v>
+        <v>6.082626669050072</v>
       </c>
       <c r="I395" t="n">
-        <v>6.595668451512216</v>
+        <v>6.5913826564821765</v>
       </c>
       <c r="J395" t="n">
-        <v>6.179774746400858</v>
+        <v>6.656887078590903</v>
       </c>
       <c r="K395" t="n">
-        <v>6.659245657859152</v>
+        <v>6.4331261677553675</v>
       </c>
       <c r="L395" t="n">
-        <v>6.723142505623239</v>
+        <v>6.740621504913964</v>
       </c>
     </row>
     <row r="396">
@@ -15151,37 +15151,37 @@
         <v>396.0</v>
       </c>
       <c r="B397" t="n">
-        <v>3.9746893925063813</v>
+        <v>3.817275951219</v>
       </c>
       <c r="C397" t="n">
-        <v>4.094760368100705</v>
+        <v>3.908474061037508</v>
       </c>
       <c r="D397" t="n">
-        <v>3.8365628747682288</v>
+        <v>3.6811602116669366</v>
       </c>
       <c r="E397" t="n">
-        <v>4.1342307306239015</v>
+        <v>3.9679456691762267</v>
       </c>
       <c r="F397" t="n">
-        <v>4.173899534748062</v>
+        <v>3.9800578330340035</v>
       </c>
       <c r="G397" t="n">
-        <v>4.157159052404491</v>
+        <v>3.963121419255244</v>
       </c>
       <c r="H397" t="n">
-        <v>3.9746893925063813</v>
+        <v>3.699962957314105</v>
       </c>
       <c r="I397" t="n">
-        <v>4.094760368100705</v>
+        <v>4.009430956951261</v>
       </c>
       <c r="J397" t="n">
-        <v>3.8365628747682288</v>
+        <v>4.049276232443142</v>
       </c>
       <c r="K397" t="n">
-        <v>4.1342307306239015</v>
+        <v>3.9131661065991628</v>
       </c>
       <c r="L397" t="n">
-        <v>4.173899534748062</v>
+        <v>4.1002105232526835</v>
       </c>
     </row>
     <row r="398">
@@ -15189,37 +15189,37 @@
         <v>397.0</v>
       </c>
       <c r="B398" t="n">
-        <v>5.800805810283939</v>
+        <v>5.858813868386779</v>
       </c>
       <c r="C398" t="n">
-        <v>5.976041745496176</v>
+        <v>5.998786130650058</v>
       </c>
       <c r="D398" t="n">
-        <v>5.599218962224723</v>
+        <v>5.649901336836973</v>
       </c>
       <c r="E398" t="n">
-        <v>6.033646223644894</v>
+        <v>6.090064069942637</v>
       </c>
       <c r="F398" t="n">
-        <v>6.091540314660982</v>
+        <v>6.108654005407861</v>
       </c>
       <c r="G398" t="n">
-        <v>6.067108647766802</v>
+        <v>6.082659736930612</v>
       </c>
       <c r="H398" t="n">
-        <v>5.800805810283939</v>
+        <v>5.678760080184098</v>
       </c>
       <c r="I398" t="n">
-        <v>5.976041745496176</v>
+        <v>6.153736327975954</v>
       </c>
       <c r="J398" t="n">
-        <v>5.599218962224723</v>
+        <v>6.214891469921343</v>
       </c>
       <c r="K398" t="n">
-        <v>6.033646223644894</v>
+        <v>6.0059875543770875</v>
       </c>
       <c r="L398" t="n">
-        <v>6.091540314660982</v>
+        <v>6.293066203208858</v>
       </c>
     </row>
     <row r="399">
@@ -15379,37 +15379,37 @@
         <v>402.0</v>
       </c>
       <c r="B403" t="n">
-        <v>4.196026037211825</v>
+        <v>4.2379862975839435</v>
       </c>
       <c r="C403" t="n">
-        <v>4.322783348325766</v>
+        <v>4.339235550903702</v>
       </c>
       <c r="D403" t="n">
-        <v>4.050207733534714</v>
+        <v>4.086868944141645</v>
       </c>
       <c r="E403" t="n">
-        <v>4.364451678222881</v>
+        <v>4.405261655279699</v>
       </c>
       <c r="F403" t="n">
-        <v>4.406329500244357</v>
+        <v>4.418708727254404</v>
       </c>
       <c r="G403" t="n">
-        <v>4.38865679859337</v>
+        <v>4.39990571420483</v>
       </c>
       <c r="H403" t="n">
-        <v>4.196026037211825</v>
+        <v>4.107743981584041</v>
       </c>
       <c r="I403" t="n">
-        <v>4.322783348325766</v>
+        <v>4.4513191275160935</v>
       </c>
       <c r="J403" t="n">
-        <v>4.050207733534714</v>
+        <v>4.495555838122284</v>
       </c>
       <c r="K403" t="n">
-        <v>4.364451678222881</v>
+        <v>4.344444717087137</v>
       </c>
       <c r="L403" t="n">
-        <v>4.406329500244357</v>
+        <v>4.552103708720705</v>
       </c>
     </row>
     <row r="404">
@@ -15493,37 +15493,37 @@
         <v>405.0</v>
       </c>
       <c r="B406" t="n">
-        <v>1.5476189251572667</v>
+        <v>1.5634109550058104</v>
       </c>
       <c r="C406" t="n">
-        <v>1.4206257805125104</v>
+        <v>1.4463502341498706</v>
       </c>
       <c r="D406" t="n">
-        <v>1.497142599979644</v>
+        <v>1.5108745497056204</v>
       </c>
       <c r="E406" t="n">
-        <v>1.4421370236038984</v>
+        <v>1.4800053755621063</v>
       </c>
       <c r="F406" t="n">
-        <v>1.5464465593544587</v>
+        <v>1.5871999228290237</v>
       </c>
       <c r="G406" t="n">
-        <v>1.6106733259024664</v>
+        <v>1.6401065862982156</v>
       </c>
       <c r="H406" t="n">
-        <v>1.5476189251572667</v>
+        <v>1.5920448544745585</v>
       </c>
       <c r="I406" t="n">
-        <v>1.4206257805125104</v>
+        <v>1.6037942643459893</v>
       </c>
       <c r="J406" t="n">
-        <v>1.497142599979644</v>
+        <v>1.4536061722675149</v>
       </c>
       <c r="K406" t="n">
-        <v>1.4421370236038984</v>
+        <v>1.4463502341498706</v>
       </c>
       <c r="L406" t="n">
-        <v>1.5464465593544587</v>
+        <v>1.585270196532171</v>
       </c>
     </row>
     <row r="407">
@@ -15531,37 +15531,37 @@
         <v>406.0</v>
       </c>
       <c r="B407" t="n">
-        <v>5.098943522553296</v>
+        <v>5.04943921650909</v>
       </c>
       <c r="C407" t="n">
-        <v>4.6805389258084915</v>
+        <v>4.671361403564119</v>
       </c>
       <c r="D407" t="n">
-        <v>4.932639061472491</v>
+        <v>4.87975933524191</v>
       </c>
       <c r="E407" t="n">
-        <v>4.75141206637296</v>
+        <v>4.780059369597925</v>
       </c>
       <c r="F407" t="n">
-        <v>5.095080926329434</v>
+        <v>5.126271828345534</v>
       </c>
       <c r="G407" t="n">
-        <v>5.306688997244712</v>
+        <v>5.297147553938102</v>
       </c>
       <c r="H407" t="n">
-        <v>5.098943522553296</v>
+        <v>5.141919785636571</v>
       </c>
       <c r="I407" t="n">
-        <v>4.6805389258084915</v>
+        <v>5.1798675374964915</v>
       </c>
       <c r="J407" t="n">
-        <v>4.932639061472491</v>
+        <v>4.694796328569912</v>
       </c>
       <c r="K407" t="n">
-        <v>4.75141206637296</v>
+        <v>4.671361403564119</v>
       </c>
       <c r="L407" t="n">
-        <v>5.095080926329434</v>
+        <v>5.120039279181633</v>
       </c>
     </row>
     <row r="408">
@@ -15645,37 +15645,37 @@
         <v>409.0</v>
       </c>
       <c r="B410" t="n">
-        <v>2.177897252038335</v>
+        <v>2.1561182795179517</v>
       </c>
       <c r="C410" t="n">
-        <v>1.9991852860280872</v>
+        <v>1.994678474300454</v>
       </c>
       <c r="D410" t="n">
-        <v>2.1068641003300312</v>
+        <v>2.0836647103234833</v>
       </c>
       <c r="E410" t="n">
-        <v>2.0294571290865466</v>
+        <v>2.0410926722861737</v>
       </c>
       <c r="F410" t="n">
-        <v>2.176247432293426</v>
+        <v>2.188925922454229</v>
       </c>
       <c r="G410" t="n">
-        <v>2.266630986085907</v>
+        <v>2.261890119007275</v>
       </c>
       <c r="H410" t="n">
-        <v>2.177897252038335</v>
+        <v>2.1956076241849893</v>
       </c>
       <c r="I410" t="n">
-        <v>1.9991852860280872</v>
+        <v>2.2118113723525634</v>
       </c>
       <c r="J410" t="n">
-        <v>2.1068641003300312</v>
+        <v>2.0046852231724714</v>
       </c>
       <c r="K410" t="n">
-        <v>2.0294571290865466</v>
+        <v>1.994678474300454</v>
       </c>
       <c r="L410" t="n">
-        <v>2.176247432293426</v>
+        <v>2.1862646144150415</v>
       </c>
     </row>
     <row r="411">
@@ -15800,34 +15800,34 @@
         <v>3.1174417442572486</v>
       </c>
       <c r="C414" t="n">
-        <v>2.8616334674814703</v>
+        <v>2.8840226444097645</v>
       </c>
       <c r="D414" t="n">
-        <v>3.0157649033712186</v>
+        <v>3.0126841420083754</v>
       </c>
       <c r="E414" t="n">
-        <v>2.9049645783213975</v>
+        <v>2.951131002843261</v>
       </c>
       <c r="F414" t="n">
-        <v>3.1150801925639975</v>
+        <v>3.1648769506611862</v>
       </c>
       <c r="G414" t="n">
-        <v>3.244455195596528</v>
+        <v>3.270372847770092</v>
       </c>
       <c r="H414" t="n">
-        <v>3.1174417442572486</v>
+        <v>3.174537745291992</v>
       </c>
       <c r="I414" t="n">
-        <v>2.8616334674814703</v>
+        <v>3.1979660708300144</v>
       </c>
       <c r="J414" t="n">
-        <v>3.0157649033712186</v>
+        <v>2.8984909864085626</v>
       </c>
       <c r="K414" t="n">
-        <v>2.9049645783213975</v>
+        <v>2.8840226444097645</v>
       </c>
       <c r="L414" t="n">
-        <v>3.1150801925639975</v>
+        <v>3.1610290760550006</v>
       </c>
     </row>
     <row r="415">
@@ -15873,37 +15873,37 @@
         <v>415.0</v>
       </c>
       <c r="B416" t="n">
-        <v>5.119560893331818</v>
+        <v>5.068872171615661</v>
       </c>
       <c r="C416" t="n">
-        <v>4.699464494615023</v>
+        <v>4.689339312109929</v>
       </c>
       <c r="D416" t="n">
-        <v>4.952583986925612</v>
+        <v>4.898539270998456</v>
       </c>
       <c r="E416" t="n">
-        <v>4.770624207841218</v>
+        <v>4.798455606319111</v>
       </c>
       <c r="F416" t="n">
-        <v>5.115682678857202</v>
+        <v>5.146000476623667</v>
       </c>
       <c r="G416" t="n">
-        <v>5.328146378401919</v>
+        <v>5.317533823817736</v>
       </c>
       <c r="H416" t="n">
-        <v>5.119560893331818</v>
+        <v>5.161708655661815</v>
       </c>
       <c r="I416" t="n">
-        <v>4.699464494615023</v>
+        <v>5.199802450859751</v>
       </c>
       <c r="J416" t="n">
-        <v>4.952583986925612</v>
+        <v>4.712864427298441</v>
       </c>
       <c r="K416" t="n">
-        <v>4.770624207841218</v>
+        <v>4.689339312109929</v>
       </c>
       <c r="L416" t="n">
-        <v>5.115682678857202</v>
+        <v>5.13974394126191</v>
       </c>
     </row>
     <row r="417">
@@ -16025,37 +16025,37 @@
         <v>419.0</v>
       </c>
       <c r="B420" t="n">
-        <v>1.6227375520698308</v>
+        <v>1.6392960985195228</v>
       </c>
       <c r="C420" t="n">
-        <v>1.8012377939509225</v>
+        <v>1.8055289349458432</v>
       </c>
       <c r="D420" t="n">
-        <v>1.6122717628995265</v>
+        <v>1.630254200819771</v>
       </c>
       <c r="E420" t="n">
-        <v>1.639244863597863</v>
+        <v>1.647519992543604</v>
       </c>
       <c r="F420" t="n">
-        <v>1.7932602052637139</v>
+        <v>1.8177434609506498</v>
       </c>
       <c r="G420" t="n">
-        <v>1.7705649485779025</v>
+        <v>1.7719729415538918</v>
       </c>
       <c r="H420" t="n">
-        <v>1.6227375520698308</v>
+        <v>1.6002441080661616</v>
       </c>
       <c r="I420" t="n">
-        <v>1.8012377939509225</v>
+        <v>1.774100159912246</v>
       </c>
       <c r="J420" t="n">
-        <v>1.6122717628995265</v>
+        <v>1.7124280801466114</v>
       </c>
       <c r="K420" t="n">
-        <v>1.639244863597863</v>
+        <v>1.6392960985195228</v>
       </c>
       <c r="L420" t="n">
-        <v>1.7932602052637139</v>
+        <v>1.8044266575185517</v>
       </c>
     </row>
     <row r="421">
@@ -16139,37 +16139,37 @@
         <v>422.0</v>
       </c>
       <c r="B423" t="n">
-        <v>1.8491163375174182</v>
+        <v>1.8679848715737186</v>
       </c>
       <c r="C423" t="n">
-        <v>2.0525181217998676</v>
+        <v>2.0574078952017207</v>
       </c>
       <c r="D423" t="n">
-        <v>1.8371905262763226</v>
+        <v>1.8576815907151187</v>
       </c>
       <c r="E423" t="n">
-        <v>1.867926489162729</v>
+        <v>1.8773560337672253</v>
       </c>
       <c r="F423" t="n">
-        <v>2.0434276255845703</v>
+        <v>2.0713263994981856</v>
       </c>
       <c r="G423" t="n">
-        <v>2.017566284132062</v>
+        <v>2.019170698112432</v>
       </c>
       <c r="H423" t="n">
-        <v>1.8491163375174182</v>
+        <v>1.8234849624739526</v>
       </c>
       <c r="I423" t="n">
-        <v>2.0525181217998676</v>
+        <v>2.0215946724728466</v>
       </c>
       <c r="J423" t="n">
-        <v>1.8371905262763226</v>
+        <v>1.9513190754621943</v>
       </c>
       <c r="K423" t="n">
-        <v>1.867926489162729</v>
+        <v>1.8679848715737186</v>
       </c>
       <c r="L423" t="n">
-        <v>2.0434276255845703</v>
+        <v>2.0561518453884395</v>
       </c>
     </row>
     <row r="424">
@@ -16215,37 +16215,37 @@
         <v>424.0</v>
       </c>
       <c r="B425" t="n">
-        <v>2.242424229558253</v>
+        <v>2.220222009463617</v>
       </c>
       <c r="C425" t="n">
-        <v>2.4110893479417386</v>
+        <v>2.4011183942643015</v>
       </c>
       <c r="D425" t="n">
-        <v>2.3073865377504212</v>
+        <v>2.2744037985299705</v>
       </c>
       <c r="E425" t="n">
-        <v>2.3267185618455444</v>
+        <v>2.315499746264023</v>
       </c>
       <c r="F425" t="n">
-        <v>2.3646003818486956</v>
+        <v>2.327326928530391</v>
       </c>
       <c r="G425" t="n">
-        <v>2.4578353135430646</v>
+        <v>2.3758690902224786</v>
       </c>
       <c r="H425" t="n">
-        <v>2.242424229558253</v>
+        <v>2.579088081016036</v>
       </c>
       <c r="I425" t="n">
-        <v>2.4110893479417386</v>
+        <v>2.2744037985299705</v>
       </c>
       <c r="J425" t="n">
-        <v>2.3073865377504212</v>
+        <v>2.1766189214968605</v>
       </c>
       <c r="K425" t="n">
-        <v>2.3267185618455444</v>
+        <v>2.4958916922571235</v>
       </c>
       <c r="L425" t="n">
-        <v>2.3646003818486956</v>
+        <v>2.5219865014459053</v>
       </c>
     </row>
     <row r="426">
@@ -16329,37 +16329,37 @@
         <v>427.0</v>
       </c>
       <c r="B428" t="n">
-        <v>2.1170345764824945</v>
+        <v>2.1384187641237316</v>
       </c>
       <c r="C428" t="n">
-        <v>2.349907220300192</v>
+        <v>2.355265139192025</v>
       </c>
       <c r="D428" t="n">
-        <v>2.1033808359158517</v>
+        <v>2.126623845730466</v>
       </c>
       <c r="E428" t="n">
-        <v>2.138570128688726</v>
+        <v>2.149146618177153</v>
       </c>
       <c r="F428" t="n">
-        <v>2.3394996032050956</v>
+        <v>2.3711986679957264</v>
       </c>
       <c r="G428" t="n">
-        <v>2.309891215166793</v>
+        <v>2.311492225937998</v>
       </c>
       <c r="H428" t="n">
-        <v>2.1170345764824945</v>
+        <v>2.0874764668552475</v>
       </c>
       <c r="I428" t="n">
-        <v>2.349907220300192</v>
+        <v>2.3142671264925716</v>
       </c>
       <c r="J428" t="n">
-        <v>2.1033808359158517</v>
+        <v>2.2338175160088576</v>
       </c>
       <c r="K428" t="n">
-        <v>2.138570128688726</v>
+        <v>2.1384187641237316</v>
       </c>
       <c r="L428" t="n">
-        <v>2.3394996032050956</v>
+        <v>2.353827247199286</v>
       </c>
     </row>
     <row r="429">
@@ -16367,37 +16367,37 @@
         <v>428.0</v>
       </c>
       <c r="B429" t="n">
-        <v>6.143294405160234</v>
+        <v>6.021645010998646</v>
       </c>
       <c r="C429" t="n">
-        <v>6.782017901051096</v>
+        <v>6.643807597144651</v>
       </c>
       <c r="D429" t="n">
-        <v>6.7146851856684835</v>
+        <v>6.476517475614298</v>
       </c>
       <c r="E429" t="n">
-        <v>7.052607985842916</v>
+        <v>6.794233425331872</v>
       </c>
       <c r="F429" t="n">
-        <v>6.934232769564076</v>
+        <v>6.643807597144651</v>
       </c>
       <c r="G429" t="n">
-        <v>6.168109636024543</v>
+        <v>5.991586880811932</v>
       </c>
       <c r="H429" t="n">
-        <v>6.143294405160234</v>
+        <v>6.0998481937138145</v>
       </c>
       <c r="I429" t="n">
-        <v>6.782017901051096</v>
+        <v>6.709833012438137</v>
       </c>
       <c r="J429" t="n">
-        <v>6.7146851856684835</v>
+        <v>6.484292406342215</v>
       </c>
       <c r="K429" t="n">
-        <v>7.052607985842916</v>
+        <v>6.599163805317275</v>
       </c>
       <c r="L429" t="n">
-        <v>6.934232769564076</v>
+        <v>6.258882473158163</v>
       </c>
     </row>
     <row r="430">
@@ -17016,34 +17016,34 @@
         <v>1.565584911690323</v>
       </c>
       <c r="C446" t="n">
-        <v>1.4630066938949922</v>
+        <v>1.446624771039943</v>
       </c>
       <c r="D446" t="n">
-        <v>1.6079440186895035</v>
+        <v>1.6040986862482736</v>
       </c>
       <c r="E446" t="n">
-        <v>1.4064308140890633</v>
+        <v>1.3844291198364842</v>
       </c>
       <c r="F446" t="n">
-        <v>1.4452740286281887</v>
+        <v>1.4538820864330482</v>
       </c>
       <c r="G446" t="n">
-        <v>1.5291212018025753</v>
+        <v>1.527221045615317</v>
       </c>
       <c r="H446" t="n">
-        <v>1.565584911690323</v>
+        <v>1.4386455943668066</v>
       </c>
       <c r="I446" t="n">
-        <v>1.4630066938949922</v>
+        <v>1.5111613341858743</v>
       </c>
       <c r="J446" t="n">
-        <v>1.6079440186895035</v>
+        <v>1.5923470461795022</v>
       </c>
       <c r="K446" t="n">
-        <v>1.4064308140890633</v>
+        <v>1.6404179007716797</v>
       </c>
       <c r="L446" t="n">
-        <v>1.4452740286281887</v>
+        <v>1.59331976967486</v>
       </c>
     </row>
     <row r="447">
@@ -17051,37 +17051,37 @@
         <v>446.0</v>
       </c>
       <c r="B447" t="n">
-        <v>0.7628459575064043</v>
+        <v>0.7706300999299391</v>
       </c>
       <c r="C447" t="n">
-        <v>0.7128637571229746</v>
+        <v>0.712074179779876</v>
       </c>
       <c r="D447" t="n">
-        <v>0.7834858303722061</v>
+        <v>0.7895877902568265</v>
       </c>
       <c r="E447" t="n">
-        <v>0.6852966281349189</v>
+        <v>0.6814595254457457</v>
       </c>
       <c r="F447" t="n">
-        <v>0.7042233493663681</v>
+        <v>0.7156464585140735</v>
       </c>
       <c r="G447" t="n">
-        <v>0.7450786722727197</v>
+        <v>0.7517461992699864</v>
       </c>
       <c r="H447" t="n">
-        <v>0.7628459575064043</v>
+        <v>0.7081465782355185</v>
       </c>
       <c r="I447" t="n">
-        <v>0.7128637571229746</v>
+        <v>0.7438411045470465</v>
       </c>
       <c r="J447" t="n">
-        <v>0.7834858303722061</v>
+        <v>0.7838032636604629</v>
       </c>
       <c r="K447" t="n">
-        <v>0.6852966281349189</v>
+        <v>0.807465249159602</v>
       </c>
       <c r="L447" t="n">
-        <v>0.7042233493663681</v>
+        <v>0.7842820687376162</v>
       </c>
     </row>
     <row r="448">
@@ -17130,34 +17130,34 @@
         <v>1.5522594387179116</v>
       </c>
       <c r="C449" t="n">
-        <v>1.4505543152265579</v>
+        <v>1.434311827076462</v>
       </c>
       <c r="D449" t="n">
-        <v>1.5942580062591305</v>
+        <v>1.5904454033575972</v>
       </c>
       <c r="E449" t="n">
-        <v>1.3944599809130613</v>
+        <v>1.3726455540389046</v>
       </c>
       <c r="F449" t="n">
-        <v>1.4329725815061543</v>
+        <v>1.4415073718435214</v>
       </c>
       <c r="G449" t="n">
-        <v>1.5161060896269207</v>
+        <v>1.5142221066154051</v>
       </c>
       <c r="H449" t="n">
-        <v>1.5522594387179116</v>
+        <v>1.4264005651502718</v>
       </c>
       <c r="I449" t="n">
-        <v>1.4505543152265579</v>
+        <v>1.4982990873889848</v>
       </c>
       <c r="J449" t="n">
-        <v>1.5942580062591305</v>
+        <v>1.5787937873507267</v>
       </c>
       <c r="K449" t="n">
-        <v>1.3944599809130613</v>
+        <v>1.6264554869562629</v>
       </c>
       <c r="L449" t="n">
-        <v>1.4329725815061543</v>
+        <v>1.5797582315119199</v>
       </c>
     </row>
     <row r="450">
@@ -17165,37 +17165,37 @@
         <v>449.0</v>
       </c>
       <c r="B450" t="n">
-        <v>2.1319425630762647</v>
+        <v>2.0893037118147393</v>
       </c>
       <c r="C450" t="n">
-        <v>1.9922561960645524</v>
+        <v>1.9305490754082755</v>
       </c>
       <c r="D450" t="n">
-        <v>2.189625274803444</v>
+        <v>2.1407010978901093</v>
       </c>
       <c r="E450" t="n">
-        <v>1.9152137275908878</v>
+        <v>1.8475477613640425</v>
       </c>
       <c r="F450" t="n">
-        <v>1.9681086563451864</v>
+        <v>1.9402341048662142</v>
       </c>
       <c r="G450" t="n">
-        <v>2.082287935890683</v>
+        <v>2.0381063815443974</v>
       </c>
       <c r="H450" t="n">
-        <v>2.1319425630762647</v>
+        <v>1.9199007079413137</v>
       </c>
       <c r="I450" t="n">
-        <v>1.9922561960645524</v>
+        <v>2.0166743822643443</v>
       </c>
       <c r="J450" t="n">
-        <v>2.189625274803444</v>
+        <v>2.125018304173679</v>
       </c>
       <c r="K450" t="n">
-        <v>1.9152137275908878</v>
+        <v>2.189169800639691</v>
       </c>
       <c r="L450" t="n">
-        <v>1.9681086563451864</v>
+        <v>2.1263164227198184</v>
       </c>
     </row>
     <row r="451">
@@ -17241,37 +17241,37 @@
         <v>451.0</v>
       </c>
       <c r="B452" t="n">
-        <v>2.348957048434516</v>
+        <v>2.325700047954966</v>
       </c>
       <c r="C452" t="n">
-        <v>2.195051740643804</v>
+        <v>2.148982961101715</v>
       </c>
       <c r="D452" t="n">
-        <v>2.412511393017263</v>
+        <v>2.3829128421429506</v>
       </c>
       <c r="E452" t="n">
-        <v>2.1101669728811676</v>
+        <v>2.056590381238192</v>
       </c>
       <c r="F452" t="n">
-        <v>2.168446176962805</v>
+        <v>2.1597638128024035</v>
       </c>
       <c r="G452" t="n">
-        <v>2.294247982376629</v>
+        <v>2.268709945084054</v>
       </c>
       <c r="H452" t="n">
-        <v>2.348957048434516</v>
+        <v>2.1371297735596104</v>
       </c>
       <c r="I452" t="n">
-        <v>2.195051740643804</v>
+        <v>2.2448530010354095</v>
       </c>
       <c r="J452" t="n">
-        <v>2.412511393017263</v>
+        <v>2.3654556032110916</v>
       </c>
       <c r="K452" t="n">
-        <v>2.1101669728811676</v>
+        <v>2.436865584231896</v>
       </c>
       <c r="L452" t="n">
-        <v>2.168446176962805</v>
+        <v>2.3669005986648086</v>
       </c>
     </row>
     <row r="453">
@@ -17396,34 +17396,34 @@
         <v>1.77754450733055</v>
       </c>
       <c r="C456" t="n">
-        <v>1.636303159370999</v>
+        <v>1.649071499562843</v>
       </c>
       <c r="D456" t="n">
-        <v>1.8116084250652678</v>
+        <v>1.7961289214248213</v>
       </c>
       <c r="E456" t="n">
-        <v>1.7230942262642404</v>
+        <v>1.7100480867882009</v>
       </c>
       <c r="F456" t="n">
-        <v>1.7926834885263392</v>
+        <v>1.7509026530304026</v>
       </c>
       <c r="G456" t="n">
-        <v>1.7969642276017963</v>
+        <v>1.753004576925443</v>
       </c>
       <c r="H456" t="n">
-        <v>1.77754450733055</v>
+        <v>1.8139786493441976</v>
       </c>
       <c r="I456" t="n">
-        <v>1.636303159370999</v>
+        <v>1.7753833590528287</v>
       </c>
       <c r="J456" t="n">
-        <v>1.8116084250652678</v>
+        <v>1.7961289214248213</v>
       </c>
       <c r="K456" t="n">
-        <v>1.7230942262642404</v>
+        <v>1.5812158236752052</v>
       </c>
       <c r="L456" t="n">
-        <v>1.7926834885263392</v>
+        <v>1.6574946787176112</v>
       </c>
     </row>
     <row r="457">
@@ -17469,37 +17469,37 @@
         <v>457.0</v>
       </c>
       <c r="B458" t="n">
-        <v>3.1454443987729666</v>
+        <v>3.082535510797507</v>
       </c>
       <c r="C458" t="n">
-        <v>2.895511525091116</v>
+        <v>2.859743559884473</v>
       </c>
       <c r="D458" t="n">
-        <v>3.2057220226507726</v>
+        <v>3.1147637425839436</v>
       </c>
       <c r="E458" t="n">
-        <v>3.0490921944341594</v>
+        <v>2.9654863385739825</v>
       </c>
       <c r="F458" t="n">
-        <v>3.172233502173216</v>
+        <v>3.036334438692129</v>
       </c>
       <c r="G458" t="n">
-        <v>3.1798084611641033</v>
+        <v>3.0399794979414105</v>
       </c>
       <c r="H458" t="n">
-        <v>3.1454443987729666</v>
+        <v>3.1457179155695654</v>
       </c>
       <c r="I458" t="n">
-        <v>2.895511525091116</v>
+        <v>3.078787747361654</v>
       </c>
       <c r="J458" t="n">
-        <v>3.2057220226507726</v>
+        <v>3.1147637425839436</v>
       </c>
       <c r="K458" t="n">
-        <v>3.0490921944341594</v>
+        <v>2.742071383649106</v>
       </c>
       <c r="L458" t="n">
-        <v>3.172233502173216</v>
+        <v>2.8743506477808967</v>
       </c>
     </row>
     <row r="459">
@@ -17548,34 +17548,34 @@
         <v>1.997807807950692</v>
       </c>
       <c r="C460" t="n">
-        <v>2.0249160127208103</v>
+        <v>2.011323113604629</v>
       </c>
       <c r="D460" t="n">
-        <v>1.7926567188755216</v>
+        <v>1.8138720913180173</v>
       </c>
       <c r="E460" t="n">
-        <v>1.8027073399400715</v>
+        <v>1.8038672813846903</v>
       </c>
       <c r="F460" t="n">
-        <v>1.7636365270812189</v>
+        <v>1.735887144441846</v>
       </c>
       <c r="G460" t="n">
-        <v>1.8215797497524986</v>
+        <v>1.8138720913180173</v>
       </c>
       <c r="H460" t="n">
-        <v>1.997807807950692</v>
+        <v>2.011323113604629</v>
       </c>
       <c r="I460" t="n">
-        <v>2.0249160127208103</v>
+        <v>1.914928934836176</v>
       </c>
       <c r="J460" t="n">
-        <v>1.7926567188755216</v>
+        <v>1.9880920255653496</v>
       </c>
       <c r="K460" t="n">
-        <v>1.8027073399400715</v>
+        <v>1.822971784695992</v>
       </c>
       <c r="L460" t="n">
-        <v>1.7636365270812189</v>
+        <v>1.9606782863437766</v>
       </c>
     </row>
     <row r="461">
@@ -17583,37 +17583,37 @@
         <v>460.0</v>
       </c>
       <c r="B461" t="n">
-        <v>2.0668628787222536</v>
+        <v>2.08774028153763</v>
       </c>
       <c r="C461" t="n">
-        <v>1.9026326736081813</v>
+        <v>1.9368477034329392</v>
       </c>
       <c r="D461" t="n">
-        <v>2.106471139882178</v>
+        <v>2.109567824956868</v>
       </c>
       <c r="E461" t="n">
-        <v>2.0035501097829496</v>
+        <v>2.008465194222102</v>
       </c>
       <c r="F461" t="n">
-        <v>2.0844659250179784</v>
+        <v>2.0564492099678926</v>
       </c>
       <c r="G461" t="n">
-        <v>2.089443409774096</v>
+        <v>2.058917936442141</v>
       </c>
       <c r="H461" t="n">
-        <v>2.0668628787222536</v>
+        <v>2.130532473570777</v>
       </c>
       <c r="I461" t="n">
-        <v>1.9026326736081813</v>
+        <v>2.085201995550884</v>
       </c>
       <c r="J461" t="n">
-        <v>2.106471139882178</v>
+        <v>2.109567824956868</v>
       </c>
       <c r="K461" t="n">
-        <v>2.0035501097829496</v>
+        <v>1.8571506678327843</v>
       </c>
       <c r="L461" t="n">
-        <v>2.0844659250179784</v>
+        <v>1.9467407949125033</v>
       </c>
     </row>
     <row r="462">
@@ -17773,37 +17773,37 @@
         <v>465.0</v>
       </c>
       <c r="B466" t="n">
-        <v>2.0341540484698375</v>
+        <v>2.013812507985139</v>
       </c>
       <c r="C466" t="n">
-        <v>1.8725228439748656</v>
+        <v>1.8682631004096193</v>
       </c>
       <c r="D466" t="n">
-        <v>2.073135494999623</v>
+        <v>2.034867128784943</v>
       </c>
       <c r="E466" t="n">
-        <v>1.9718432263134402</v>
+        <v>1.937344585313242</v>
       </c>
       <c r="F466" t="n">
-        <v>2.0514785203815813</v>
+        <v>1.9836294666017609</v>
       </c>
       <c r="G466" t="n">
-        <v>2.056377234694992</v>
+        <v>1.986010774418926</v>
       </c>
       <c r="H466" t="n">
-        <v>2.0341540484698375</v>
+        <v>2.0550894102524</v>
       </c>
       <c r="I466" t="n">
-        <v>1.8725228439748656</v>
+        <v>2.011364103787473</v>
       </c>
       <c r="J466" t="n">
-        <v>2.073135494999623</v>
+        <v>2.034867128784943</v>
       </c>
       <c r="K466" t="n">
-        <v>1.9718432263134402</v>
+        <v>1.7913881708217665</v>
       </c>
       <c r="L466" t="n">
-        <v>2.0514785203815813</v>
+        <v>1.8778058733016163</v>
       </c>
     </row>
     <row r="467">
@@ -17849,37 +17849,37 @@
         <v>467.0</v>
       </c>
       <c r="B468" t="n">
-        <v>2.7424293690980868</v>
+        <v>2.7150050754071056</v>
       </c>
       <c r="C468" t="n">
-        <v>2.8323500582858543</v>
+        <v>2.8213290478022337</v>
       </c>
       <c r="D468" t="n">
-        <v>2.752653329967706</v>
+        <v>2.7693933764385767</v>
       </c>
       <c r="E468" t="n">
-        <v>3.122058231976067</v>
+        <v>3.109464781203779</v>
       </c>
       <c r="F468" t="n">
-        <v>3.082663021216577</v>
+        <v>3.1246606990790955</v>
       </c>
       <c r="G468" t="n">
-        <v>2.890239907216092</v>
+        <v>2.888238037959993</v>
       </c>
       <c r="H468" t="n">
-        <v>2.7424293690980868</v>
+        <v>2.96353972427148</v>
       </c>
       <c r="I468" t="n">
-        <v>2.8323500582858543</v>
+        <v>3.122753090239449</v>
       </c>
       <c r="J468" t="n">
-        <v>2.752653329967706</v>
+        <v>2.8369770176800224</v>
       </c>
       <c r="K468" t="n">
-        <v>3.122058231976067</v>
+        <v>3.1457992411574827</v>
       </c>
       <c r="L468" t="n">
-        <v>3.082663021216577</v>
+        <v>3.1132498873456544</v>
       </c>
     </row>
     <row r="469">
@@ -17966,34 +17966,34 @@
         <v>1.4469515548527803</v>
       </c>
       <c r="C471" t="n">
-        <v>1.4707911245589127</v>
+        <v>1.4622760141720705</v>
       </c>
       <c r="D471" t="n">
-        <v>1.6187990814084416</v>
+        <v>1.6293932729789116</v>
       </c>
       <c r="E471" t="n">
-        <v>1.5903855141467642</v>
+        <v>1.6025187350769432</v>
       </c>
       <c r="F471" t="n">
-        <v>1.5961827885091642</v>
+        <v>1.5947253311086143</v>
       </c>
       <c r="G471" t="n">
-        <v>1.4869825802147298</v>
+        <v>1.4888326720257694</v>
       </c>
       <c r="H471" t="n">
-        <v>1.4469515548527803</v>
+        <v>1.61335988327675</v>
       </c>
       <c r="I471" t="n">
-        <v>1.4707911245589127</v>
+        <v>1.5966665670029299</v>
       </c>
       <c r="J471" t="n">
-        <v>1.6187990814084416</v>
+        <v>1.6498887852741904</v>
       </c>
       <c r="K471" t="n">
-        <v>1.5903855141467642</v>
+        <v>1.601540395602954</v>
       </c>
       <c r="L471" t="n">
-        <v>1.5961827885091642</v>
+        <v>1.454976798970475</v>
       </c>
     </row>
     <row r="472">
@@ -18039,37 +18039,37 @@
         <v>472.0</v>
       </c>
       <c r="B473" t="n">
-        <v>5.677293997310271</v>
+        <v>5.790839877256476</v>
       </c>
       <c r="C473" t="n">
-        <v>5.863445077338855</v>
+        <v>6.017618495400202</v>
       </c>
       <c r="D473" t="n">
-        <v>5.698459330619444</v>
+        <v>5.9068447957452745</v>
       </c>
       <c r="E473" t="n">
-        <v>6.463190140601536</v>
+        <v>6.632183790381839</v>
       </c>
       <c r="F473" t="n">
-        <v>6.381635371648205</v>
+        <v>6.6645951946922715</v>
       </c>
       <c r="G473" t="n">
-        <v>5.9832868845847145</v>
+        <v>6.160328817330048</v>
       </c>
       <c r="H473" t="n">
-        <v>5.677293997310271</v>
+        <v>6.320939938048426</v>
       </c>
       <c r="I473" t="n">
-        <v>5.863445077338855</v>
+        <v>6.660526451897316</v>
       </c>
       <c r="J473" t="n">
-        <v>5.698459330619444</v>
+        <v>6.05099408235111</v>
       </c>
       <c r="K473" t="n">
-        <v>6.463190140601536</v>
+        <v>6.709681634317522</v>
       </c>
       <c r="L473" t="n">
-        <v>6.381635371648205</v>
+        <v>6.640257051012018</v>
       </c>
     </row>
     <row r="474">
@@ -18118,34 +18118,34 @@
         <v>1.3909586659790323</v>
       </c>
       <c r="C475" t="n">
-        <v>1.4365663900232315</v>
+        <v>1.4454308480548403</v>
       </c>
       <c r="D475" t="n">
-        <v>1.3961442533026194</v>
+        <v>1.4188230259144397</v>
       </c>
       <c r="E475" t="n">
-        <v>1.5835062162007374</v>
+        <v>1.5930493180840382</v>
       </c>
       <c r="F475" t="n">
-        <v>1.5635249869951866</v>
+        <v>1.6008345313963954</v>
       </c>
       <c r="G475" t="n">
-        <v>1.4659280895255282</v>
+        <v>1.4797098409506033</v>
       </c>
       <c r="H475" t="n">
-        <v>1.3909586659790323</v>
+        <v>1.518288602399914</v>
       </c>
       <c r="I475" t="n">
-        <v>1.4365663900232315</v>
+        <v>1.5998572201306305</v>
       </c>
       <c r="J475" t="n">
-        <v>1.3961442533026194</v>
+        <v>1.4534476578588609</v>
       </c>
       <c r="K475" t="n">
-        <v>1.5835062162007374</v>
+        <v>1.6116642858437924</v>
       </c>
       <c r="L475" t="n">
-        <v>1.5635249869951866</v>
+        <v>1.5949885137921354</v>
       </c>
     </row>
     <row r="476">
@@ -18381,37 +18381,37 @@
         <v>481.0</v>
       </c>
       <c r="B482" t="n">
-        <v>3.4038018362308566</v>
+        <v>3.370431229993299</v>
       </c>
       <c r="C482" t="n">
-        <v>2.8951105615322588</v>
+        <v>2.844472215899375</v>
       </c>
       <c r="D482" t="n">
-        <v>3.3329849666215208</v>
+        <v>3.261707643172163</v>
       </c>
       <c r="E482" t="n">
-        <v>3.351916397259942</v>
+        <v>3.3285625202164515</v>
       </c>
       <c r="F482" t="n">
-        <v>3.0586722912634103</v>
+        <v>2.9722604856367973</v>
       </c>
       <c r="G482" t="n">
-        <v>2.903825088898998</v>
+        <v>2.9014540656039443</v>
       </c>
       <c r="H482" t="n">
-        <v>3.4038018362308566</v>
+        <v>3.2166780654399836</v>
       </c>
       <c r="I482" t="n">
-        <v>2.8951105615322588</v>
+        <v>2.9871714924206945</v>
       </c>
       <c r="J482" t="n">
-        <v>3.3329849666215208</v>
+        <v>3.2128211374105895</v>
       </c>
       <c r="K482" t="n">
-        <v>3.351916397259942</v>
+        <v>3.0259659277613085</v>
       </c>
       <c r="L482" t="n">
-        <v>3.0586722912634103</v>
+        <v>3.1378549970854777</v>
       </c>
     </row>
     <row r="483">
@@ -18460,34 +18460,34 @@
         <v>1.7606939251918292</v>
       </c>
       <c r="C484" t="n">
-        <v>1.4975617922849114</v>
+        <v>1.4859359557147611</v>
       </c>
       <c r="D484" t="n">
-        <v>1.724062288533354</v>
+        <v>1.7038973476092565</v>
       </c>
       <c r="E484" t="n">
-        <v>1.7338550016594416</v>
+        <v>1.7388219515690766</v>
       </c>
       <c r="F484" t="n">
-        <v>1.5821678174847797</v>
+        <v>1.5526918142040922</v>
       </c>
       <c r="G484" t="n">
-        <v>1.5020695797924608</v>
+        <v>1.5157029468725154</v>
       </c>
       <c r="H484" t="n">
-        <v>1.7606939251918292</v>
+        <v>1.6803741547129103</v>
       </c>
       <c r="I484" t="n">
-        <v>1.4975617922849114</v>
+        <v>1.5604812385451887</v>
       </c>
       <c r="J484" t="n">
-        <v>1.724062288533354</v>
+        <v>1.678359317652648</v>
       </c>
       <c r="K484" t="n">
-        <v>1.7338550016594416</v>
+        <v>1.580747228851599</v>
       </c>
       <c r="L484" t="n">
-        <v>1.5821678174847797</v>
+        <v>1.6391974363209927</v>
       </c>
     </row>
     <row r="485">
@@ -18495,37 +18495,37 @@
         <v>484.0</v>
       </c>
       <c r="B485" t="n">
-        <v>2.539130087563227</v>
+        <v>2.590425644887737</v>
       </c>
       <c r="C485" t="n">
-        <v>2.1596622504172287</v>
+        <v>2.1861872476926454</v>
       </c>
       <c r="D485" t="n">
-        <v>2.4863029099002585</v>
+        <v>2.5068635282661766</v>
       </c>
       <c r="E485" t="n">
-        <v>2.5004251671430184</v>
+        <v>2.5582464452176334</v>
       </c>
       <c r="F485" t="n">
-        <v>2.2816742032617374</v>
+        <v>2.2844019829757354</v>
       </c>
       <c r="G485" t="n">
-        <v>2.1661630162374514</v>
+        <v>2.2299820130194994</v>
       </c>
       <c r="H485" t="n">
-        <v>2.539130087563227</v>
+        <v>2.4722549678250445</v>
       </c>
       <c r="I485" t="n">
-        <v>2.1596622504172287</v>
+        <v>2.295862194363635</v>
       </c>
       <c r="J485" t="n">
-        <v>2.4863029099002585</v>
+        <v>2.4692906334131983</v>
       </c>
       <c r="K485" t="n">
-        <v>2.5004251671430184</v>
+        <v>2.3256785867857603</v>
       </c>
       <c r="L485" t="n">
-        <v>2.2816742032617374</v>
+        <v>2.411673610799505</v>
       </c>
     </row>
     <row r="486">
@@ -18533,37 +18533,37 @@
         <v>485.0</v>
       </c>
       <c r="B486" t="n">
-        <v>2.7159575740081907</v>
+        <v>2.743671426804193</v>
       </c>
       <c r="C486" t="n">
-        <v>2.310063227973225</v>
+        <v>2.315518878905308</v>
       </c>
       <c r="D486" t="n">
-        <v>2.6594514603632184</v>
+        <v>2.6551658979192707</v>
       </c>
       <c r="E486" t="n">
-        <v>2.674557205322263</v>
+        <v>2.7095885528770713</v>
       </c>
       <c r="F486" t="n">
-        <v>2.4405722117668023</v>
+        <v>2.419543853881584</v>
       </c>
       <c r="G486" t="n">
-        <v>2.31701671344164</v>
+        <v>2.36190447831752</v>
       </c>
       <c r="H486" t="n">
-        <v>2.7159575740081907</v>
+        <v>2.6185099458009167</v>
       </c>
       <c r="I486" t="n">
-        <v>2.310063227973225</v>
+        <v>2.431682034567129</v>
       </c>
       <c r="J486" t="n">
-        <v>2.6594514603632184</v>
+        <v>2.6153702457128927</v>
       </c>
       <c r="K486" t="n">
-        <v>2.674557205322263</v>
+        <v>2.4632623210348807</v>
       </c>
       <c r="L486" t="n">
-        <v>2.4405722117668023</v>
+        <v>2.5543446845450974</v>
       </c>
     </row>
     <row r="487">
@@ -18726,34 +18726,34 @@
         <v>2.695640782423774</v>
       </c>
       <c r="C491" t="n">
-        <v>2.2927827396479628</v>
+        <v>2.274983462476676</v>
       </c>
       <c r="D491" t="n">
-        <v>2.6395573642380965</v>
+        <v>2.608684629146311</v>
       </c>
       <c r="E491" t="n">
-        <v>2.65455011027735</v>
+        <v>2.6621545624476552</v>
       </c>
       <c r="F491" t="n">
-        <v>2.4223154475788378</v>
+        <v>2.3771873788046913</v>
       </c>
       <c r="G491" t="n">
-        <v>2.299684209386678</v>
+        <v>2.320557036728741</v>
       </c>
       <c r="H491" t="n">
-        <v>2.695640782423774</v>
+        <v>2.572670375222362</v>
       </c>
       <c r="I491" t="n">
-        <v>2.2927827396479628</v>
+        <v>2.389113068798298</v>
       </c>
       <c r="J491" t="n">
-        <v>2.6395573642380965</v>
+        <v>2.5695856386467018</v>
       </c>
       <c r="K491" t="n">
-        <v>2.65455011027735</v>
+        <v>2.420140511549435</v>
       </c>
       <c r="L491" t="n">
-        <v>2.4223154475788378</v>
+        <v>2.509628389448748</v>
       </c>
     </row>
     <row r="492">
@@ -18840,34 +18840,34 @@
         <v>1.3418281924575735</v>
       </c>
       <c r="C494" t="n">
-        <v>1.339405214113727</v>
+        <v>1.3551631306483778</v>
       </c>
       <c r="D494" t="n">
-        <v>1.3621316204823537</v>
+        <v>1.3722092072874041</v>
       </c>
       <c r="E494" t="n">
-        <v>1.3159241451828882</v>
+        <v>1.3080411512004553</v>
       </c>
       <c r="F494" t="n">
-        <v>1.276353573373061</v>
+        <v>1.2775200632537589</v>
       </c>
       <c r="G494" t="n">
-        <v>1.1945656603051626</v>
+        <v>1.203426718085027</v>
       </c>
       <c r="H494" t="n">
-        <v>1.3418281924575735</v>
+        <v>1.2101012975883962</v>
       </c>
       <c r="I494" t="n">
-        <v>1.339405214113727</v>
+        <v>1.3328116311534914</v>
       </c>
       <c r="J494" t="n">
-        <v>1.3621316204823537</v>
+        <v>1.3279443946552325</v>
       </c>
       <c r="K494" t="n">
-        <v>1.3159241451828882</v>
+        <v>1.264086118233107</v>
       </c>
       <c r="L494" t="n">
-        <v>1.276353573373061</v>
+        <v>1.1580746492602632</v>
       </c>
     </row>
     <row r="495">
@@ -18913,37 +18913,37 @@
         <v>495.0</v>
       </c>
       <c r="B496" t="n">
-        <v>6.143890706206806</v>
+        <v>6.0836564835969345</v>
       </c>
       <c r="C496" t="n">
-        <v>6.132796503378325</v>
+        <v>6.144115179903106</v>
       </c>
       <c r="D496" t="n">
-        <v>6.236854949652249</v>
+        <v>6.221399645416512</v>
       </c>
       <c r="E496" t="n">
-        <v>6.025282648782858</v>
+        <v>5.930470886692043</v>
       </c>
       <c r="F496" t="n">
-        <v>5.84409904439278</v>
+        <v>5.792092653459906</v>
       </c>
       <c r="G496" t="n">
-        <v>5.469612950120469</v>
+        <v>5.456164058233738</v>
       </c>
       <c r="H496" t="n">
-        <v>6.143890706206806</v>
+        <v>5.486425643956262</v>
       </c>
       <c r="I496" t="n">
-        <v>6.132796503378325</v>
+        <v>6.042776688444574</v>
       </c>
       <c r="J496" t="n">
-        <v>6.236854949652249</v>
+        <v>6.020709336568772</v>
       </c>
       <c r="K496" t="n">
-        <v>6.025282648782858</v>
+        <v>5.731185074393848</v>
       </c>
       <c r="L496" t="n">
-        <v>5.84409904439278</v>
+        <v>5.250544285820861</v>
       </c>
     </row>
     <row r="497">
@@ -19369,37 +19369,37 @@
         <v>507.0</v>
       </c>
       <c r="B508" t="n">
-        <v>0.6403836278550867</v>
+        <v>0.6471245081482981</v>
       </c>
       <c r="C508" t="n">
-        <v>0.6392272684412896</v>
+        <v>0.6535555589835823</v>
       </c>
       <c r="D508" t="n">
-        <v>0.6500733802164453</v>
+        <v>0.6617763833953014</v>
       </c>
       <c r="E508" t="n">
-        <v>0.6280209961387934</v>
+        <v>0.6308300059324414</v>
       </c>
       <c r="F508" t="n">
-        <v>0.6091360550753132</v>
+        <v>0.6161105775162873</v>
       </c>
       <c r="G508" t="n">
-        <v>0.5701030098765902</v>
+        <v>0.5803775233004855</v>
       </c>
       <c r="H508" t="n">
-        <v>0.6403836278550867</v>
+        <v>0.5835964778600135</v>
       </c>
       <c r="I508" t="n">
-        <v>0.6392272684412896</v>
+        <v>0.6427760842353928</v>
       </c>
       <c r="J508" t="n">
-        <v>0.6500733802164453</v>
+        <v>0.6404287583685778</v>
       </c>
       <c r="K508" t="n">
-        <v>0.6280209961387934</v>
+        <v>0.6096317785814858</v>
       </c>
       <c r="L508" t="n">
-        <v>0.6091360550753132</v>
+        <v>0.5585055463985984</v>
       </c>
     </row>
     <row r="509">
@@ -19445,37 +19445,37 @@
         <v>509.0</v>
       </c>
       <c r="B510" t="n">
-        <v>3.1557764677740954</v>
+        <v>3.1245311562119755</v>
       </c>
       <c r="C510" t="n">
-        <v>3.0685684856565363</v>
+        <v>3.0711203654627144</v>
       </c>
       <c r="D510" t="n">
-        <v>2.6940604075282075</v>
+        <v>2.670114203226371</v>
       </c>
       <c r="E510" t="n">
-        <v>3.1081264610581396</v>
+        <v>3.093785463017537</v>
       </c>
       <c r="F510" t="n">
-        <v>3.0213826281571605</v>
+        <v>3.0195048985642354</v>
       </c>
       <c r="G510" t="n">
-        <v>2.7650358859143593</v>
+        <v>2.8040664221652474</v>
       </c>
       <c r="H510" t="n">
-        <v>3.1557764677740954</v>
+        <v>3.015884389193624</v>
       </c>
       <c r="I510" t="n">
-        <v>3.0685684856565363</v>
+        <v>2.8549915770954883</v>
       </c>
       <c r="J510" t="n">
-        <v>2.6940604075282075</v>
+        <v>2.8404828695575337</v>
       </c>
       <c r="K510" t="n">
-        <v>3.1081264610581396</v>
+        <v>3.058051770116651</v>
       </c>
       <c r="L510" t="n">
-        <v>3.0213826281571605</v>
+        <v>2.723603228491529</v>
       </c>
     </row>
     <row r="511">
@@ -19711,37 +19711,37 @@
         <v>516.0</v>
       </c>
       <c r="B517" t="n">
-        <v>0.432008736542137</v>
+        <v>0.43655619692679115</v>
       </c>
       <c r="C517" t="n">
-        <v>0.4378706524111501</v>
+        <v>0.4395095292809369</v>
       </c>
       <c r="D517" t="n">
-        <v>0.38764657996286156</v>
+        <v>0.39636300286047477</v>
       </c>
       <c r="E517" t="n">
-        <v>0.3898199402281885</v>
+        <v>0.3941767756577946</v>
       </c>
       <c r="F517" t="n">
-        <v>0.3813712133628444</v>
+        <v>0.37932191828251344</v>
       </c>
       <c r="G517" t="n">
-        <v>0.3939009363511015</v>
+        <v>0.39636300286047477</v>
       </c>
       <c r="H517" t="n">
-        <v>0.432008736542137</v>
+        <v>0.4395095292809369</v>
       </c>
       <c r="I517" t="n">
-        <v>0.4378706524111501</v>
+        <v>0.4184457032604533</v>
       </c>
       <c r="J517" t="n">
-        <v>0.38764657996286156</v>
+        <v>0.43443312733449424</v>
       </c>
       <c r="K517" t="n">
-        <v>0.3898199402281885</v>
+        <v>0.39835144615240653</v>
       </c>
       <c r="L517" t="n">
-        <v>0.3813712133628444</v>
+        <v>0.42844274242835617</v>
       </c>
     </row>
     <row r="518">
@@ -19749,37 +19749,37 @@
         <v>517.0</v>
       </c>
       <c r="B518" t="n">
-        <v>0.956612004460693</v>
+        <v>0.9662747519804982</v>
       </c>
       <c r="C518" t="n">
-        <v>0.9723728766789644</v>
+        <v>0.9765084312480041</v>
       </c>
       <c r="D518" t="n">
-        <v>1.0702242441301473</v>
+        <v>1.0881093948488005</v>
       </c>
       <c r="E518" t="n">
-        <v>1.051439399923779</v>
+        <v>1.0701625690834715</v>
       </c>
       <c r="F518" t="n">
-        <v>1.0552721075425133</v>
+        <v>1.0649581312007208</v>
       </c>
       <c r="G518" t="n">
-        <v>0.9830774098045559</v>
+        <v>0.9942429766064523</v>
       </c>
       <c r="H518" t="n">
-        <v>0.956612004460693</v>
+        <v>1.0774022916248511</v>
       </c>
       <c r="I518" t="n">
-        <v>0.9723728766789644</v>
+        <v>1.0662544892066432</v>
       </c>
       <c r="J518" t="n">
-        <v>1.0702242441301473</v>
+        <v>1.1017963050935937</v>
       </c>
       <c r="K518" t="n">
-        <v>1.051439399923779</v>
+        <v>1.0695092336422045</v>
       </c>
       <c r="L518" t="n">
-        <v>1.0552721075425133</v>
+        <v>0.9716340127956935</v>
       </c>
     </row>
     <row r="519">
@@ -19863,37 +19863,37 @@
         <v>520.0</v>
       </c>
       <c r="B521" t="n">
-        <v>2.3197930226178536</v>
+        <v>2.296824774869162</v>
       </c>
       <c r="C521" t="n">
-        <v>2.351270236807903</v>
+        <v>2.3123629506347947</v>
       </c>
       <c r="D521" t="n">
-        <v>2.081577883441273</v>
+        <v>2.085358932527401</v>
       </c>
       <c r="E521" t="n">
-        <v>2.0932483557087904</v>
+        <v>2.073856677289799</v>
       </c>
       <c r="F521" t="n">
-        <v>2.0478805286849555</v>
+        <v>1.9957017806536272</v>
       </c>
       <c r="G521" t="n">
-        <v>2.1151624179266983</v>
+        <v>2.085358932527401</v>
       </c>
       <c r="H521" t="n">
-        <v>2.3197930226178536</v>
+        <v>2.3123629506347947</v>
       </c>
       <c r="I521" t="n">
-        <v>2.351270236807903</v>
+        <v>2.2015412103915946</v>
       </c>
       <c r="J521" t="n">
-        <v>2.081577883441273</v>
+        <v>2.2856548066664737</v>
       </c>
       <c r="K521" t="n">
-        <v>2.0932483557087904</v>
+        <v>2.095820600116779</v>
       </c>
       <c r="L521" t="n">
-        <v>2.0478805286849555</v>
+        <v>2.254137983493929</v>
       </c>
     </row>
     <row r="522">
@@ -19901,37 +19901,37 @@
         <v>521.0</v>
       </c>
       <c r="B522" t="n">
-        <v>1.5282295374398276</v>
+        <v>1.5129472420654293</v>
       </c>
       <c r="C522" t="n">
-        <v>1.548966046263045</v>
+        <v>1.523182433024949</v>
       </c>
       <c r="D522" t="n">
-        <v>1.37129854902597</v>
+        <v>1.3736520435537205</v>
       </c>
       <c r="E522" t="n">
-        <v>1.3789868040820035</v>
+        <v>1.36607536398736</v>
       </c>
       <c r="F522" t="n">
-        <v>1.3490994595511345</v>
+        <v>1.314593754848787</v>
       </c>
       <c r="G522" t="n">
-        <v>1.3934233149431785</v>
+        <v>1.3736520435537205</v>
       </c>
       <c r="H522" t="n">
-        <v>1.5282295374398276</v>
+        <v>1.523182433024949</v>
       </c>
       <c r="I522" t="n">
-        <v>1.548966046263045</v>
+        <v>1.4501827649194914</v>
       </c>
       <c r="J522" t="n">
-        <v>1.37129854902597</v>
+        <v>1.5055894441301565</v>
       </c>
       <c r="K522" t="n">
-        <v>1.3789868040820035</v>
+        <v>1.3805432750050433</v>
       </c>
       <c r="L522" t="n">
-        <v>1.3490994595511345</v>
+        <v>1.4848289180250331</v>
       </c>
     </row>
     <row r="523">
@@ -19939,37 +19939,37 @@
         <v>522.0</v>
       </c>
       <c r="B523" t="n">
-        <v>8.149143113690611</v>
+        <v>8.070785968366662</v>
       </c>
       <c r="C523" t="n">
-        <v>8.987321004672296</v>
+        <v>8.943852125060014</v>
       </c>
       <c r="D523" t="n">
-        <v>8.62393557271628</v>
+        <v>8.681761218349319</v>
       </c>
       <c r="E523" t="n">
-        <v>8.89709024576222</v>
+        <v>8.745833264230177</v>
       </c>
       <c r="F523" t="n">
-        <v>8.397082927268727</v>
+        <v>8.23912217960368</v>
       </c>
       <c r="G523" t="n">
-        <v>8.556827718747215</v>
+        <v>8.687064681019997</v>
       </c>
       <c r="H523" t="n">
-        <v>8.149143113690611</v>
+        <v>7.887257281540033</v>
       </c>
       <c r="I523" t="n">
-        <v>8.987321004672296</v>
+        <v>8.029771250790652</v>
       </c>
       <c r="J523" t="n">
-        <v>8.62393557271628</v>
+        <v>7.699363772649188</v>
       </c>
       <c r="K523" t="n">
-        <v>8.89709024576222</v>
+        <v>7.84375338158217</v>
       </c>
       <c r="L523" t="n">
-        <v>8.397082927268727</v>
+        <v>8.745833264230177</v>
       </c>
     </row>
     <row r="524">
@@ -19977,37 +19977,37 @@
         <v>523.0</v>
       </c>
       <c r="B524" t="n">
-        <v>2.795464461967214</v>
+        <v>2.7401087300470715</v>
       </c>
       <c r="C524" t="n">
-        <v>2.57334053361944</v>
+        <v>2.542065863211425</v>
       </c>
       <c r="D524" t="n">
-        <v>2.849035256436818</v>
+        <v>2.7687568539576213</v>
       </c>
       <c r="E524" t="n">
-        <v>2.7098329489236486</v>
+        <v>2.6360620913202775</v>
       </c>
       <c r="F524" t="n">
-        <v>2.8192728581838433</v>
+        <v>2.6990399538496717</v>
       </c>
       <c r="G524" t="n">
-        <v>2.8260049843877413</v>
+        <v>2.702280097762211</v>
       </c>
       <c r="H524" t="n">
-        <v>2.795464461967214</v>
+        <v>2.796272449262911</v>
       </c>
       <c r="I524" t="n">
-        <v>2.57334053361944</v>
+        <v>2.7367772909532606</v>
       </c>
       <c r="J524" t="n">
-        <v>2.849035256436818</v>
+        <v>2.7687568539576213</v>
       </c>
       <c r="K524" t="n">
-        <v>2.7098329489236486</v>
+        <v>2.437465427545155</v>
       </c>
       <c r="L524" t="n">
-        <v>2.8192728581838433</v>
+        <v>2.555050306999779</v>
       </c>
     </row>
     <row r="525">
@@ -20246,34 +20246,34 @@
         <v>2.5644551488812715</v>
       </c>
       <c r="C531" t="n">
-        <v>2.828221483355789</v>
+        <v>2.8418679076412903</v>
       </c>
       <c r="D531" t="n">
-        <v>2.7138676636955985</v>
+        <v>2.758589726578929</v>
       </c>
       <c r="E531" t="n">
-        <v>2.799826751413277</v>
+        <v>2.7789483246885225</v>
       </c>
       <c r="F531" t="n">
-        <v>2.642479368443063</v>
+        <v>2.617943206344564</v>
       </c>
       <c r="G531" t="n">
-        <v>2.6927494824045843</v>
+        <v>2.7602748774683254</v>
       </c>
       <c r="H531" t="n">
-        <v>2.5644551488812715</v>
+        <v>2.5061397521225564</v>
       </c>
       <c r="I531" t="n">
-        <v>2.828221483355789</v>
+        <v>2.5514229108712483</v>
       </c>
       <c r="J531" t="n">
-        <v>2.7138676636955985</v>
+        <v>2.446437453213246</v>
       </c>
       <c r="K531" t="n">
-        <v>2.799826751413277</v>
+        <v>2.4923165878507456</v>
       </c>
       <c r="L531" t="n">
-        <v>2.642479368443063</v>
+        <v>2.7789483246885225</v>
       </c>
     </row>
     <row r="532">
@@ -20357,37 +20357,37 @@
         <v>533.0</v>
       </c>
       <c r="B534" t="n">
-        <v>2.058571964998671</v>
+        <v>2.0793656212107785</v>
       </c>
       <c r="C534" t="n">
-        <v>2.2703058226551702</v>
+        <v>2.3043032863138184</v>
       </c>
       <c r="D534" t="n">
-        <v>2.1785102740585507</v>
+        <v>2.2367779147846725</v>
       </c>
       <c r="E534" t="n">
-        <v>2.2475124432677367</v>
+        <v>2.253285502770215</v>
       </c>
       <c r="F534" t="n">
-        <v>2.121204556194845</v>
+        <v>2.1227359362981906</v>
       </c>
       <c r="G534" t="n">
-        <v>2.16155801970682</v>
+        <v>2.2381443043772107</v>
       </c>
       <c r="H534" t="n">
-        <v>2.058571964998671</v>
+        <v>2.0320811010427278</v>
       </c>
       <c r="I534" t="n">
-        <v>2.2703058226551702</v>
+        <v>2.0687985470713457</v>
       </c>
       <c r="J534" t="n">
-        <v>2.1785102740585507</v>
+        <v>1.9836720236161147</v>
       </c>
       <c r="K534" t="n">
-        <v>2.2475124432677367</v>
+        <v>2.020872711387057</v>
       </c>
       <c r="L534" t="n">
-        <v>2.121204556194845</v>
+        <v>2.253285502770215</v>
       </c>
     </row>
     <row r="535">
@@ -20471,37 +20471,37 @@
         <v>536.0</v>
       </c>
       <c r="B537" t="n">
-        <v>3.8956279171198833</v>
+        <v>3.857435486559885</v>
       </c>
       <c r="C537" t="n">
-        <v>3.959811194692562</v>
+        <v>3.8982890403587804</v>
       </c>
       <c r="D537" t="n">
-        <v>4.358293042080717</v>
+        <v>4.3438077879465045</v>
       </c>
       <c r="E537" t="n">
-        <v>4.28179519011164</v>
+        <v>4.2721628210916895</v>
       </c>
       <c r="F537" t="n">
-        <v>4.297403192863098</v>
+        <v>4.251386345937628</v>
       </c>
       <c r="G537" t="n">
-        <v>4.003403453507355</v>
+        <v>3.9690865691811674</v>
       </c>
       <c r="H537" t="n">
-        <v>3.8956279171198833</v>
+        <v>4.301064293045423</v>
       </c>
       <c r="I537" t="n">
-        <v>3.959811194692562</v>
+        <v>4.2565614965509315</v>
       </c>
       <c r="J537" t="n">
-        <v>4.358293042080717</v>
+        <v>4.3984468780928765</v>
       </c>
       <c r="K537" t="n">
-        <v>4.28179519011164</v>
+        <v>4.269554660927507</v>
       </c>
       <c r="L537" t="n">
-        <v>4.297403192863098</v>
+        <v>3.878830025543639</v>
       </c>
     </row>
     <row r="538">
@@ -20851,37 +20851,37 @@
         <v>546.0</v>
       </c>
       <c r="B547" t="n">
-        <v>0.5720912521105588</v>
+        <v>0.5781132652906699</v>
       </c>
       <c r="C547" t="n">
-        <v>0.5685747224204689</v>
+        <v>0.5810661703688197</v>
       </c>
       <c r="D547" t="n">
-        <v>0.5622507206563594</v>
+        <v>0.5707015566907444</v>
       </c>
       <c r="E547" t="n">
-        <v>0.6108464191895135</v>
+        <v>0.6250540855593648</v>
       </c>
       <c r="F547" t="n">
-        <v>0.55146868766774</v>
+        <v>0.5678527966496861</v>
       </c>
       <c r="G547" t="n">
-        <v>0.6140514677225388</v>
+        <v>0.6231519128217148</v>
       </c>
       <c r="H547" t="n">
-        <v>0.5720912521105588</v>
+        <v>0.6223942813376088</v>
       </c>
       <c r="I547" t="n">
-        <v>0.5685747224204689</v>
+        <v>0.6439236430036809</v>
       </c>
       <c r="J547" t="n">
-        <v>0.5622507206563594</v>
+        <v>0.6296670313707899</v>
       </c>
       <c r="K547" t="n">
-        <v>0.6108464191895135</v>
+        <v>0.543438743204477</v>
       </c>
       <c r="L547" t="n">
-        <v>0.55146868766774</v>
+        <v>0.6359245917584119</v>
       </c>
     </row>
     <row r="548">
@@ -20930,34 +20930,34 @@
         <v>4.764015093123326</v>
       </c>
       <c r="C549" t="n">
-        <v>4.746751967729553</v>
+        <v>4.749517180316656</v>
       </c>
       <c r="D549" t="n">
-        <v>4.756772627571558</v>
+        <v>4.76692530633623</v>
       </c>
       <c r="E549" t="n">
-        <v>4.702368571736408</v>
+        <v>4.683947614782758</v>
       </c>
       <c r="F549" t="n">
-        <v>4.192777126572064</v>
+        <v>4.224935966082894</v>
       </c>
       <c r="G549" t="n">
-        <v>4.798189662723612</v>
+        <v>4.846867532293939</v>
       </c>
       <c r="H549" t="n">
-        <v>4.764015093123326</v>
+        <v>4.56916984856</v>
       </c>
       <c r="I549" t="n">
-        <v>4.746751967729553</v>
+        <v>4.304168077972016</v>
       </c>
       <c r="J549" t="n">
-        <v>4.756772627571558</v>
+        <v>4.3280403350862695</v>
       </c>
       <c r="K549" t="n">
-        <v>4.702368571736408</v>
+        <v>4.678331370795593</v>
       </c>
       <c r="L549" t="n">
-        <v>4.192777126572064</v>
+        <v>4.349752913478814</v>
       </c>
     </row>
     <row r="550">
@@ -20968,34 +20968,34 @@
         <v>3.8856112551742523</v>
       </c>
       <c r="C550" t="n">
-        <v>4.124903851007057</v>
+        <v>4.07693922658097</v>
       </c>
       <c r="D550" t="n">
-        <v>3.9526047249273204</v>
+        <v>3.9269051885706574</v>
       </c>
       <c r="E550" t="n">
-        <v>3.7303256943121776</v>
+        <v>3.7196700082291065</v>
       </c>
       <c r="F550" t="n">
-        <v>4.293860513918203</v>
+        <v>4.2179654244936815</v>
       </c>
       <c r="G550" t="n">
-        <v>4.243770501530389</v>
+        <v>4.124578738678785</v>
       </c>
       <c r="H550" t="n">
-        <v>3.8856112551742523</v>
+        <v>4.0968631807110425</v>
       </c>
       <c r="I550" t="n">
-        <v>4.124903851007057</v>
+        <v>3.63105848906414</v>
       </c>
       <c r="J550" t="n">
-        <v>3.9526047249273204</v>
+        <v>3.699153351280055</v>
       </c>
       <c r="K550" t="n">
-        <v>3.7303256943121776</v>
+        <v>4.124578738678785</v>
       </c>
       <c r="L550" t="n">
-        <v>4.293860513918203</v>
+        <v>3.7196700082291065</v>
       </c>
     </row>
     <row r="551">
@@ -21041,37 +21041,37 @@
         <v>551.0</v>
       </c>
       <c r="B552" t="n">
-        <v>3.1263912978213733</v>
+        <v>3.189550717979381</v>
       </c>
       <c r="C552" t="n">
-        <v>3.318927874466434</v>
+        <v>3.3466045837661853</v>
       </c>
       <c r="D552" t="n">
-        <v>3.180294734653337</v>
+        <v>3.2234473397109826</v>
       </c>
       <c r="E552" t="n">
-        <v>3.001447397293494</v>
+        <v>3.053335850207554</v>
       </c>
       <c r="F552" t="n">
-        <v>3.4548716439135028</v>
+        <v>3.4623676339702953</v>
       </c>
       <c r="G552" t="n">
-        <v>3.4145688527816085</v>
+        <v>3.385710050071759</v>
       </c>
       <c r="H552" t="n">
-        <v>3.1263912978213733</v>
+        <v>3.3629594010721977</v>
       </c>
       <c r="I552" t="n">
-        <v>3.318927874466434</v>
+        <v>2.980598019268471</v>
       </c>
       <c r="J552" t="n">
-        <v>3.180294734653337</v>
+        <v>3.0364945056661403</v>
       </c>
       <c r="K552" t="n">
-        <v>3.001447397293494</v>
+        <v>3.385710050071759</v>
       </c>
       <c r="L552" t="n">
-        <v>3.4548716439135028</v>
+        <v>3.053335850207554</v>
       </c>
     </row>
     <row r="553">
@@ -21117,37 +21117,37 @@
         <v>553.0</v>
       </c>
       <c r="B554" t="n">
-        <v>3.425918622768696</v>
+        <v>3.4605238613825215</v>
       </c>
       <c r="C554" t="n">
-        <v>3.049441764912388</v>
+        <v>3.0820583396382073</v>
       </c>
       <c r="D554" t="n">
-        <v>3.1907824843839725</v>
+        <v>3.230738790340421</v>
       </c>
       <c r="E554" t="n">
-        <v>3.282577898915593</v>
+        <v>3.298123841758459</v>
       </c>
       <c r="F554" t="n">
-        <v>3.193041366534433</v>
+        <v>3.2143205827994166</v>
       </c>
       <c r="G554" t="n">
-        <v>3.491451442033085</v>
+        <v>3.475312422672338</v>
       </c>
       <c r="H554" t="n">
-        <v>3.425918622768696</v>
+        <v>3.464736306624224</v>
       </c>
       <c r="I554" t="n">
-        <v>3.049441764912388</v>
+        <v>3.02152959056307</v>
       </c>
       <c r="J554" t="n">
-        <v>3.1907824843839725</v>
+        <v>3.4774354008606383</v>
       </c>
       <c r="K554" t="n">
-        <v>3.282577898915593</v>
+        <v>3.535752640738391</v>
       </c>
       <c r="L554" t="n">
-        <v>3.193041366534433</v>
+        <v>3.4169038121432322</v>
       </c>
     </row>
     <row r="555">
@@ -21231,37 +21231,37 @@
         <v>556.0</v>
       </c>
       <c r="B557" t="n">
-        <v>1.4590045637056572</v>
+        <v>1.474045847867571</v>
       </c>
       <c r="C557" t="n">
-        <v>1.5687443596888362</v>
+        <v>1.5941462539409814</v>
       </c>
       <c r="D557" t="n">
-        <v>1.50127145632655</v>
+        <v>1.5100181249024203</v>
       </c>
       <c r="E557" t="n">
-        <v>1.5138495898521622</v>
+        <v>1.537302473433042</v>
       </c>
       <c r="F557" t="n">
-        <v>1.538496910166286</v>
+        <v>1.5451547552487352</v>
       </c>
       <c r="G557" t="n">
-        <v>1.5991590226451842</v>
+        <v>1.5773827809073153</v>
       </c>
       <c r="H557" t="n">
-        <v>1.4590045637056572</v>
+        <v>1.712303571850853</v>
       </c>
       <c r="I557" t="n">
-        <v>1.5687443596888362</v>
+        <v>1.5100181249024203</v>
       </c>
       <c r="J557" t="n">
-        <v>1.50127145632655</v>
+        <v>1.4450969632525907</v>
       </c>
       <c r="K557" t="n">
-        <v>1.5138495898521622</v>
+        <v>1.6570679733904634</v>
       </c>
       <c r="L557" t="n">
-        <v>1.538496910166286</v>
+        <v>1.674392792697571</v>
       </c>
     </row>
     <row r="558">
@@ -21269,37 +21269,37 @@
         <v>557.0</v>
       </c>
       <c r="B558" t="n">
-        <v>4.370642940203367</v>
+        <v>4.329017769344287</v>
       </c>
       <c r="C558" t="n">
-        <v>4.699383148770667</v>
+        <v>4.681731894721999</v>
       </c>
       <c r="D558" t="n">
-        <v>4.497259059462544</v>
+        <v>4.4346621268199495</v>
       </c>
       <c r="E558" t="n">
-        <v>4.534938537554803</v>
+        <v>4.514791540558956</v>
       </c>
       <c r="F558" t="n">
-        <v>4.608772875846556</v>
+        <v>4.537852334467917</v>
       </c>
       <c r="G558" t="n">
-        <v>4.790494331857853</v>
+        <v>4.632500473091765</v>
       </c>
       <c r="H558" t="n">
-        <v>4.370642940203367</v>
+        <v>5.028739506154076</v>
       </c>
       <c r="I558" t="n">
-        <v>4.699383148770667</v>
+        <v>4.4346621268199495</v>
       </c>
       <c r="J558" t="n">
-        <v>4.497259059462544</v>
+        <v>4.243999900950138</v>
       </c>
       <c r="K558" t="n">
-        <v>4.534938537554803</v>
+        <v>4.866522104584573</v>
       </c>
       <c r="L558" t="n">
-        <v>4.608772875846556</v>
+        <v>4.917402103154254</v>
       </c>
     </row>
     <row r="559">
@@ -21649,37 +21649,37 @@
         <v>567.0</v>
       </c>
       <c r="B568" t="n">
-        <v>2.546837106289489</v>
+        <v>2.5728252400271363</v>
       </c>
       <c r="C568" t="n">
-        <v>2.8269877929637137</v>
+        <v>2.8337226079066746</v>
       </c>
       <c r="D568" t="n">
-        <v>2.5304113693170898</v>
+        <v>2.5586342572994436</v>
       </c>
       <c r="E568" t="n">
-        <v>2.5727448283798835</v>
+        <v>2.585732390929022</v>
       </c>
       <c r="F568" t="n">
-        <v>2.814467210777529</v>
+        <v>2.8528929340170794</v>
       </c>
       <c r="G568" t="n">
-        <v>2.7788476974492875</v>
+        <v>2.781057499491565</v>
       </c>
       <c r="H568" t="n">
-        <v>2.546837106289489</v>
+        <v>2.5115343318120518</v>
       </c>
       <c r="I568" t="n">
-        <v>2.8269877929637137</v>
+        <v>2.784396103840325</v>
       </c>
       <c r="J568" t="n">
-        <v>2.5304113693170898</v>
+        <v>2.6876036551977096</v>
       </c>
       <c r="K568" t="n">
-        <v>2.5727448283798835</v>
+        <v>2.5728252400271363</v>
       </c>
       <c r="L568" t="n">
-        <v>2.814467210777529</v>
+        <v>2.831992617095979</v>
       </c>
     </row>
     <row r="569">
@@ -21953,37 +21953,37 @@
         <v>575.0</v>
       </c>
       <c r="B576" t="n">
-        <v>1.0400145877570528</v>
+        <v>1.0506269815096758</v>
       </c>
       <c r="C576" t="n">
-        <v>1.0336218275767808</v>
+        <v>1.0559934069754213</v>
       </c>
       <c r="D576" t="n">
-        <v>1.0221253153273606</v>
+        <v>1.0371574046954268</v>
       </c>
       <c r="E576" t="n">
-        <v>1.1104682766823388</v>
+        <v>1.135934299762771</v>
       </c>
       <c r="F576" t="n">
-        <v>1.0025244709647292</v>
+        <v>1.0319802459227811</v>
       </c>
       <c r="G576" t="n">
-        <v>1.1162947898767261</v>
+        <v>1.1324774097004708</v>
       </c>
       <c r="H576" t="n">
-        <v>1.0400145877570528</v>
+        <v>1.1311005375077132</v>
       </c>
       <c r="I576" t="n">
-        <v>1.0336218275767808</v>
+        <v>1.1702266562444676</v>
       </c>
       <c r="J576" t="n">
-        <v>1.0221253153273606</v>
+        <v>1.1443175796919878</v>
       </c>
       <c r="K576" t="n">
-        <v>1.1104682766823388</v>
+        <v>0.9876116683142752</v>
       </c>
       <c r="L576" t="n">
-        <v>1.0025244709647292</v>
+        <v>1.1556896795491953</v>
       </c>
     </row>
     <row r="577">
@@ -21991,37 +21991,37 @@
         <v>576.0</v>
       </c>
       <c r="B577" t="n">
-        <v>3.3394678541039613</v>
+        <v>3.3070458361029518</v>
       </c>
       <c r="C577" t="n">
-        <v>3.3189408178755033</v>
+        <v>3.323937668602579</v>
       </c>
       <c r="D577" t="n">
-        <v>3.2820257269304327</v>
+        <v>3.2646478121595495</v>
       </c>
       <c r="E577" t="n">
-        <v>3.565693362994606</v>
+        <v>3.5755666494677754</v>
       </c>
       <c r="F577" t="n">
-        <v>3.219087773527809</v>
+        <v>3.248351732139484</v>
       </c>
       <c r="G577" t="n">
-        <v>3.584402190489162</v>
+        <v>3.5646854384503612</v>
       </c>
       <c r="H577" t="n">
-        <v>3.3394678541039613</v>
+        <v>3.5603514745106937</v>
       </c>
       <c r="I577" t="n">
-        <v>3.3189408178755033</v>
+        <v>3.683508284994778</v>
       </c>
       <c r="J577" t="n">
-        <v>3.2820257269304327</v>
+        <v>3.601954598255236</v>
       </c>
       <c r="K577" t="n">
-        <v>3.565693362994606</v>
+        <v>3.1086932973035717</v>
       </c>
       <c r="L577" t="n">
-        <v>3.219087773527809</v>
+        <v>3.6377504193624426</v>
       </c>
     </row>
     <row r="578">
@@ -22029,37 +22029,37 @@
         <v>577.0</v>
       </c>
       <c r="B578" t="n">
-        <v>4.131506892807644</v>
+        <v>4.2149716785209295</v>
       </c>
       <c r="C578" t="n">
-        <v>4.256315151845282</v>
+        <v>4.315671092168743</v>
       </c>
       <c r="D578" t="n">
-        <v>3.9879307277894163</v>
+        <v>4.06467497622733</v>
       </c>
       <c r="E578" t="n">
-        <v>4.297342779094256</v>
+        <v>4.3813386381319175</v>
       </c>
       <c r="F578" t="n">
-        <v>4.338576677264361</v>
+        <v>4.3947126850382805</v>
       </c>
       <c r="G578" t="n">
-        <v>4.321175715488131</v>
+        <v>4.376011782791382</v>
       </c>
       <c r="H578" t="n">
-        <v>4.131506892807644</v>
+        <v>4.085436650623948</v>
       </c>
       <c r="I578" t="n">
-        <v>4.256315151845282</v>
+        <v>4.427145992717122</v>
       </c>
       <c r="J578" t="n">
-        <v>3.9879307277894163</v>
+        <v>4.471142473418892</v>
       </c>
       <c r="K578" t="n">
-        <v>4.297342779094256</v>
+        <v>4.320851969687014</v>
       </c>
       <c r="L578" t="n">
-        <v>4.338576677264361</v>
+        <v>4.5273832576774184</v>
       </c>
     </row>
     <row r="579">
@@ -22257,37 +22257,37 @@
         <v>583.0</v>
       </c>
       <c r="B584" t="n">
-        <v>5.333457723292236</v>
+        <v>5.281168922083488</v>
       </c>
       <c r="C584" t="n">
-        <v>5.9201351514788945</v>
+        <v>5.816705906742527</v>
       </c>
       <c r="D584" t="n">
-        <v>5.299059773969186</v>
+        <v>5.252039474894715</v>
       </c>
       <c r="E584" t="n">
-        <v>5.387712367271896</v>
+        <v>5.307663082337825</v>
       </c>
       <c r="F584" t="n">
-        <v>5.893915180207032</v>
+        <v>5.856056317685871</v>
       </c>
       <c r="G584" t="n">
-        <v>5.8193225931934105</v>
+        <v>5.7086016602850025</v>
       </c>
       <c r="H584" t="n">
-        <v>5.333457723292236</v>
+        <v>5.155358729212261</v>
       </c>
       <c r="I584" t="n">
-        <v>5.9201351514788945</v>
+        <v>5.715454723312951</v>
       </c>
       <c r="J584" t="n">
-        <v>5.299059773969186</v>
+        <v>5.516771476697121</v>
       </c>
       <c r="K584" t="n">
-        <v>5.387712367271896</v>
+        <v>5.281168922083488</v>
       </c>
       <c r="L584" t="n">
-        <v>5.893915180207032</v>
+        <v>5.813154801302952</v>
       </c>
     </row>
     <row r="585">
@@ -22295,37 +22295,37 @@
         <v>584.0</v>
       </c>
       <c r="B585" t="n">
-        <v>4.579644184267863</v>
+        <v>4.5347457118730805</v>
       </c>
       <c r="C585" t="n">
-        <v>4.453088475330685</v>
+        <v>4.457228688611389</v>
       </c>
       <c r="D585" t="n">
-        <v>3.9096045627418197</v>
+        <v>3.8752338600366762</v>
       </c>
       <c r="E585" t="n">
-        <v>4.5104947757576435</v>
+        <v>4.490123369063391</v>
       </c>
       <c r="F585" t="n">
-        <v>4.384612637424103</v>
+        <v>4.382317284153522</v>
       </c>
       <c r="G585" t="n">
-        <v>4.012603758070136</v>
+        <v>4.069643587467714</v>
       </c>
       <c r="H585" t="n">
-        <v>4.579644184267863</v>
+        <v>4.377062707219463</v>
       </c>
       <c r="I585" t="n">
-        <v>4.453088475330685</v>
+        <v>4.14355311705818</v>
       </c>
       <c r="J585" t="n">
-        <v>3.9096045627418197</v>
+        <v>4.12249610210035</v>
       </c>
       <c r="K585" t="n">
-        <v>4.5104947757576435</v>
+        <v>4.438261760857142</v>
       </c>
       <c r="L585" t="n">
-        <v>4.384612637424103</v>
+        <v>3.9528644278968197</v>
       </c>
     </row>
     <row r="586">
@@ -22713,37 +22713,37 @@
         <v>595.0</v>
       </c>
       <c r="B596" t="n">
-        <v>0.9085881072284704</v>
+        <v>0.9179549949318566</v>
       </c>
       <c r="C596" t="n">
-        <v>0.8490567793179948</v>
+        <v>0.8482046706329899</v>
       </c>
       <c r="D596" t="n">
-        <v>0.9331712394271067</v>
+        <v>0.9405369139738454</v>
       </c>
       <c r="E596" t="n">
-        <v>0.8162229348143744</v>
+        <v>0.8117372722447332</v>
       </c>
       <c r="F596" t="n">
-        <v>0.8387656167942799</v>
+        <v>0.8524598782970086</v>
       </c>
       <c r="G596" t="n">
-        <v>0.8874263721465535</v>
+        <v>0.895460972266279</v>
       </c>
       <c r="H596" t="n">
-        <v>0.9085881072284704</v>
+        <v>0.8435262114655205</v>
       </c>
       <c r="I596" t="n">
-        <v>0.8490567793179948</v>
+        <v>0.886044624284294</v>
       </c>
       <c r="J596" t="n">
-        <v>0.9331712394271067</v>
+        <v>0.933646532865022</v>
       </c>
       <c r="K596" t="n">
-        <v>0.8162229348143744</v>
+        <v>0.9618320887898614</v>
       </c>
       <c r="L596" t="n">
-        <v>0.8387656167942799</v>
+        <v>0.9342168733074878</v>
       </c>
     </row>
     <row r="597">
@@ -22789,37 +22789,37 @@
         <v>597.0</v>
       </c>
       <c r="B598" t="n">
-        <v>0.9125712983512754</v>
+        <v>0.9217891902538135</v>
       </c>
       <c r="C598" t="n">
-        <v>0.924953955744338</v>
+        <v>0.9280251567993414</v>
       </c>
       <c r="D598" t="n">
-        <v>0.8188610851013094</v>
+        <v>0.8369211891283656</v>
       </c>
       <c r="E598" t="n">
-        <v>0.8234520714202193</v>
+        <v>0.8323049664815311</v>
       </c>
       <c r="F598" t="n">
-        <v>0.8056050581708233</v>
+        <v>0.8009389085772091</v>
       </c>
       <c r="G598" t="n">
-        <v>0.8320727302528677</v>
+        <v>0.8369211891283656</v>
       </c>
       <c r="H598" t="n">
-        <v>0.9125712983512754</v>
+        <v>0.9280251567993414</v>
       </c>
       <c r="I598" t="n">
-        <v>0.924953955744338</v>
+        <v>0.8835488505007395</v>
       </c>
       <c r="J598" t="n">
-        <v>0.8188610851013094</v>
+        <v>0.9173063250142117</v>
       </c>
       <c r="K598" t="n">
-        <v>0.8234520714202193</v>
+        <v>0.8411197906940714</v>
       </c>
       <c r="L598" t="n">
-        <v>0.8056050581708233</v>
+        <v>0.9046576165757338</v>
       </c>
     </row>
     <row r="599">
@@ -23093,37 +23093,37 @@
         <v>605.0</v>
       </c>
       <c r="B606" t="n">
-        <v>1.10780731729701</v>
+        <v>1.1191114735959589</v>
       </c>
       <c r="C606" t="n">
-        <v>0.9422477625785519</v>
+        <v>0.944473058761754</v>
       </c>
       <c r="D606" t="n">
-        <v>1.0847591346718537</v>
+        <v>1.0830111038927381</v>
       </c>
       <c r="E606" t="n">
-        <v>1.0909205913009998</v>
+        <v>1.105209468096199</v>
       </c>
       <c r="F606" t="n">
-        <v>0.9954808500918276</v>
+        <v>0.9869036289456201</v>
       </c>
       <c r="G606" t="n">
-        <v>0.945084007944219</v>
+        <v>0.9633932020430134</v>
       </c>
       <c r="H606" t="n">
-        <v>1.10780731729701</v>
+        <v>1.0680595699042035</v>
       </c>
       <c r="I606" t="n">
-        <v>0.9422477625785519</v>
+        <v>0.9918546508285855</v>
       </c>
       <c r="J606" t="n">
-        <v>1.0847591346718537</v>
+        <v>1.0667789229732951</v>
       </c>
       <c r="K606" t="n">
-        <v>1.0909205913009998</v>
+        <v>1.0047358801843447</v>
       </c>
       <c r="L606" t="n">
-        <v>0.9954808500918276</v>
+        <v>1.0418873105818434</v>
       </c>
     </row>
     <row r="607">
@@ -23131,37 +23131,37 @@
         <v>606.0</v>
       </c>
       <c r="B607" t="n">
-        <v>3.878186252226783</v>
+        <v>3.8401648183814228</v>
       </c>
       <c r="C607" t="n">
-        <v>3.2985991895591256</v>
+        <v>3.2409034289603182</v>
       </c>
       <c r="D607" t="n">
-        <v>3.7974997071931327</v>
+        <v>3.7162885353339283</v>
       </c>
       <c r="E607" t="n">
-        <v>3.8190695921539475</v>
+        <v>3.792460908909758</v>
       </c>
       <c r="F607" t="n">
-        <v>3.484956351977309</v>
+        <v>3.3865014204815576</v>
       </c>
       <c r="G607" t="n">
-        <v>3.3085282517826085</v>
+        <v>3.3058267813712856</v>
       </c>
       <c r="H607" t="n">
-        <v>3.878186252226783</v>
+        <v>3.6649832309399764</v>
       </c>
       <c r="I607" t="n">
-        <v>3.2985991895591256</v>
+        <v>3.403490559185415</v>
       </c>
       <c r="J607" t="n">
-        <v>3.7974997071931327</v>
+        <v>3.660588766755778</v>
       </c>
       <c r="K607" t="n">
-        <v>3.8190695921539475</v>
+        <v>3.447691735704983</v>
       </c>
       <c r="L607" t="n">
-        <v>3.484956351977309</v>
+        <v>3.575174671347307</v>
       </c>
     </row>
     <row r="608">
@@ -23172,34 +23172,34 @@
         <v>2.2888974762650443</v>
       </c>
       <c r="C608" t="n">
-        <v>2.36394744505005</v>
+        <v>2.37853438865468</v>
       </c>
       <c r="D608" t="n">
-        <v>2.2974306397789697</v>
+        <v>2.334749782802855</v>
       </c>
       <c r="E608" t="n">
-        <v>2.605744851059804</v>
+        <v>2.6214485397104315</v>
       </c>
       <c r="F608" t="n">
-        <v>2.572864661144838</v>
+        <v>2.634259527943714</v>
       </c>
       <c r="G608" t="n">
-        <v>2.412263704571936</v>
+        <v>2.4349423195638233</v>
       </c>
       <c r="H608" t="n">
-        <v>2.2888974762650443</v>
+        <v>2.4984257514432353</v>
       </c>
       <c r="I608" t="n">
-        <v>2.36394744505005</v>
+        <v>2.6326513095656647</v>
       </c>
       <c r="J608" t="n">
-        <v>2.2974306397789697</v>
+        <v>2.3917264814011627</v>
       </c>
       <c r="K608" t="n">
-        <v>2.605744851059804</v>
+        <v>2.652080472756456</v>
       </c>
       <c r="L608" t="n">
-        <v>2.572864661144838</v>
+        <v>2.624639590796859</v>
       </c>
     </row>
     <row r="609">
@@ -23207,37 +23207,37 @@
         <v>608.0</v>
       </c>
       <c r="B609" t="n">
-        <v>3.2344169976981334</v>
+        <v>3.2027070271324654</v>
       </c>
       <c r="C609" t="n">
-        <v>3.22857651649164</v>
+        <v>3.2345351706236567</v>
       </c>
       <c r="D609" t="n">
-        <v>3.283357505196798</v>
+        <v>3.2752211464763925</v>
       </c>
       <c r="E609" t="n">
-        <v>3.171976447346478</v>
+        <v>3.1220633239606013</v>
       </c>
       <c r="F609" t="n">
-        <v>3.076593349279408</v>
+        <v>3.049214874813336</v>
       </c>
       <c r="G609" t="n">
-        <v>2.879447233465157</v>
+        <v>2.8723671393360894</v>
       </c>
       <c r="H609" t="n">
-        <v>3.2344169976981334</v>
+        <v>2.888298182370327</v>
       </c>
       <c r="I609" t="n">
-        <v>3.22857651649164</v>
+        <v>3.1811860869618274</v>
       </c>
       <c r="J609" t="n">
-        <v>3.283357505196798</v>
+        <v>3.1695688526368135</v>
       </c>
       <c r="K609" t="n">
-        <v>3.171976447346478</v>
+        <v>3.0171504194966294</v>
       </c>
       <c r="L609" t="n">
-        <v>3.076593349279408</v>
+        <v>2.7641197568943476</v>
       </c>
     </row>
     <row r="610">
@@ -23286,34 +23286,34 @@
         <v>4.574887024579272</v>
       </c>
       <c r="C611" t="n">
-        <v>4.072149136815531</v>
+        <v>4.0745474592318</v>
       </c>
       <c r="D611" t="n">
-        <v>4.260892039013447</v>
+        <v>4.271106215065493</v>
       </c>
       <c r="E611" t="n">
-        <v>4.383473365979467</v>
+        <v>4.360190703348671</v>
       </c>
       <c r="F611" t="n">
-        <v>4.263908494387348</v>
+        <v>4.2494009913320605</v>
       </c>
       <c r="G611" t="n">
-        <v>4.662397931156049</v>
+        <v>4.594437820894241</v>
       </c>
       <c r="H611" t="n">
-        <v>4.574887024579272</v>
+        <v>4.580455967852016</v>
       </c>
       <c r="I611" t="n">
-        <v>4.072149136815531</v>
+        <v>3.9945271502121042</v>
       </c>
       <c r="J611" t="n">
-        <v>4.260892039013447</v>
+        <v>4.597244443751405</v>
       </c>
       <c r="K611" t="n">
-        <v>4.383473365979467</v>
+        <v>4.6743410900145</v>
       </c>
       <c r="L611" t="n">
-        <v>4.263908494387348</v>
+        <v>4.517220380663513</v>
       </c>
     </row>
     <row r="612">
@@ -23473,37 +23473,37 @@
         <v>615.0</v>
       </c>
       <c r="B616" t="n">
-        <v>1.2032084806101464</v>
+        <v>1.2154861181673928</v>
       </c>
       <c r="C616" t="n">
-        <v>1.1243734198890003</v>
+        <v>1.1231280489907662</v>
       </c>
       <c r="D616" t="n">
-        <v>1.2357629823761724</v>
+        <v>1.24538737614699</v>
       </c>
       <c r="E616" t="n">
-        <v>1.080892815373607</v>
+        <v>1.0748406963957773</v>
       </c>
       <c r="F616" t="n">
-        <v>1.1107452269538736</v>
+        <v>1.128762471020267</v>
       </c>
       <c r="G616" t="n">
-        <v>1.1751848041912947</v>
+        <v>1.1857012458776768</v>
       </c>
       <c r="H616" t="n">
-        <v>1.2032084806101464</v>
+        <v>1.116933189543551</v>
       </c>
       <c r="I616" t="n">
-        <v>1.1243734198890003</v>
+        <v>1.1732328347691496</v>
       </c>
       <c r="J616" t="n">
-        <v>1.2357629823761724</v>
+        <v>1.2362636580639705</v>
       </c>
       <c r="K616" t="n">
-        <v>1.080892815373607</v>
+        <v>1.2735848253854865</v>
       </c>
       <c r="L616" t="n">
-        <v>1.1107452269538736</v>
+        <v>1.2370188594564944</v>
       </c>
     </row>
     <row r="617">
@@ -23511,37 +23511,37 @@
         <v>616.0</v>
       </c>
       <c r="B617" t="n">
-        <v>3.2692776044501923</v>
+        <v>3.20453943406504</v>
       </c>
       <c r="C617" t="n">
-        <v>3.313638351464544</v>
+        <v>3.2262183612166506</v>
       </c>
       <c r="D617" t="n">
-        <v>2.933561697057676</v>
+        <v>2.9095014154244767</v>
       </c>
       <c r="E617" t="n">
-        <v>2.950008859906065</v>
+        <v>2.8934534213010785</v>
       </c>
       <c r="F617" t="n">
-        <v>2.8860721123576925</v>
+        <v>2.7844113859763957</v>
       </c>
       <c r="G617" t="n">
-        <v>2.9808922844758508</v>
+        <v>2.9095014154244767</v>
       </c>
       <c r="H617" t="n">
-        <v>3.2692776044501923</v>
+        <v>3.2262183612166506</v>
       </c>
       <c r="I617" t="n">
-        <v>3.313638351464544</v>
+        <v>3.07159941046048</v>
       </c>
       <c r="J617" t="n">
-        <v>2.933561697057676</v>
+        <v>3.1889550481883218</v>
       </c>
       <c r="K617" t="n">
-        <v>2.950008859906065</v>
+        <v>2.9240975773533524</v>
       </c>
       <c r="L617" t="n">
-        <v>2.8860721123576925</v>
+        <v>3.144982646027766</v>
       </c>
     </row>
     <row r="618">
@@ -23549,37 +23549,37 @@
         <v>617.0</v>
       </c>
       <c r="B618" t="n">
-        <v>2.299193603750293</v>
+        <v>2.3456419593816125</v>
       </c>
       <c r="C618" t="n">
-        <v>2.3686497025345163</v>
+        <v>2.4016814272482914</v>
       </c>
       <c r="D618" t="n">
-        <v>2.219293119780249</v>
+        <v>2.2620014801221493</v>
       </c>
       <c r="E618" t="n">
-        <v>2.3914816765806224</v>
+        <v>2.438225575804681</v>
       </c>
       <c r="F618" t="n">
-        <v>2.4144284408944947</v>
+        <v>2.445668265336894</v>
       </c>
       <c r="G618" t="n">
-        <v>2.404744763472908</v>
+        <v>2.4352611678913396</v>
       </c>
       <c r="H618" t="n">
-        <v>2.299193603750293</v>
+        <v>2.2735554022658957</v>
       </c>
       <c r="I618" t="n">
-        <v>2.3686497025345163</v>
+        <v>2.4637174797030794</v>
       </c>
       <c r="J618" t="n">
-        <v>2.219293119780249</v>
+        <v>2.4882016278944166</v>
       </c>
       <c r="K618" t="n">
-        <v>2.3914816765806224</v>
+        <v>2.4045645981495816</v>
       </c>
       <c r="L618" t="n">
-        <v>2.4144284408944947</v>
+        <v>2.519499760704557</v>
       </c>
     </row>
     <row r="619">
@@ -23701,37 +23701,37 @@
         <v>621.0</v>
       </c>
       <c r="B622" t="n">
-        <v>0.8819799241400954</v>
+        <v>0.8912639233415702</v>
       </c>
       <c r="C622" t="n">
-        <v>0.9726957285369991</v>
+        <v>0.9876773793793268</v>
       </c>
       <c r="D622" t="n">
-        <v>0.9333666050648951</v>
+        <v>0.9587344522960558</v>
       </c>
       <c r="E622" t="n">
-        <v>0.9629300738186626</v>
+        <v>0.9658099841230819</v>
       </c>
       <c r="F622" t="n">
-        <v>0.9088143943316368</v>
+        <v>0.9098534377526334</v>
       </c>
       <c r="G622" t="n">
-        <v>0.9261035371414218</v>
+        <v>0.9593201182975692</v>
       </c>
       <c r="H622" t="n">
-        <v>0.8819799241400954</v>
+        <v>0.8709966906200052</v>
       </c>
       <c r="I622" t="n">
-        <v>0.9726957285369991</v>
+        <v>0.8867346323598966</v>
       </c>
       <c r="J622" t="n">
-        <v>0.9333666050648951</v>
+        <v>0.8502474467965614</v>
       </c>
       <c r="K622" t="n">
-        <v>0.9629300738186626</v>
+        <v>0.8661925170600723</v>
       </c>
       <c r="L622" t="n">
-        <v>0.9088143943316368</v>
+        <v>0.9658099841230819</v>
       </c>
     </row>
     <row r="623">
